--- a/uwwtd website/sites/all/modules/uwwtd/model/2015_register_model_20160208_1.xlsx
+++ b/uwwtd website/sites/all/modules/uwwtd/model/2015_register_model_20160208_1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\15-UWWTD-SIIF\TaskI-improvement and development\registers\formattage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b.bondier\Desktop\Projets\siif\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6540" firstSheet="11" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6540" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sensitive Areas_reference 2012" sheetId="1" r:id="rId1"/>
@@ -1824,10 +1824,10 @@
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="yyyy\/mm\/dd"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
   <fonts count="82" x14ac:knownFonts="1">
     <font>
@@ -3826,7 +3826,7 @@
     <xf numFmtId="3" fontId="31" fillId="22" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="33" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="33" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="23" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4092,7 +4092,7 @@
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="48" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="48" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4134,10 +4134,10 @@
     <xf numFmtId="3" fontId="41" fillId="29" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="42" fillId="29" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="42" fillId="29" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="42" fillId="29" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="42" fillId="29" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4148,10 +4148,10 @@
     <xf numFmtId="3" fontId="13" fillId="29" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="29" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="29" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="29" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="29" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4160,10 +4160,10 @@
     <xf numFmtId="3" fontId="51" fillId="29" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="29" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="51" fillId="29" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="29" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="51" fillId="29" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4173,22 +4173,22 @@
     <xf numFmtId="3" fontId="51" fillId="29" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="29" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="51" fillId="29" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="29" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="51" fillId="29" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="51" fillId="29" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="51" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="53" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="51" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4200,10 +4200,10 @@
     <xf numFmtId="3" fontId="41" fillId="29" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="42" fillId="29" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="42" fillId="29" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="42" fillId="29" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="42" fillId="29" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4224,53 +4224,53 @@
     <xf numFmtId="3" fontId="57" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="57" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="57" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="53" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="53" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="57" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="57" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="26" fillId="29" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="29" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="26" fillId="29" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="29" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="26" fillId="29" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="58" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="58" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="26" fillId="29" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="26" fillId="29" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="26" fillId="29" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="29" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="26" fillId="29" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="29" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="26" fillId="29" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="14" fillId="29" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="29" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="29" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="29" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="29" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="60" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="61" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="14" fillId="29" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="29" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4281,7 +4281,7 @@
     <xf numFmtId="0" fontId="64" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="64" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="64" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="64" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4289,17 +4289,17 @@
     <xf numFmtId="0" fontId="66" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="67" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="67" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="64" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="64" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="68" fillId="32" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="32" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="69" fillId="32" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="69" fillId="32" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="32" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4308,13 +4308,13 @@
     <xf numFmtId="0" fontId="69" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="69" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="69" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="69" fillId="32" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="69" fillId="32" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="69" fillId="32" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="69" fillId="32" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4333,10 +4333,10 @@
     <xf numFmtId="0" fontId="70" fillId="31" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="69" fillId="32" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="69" fillId="32" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="69" fillId="32" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="69" fillId="32" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="66" fillId="31" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4361,13 +4361,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="13" fillId="29" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="29" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="29" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="29" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="29" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="29" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4716,10 +4716,10 @@
     <xf numFmtId="0" fontId="68" fillId="39" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="69" fillId="39" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="69" fillId="39" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="69" fillId="39" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="69" fillId="39" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4785,7 +4785,7 @@
     <xf numFmtId="3" fontId="71" fillId="31" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -4816,429 +4816,14 @@
     <xf numFmtId="3" fontId="60" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="29" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="29" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="29" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="29" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="50" fillId="29" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="29" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="29" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="29" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="50" fillId="29" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="50" fillId="29" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="50" fillId="29" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="16" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="16" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="16" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="16" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="16" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="16" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="7" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="7" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="12" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="19" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="64" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="69" fillId="32" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="75" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="58" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="35" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="36" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="11" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="11" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="69" fillId="32" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="69" fillId="39" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5256,34 +4841,34 @@
     <xf numFmtId="3" fontId="0" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="17" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="17" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="42" fillId="0" borderId="17" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="42" fillId="0" borderId="17" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="16" fillId="0" borderId="17" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5359,22 +4944,22 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="71" fillId="31" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="71" fillId="31" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="71" fillId="31" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="71" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="71" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="71" fillId="31" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="71" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="71" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="71" fillId="31" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="71" fillId="31" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="73" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="71" fillId="31" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="73" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="71" fillId="31" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="74" fillId="31" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="74" fillId="31" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="66" fillId="31" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5383,8 +4968,8 @@
     <xf numFmtId="3" fontId="71" fillId="31" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="71" fillId="31" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="71" fillId="31" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="71" fillId="31" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="71" fillId="31" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="71" fillId="31" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5396,33 +4981,30 @@
     <xf numFmtId="3" fontId="71" fillId="31" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="72" fillId="31" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="74" fillId="31" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="74" fillId="31" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="72" fillId="31" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="66" fillId="31" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="74" fillId="31" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="74" fillId="31" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="29" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="29" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="29" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="29" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="75" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5468,44 +5050,44 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="76" fillId="29" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="14" fillId="29" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="29" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="29" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="29" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="29" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="29" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="76" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="14" fillId="29" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="76" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="29" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="29" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="29" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="29" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="29" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="76" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="13" fillId="29" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="76" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="29" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="62" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="62" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="65" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="65" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="16" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5523,58 +5105,476 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="71" fillId="31" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="71" fillId="31" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="71" fillId="31" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="71" fillId="31" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="71" fillId="31" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="71" fillId="31" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="29" borderId="4" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="29" borderId="4" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="29" borderId="4" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="29" borderId="4" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="29" borderId="4" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="29" borderId="4" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="7" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="7" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="19" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="12" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="64" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="69" fillId="32" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="75" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="58" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="35" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="36" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="11" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="11" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="69" fillId="32" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="69" fillId="39" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Hyperlink 2" xfId="10"/>
@@ -5955,11 +5955,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="339310224"/>
-        <c:axId val="339310784"/>
+        <c:axId val="311477744"/>
+        <c:axId val="311478304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="339310224"/>
+        <c:axId val="311477744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6058,7 +6058,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339310784"/>
+        <c:crossAx val="311478304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6066,7 +6066,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="339310784"/>
+        <c:axId val="311478304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6185,7 +6185,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339310224"/>
+        <c:crossAx val="311477744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6320,7 +6320,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6572,11 +6571,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="166101872"/>
-        <c:axId val="166102432"/>
+        <c:axId val="312973344"/>
+        <c:axId val="312973904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="166101872"/>
+        <c:axId val="312973344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6608,7 +6607,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6675,7 +6673,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166102432"/>
+        <c:crossAx val="312973904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6683,7 +6681,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166102432"/>
+        <c:axId val="312973904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6803,7 +6801,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166101872"/>
+        <c:crossAx val="312973344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6933,7 +6931,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7453,7 +7450,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7689,11 +7685,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="337166624"/>
-        <c:axId val="337167184"/>
+        <c:axId val="313333792"/>
+        <c:axId val="313334352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="337166624"/>
+        <c:axId val="313333792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7730,7 +7726,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7797,7 +7792,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337167184"/>
+        <c:crossAx val="313334352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7805,7 +7800,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="337167184"/>
+        <c:axId val="313334352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7856,7 +7851,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337166624"/>
+        <c:crossAx val="313333792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7986,7 +7981,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8222,11 +8216,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="337538336"/>
-        <c:axId val="337538896"/>
+        <c:axId val="313337712"/>
+        <c:axId val="313338272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="337538336"/>
+        <c:axId val="313337712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8337,7 +8331,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337538896"/>
+        <c:crossAx val="313338272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8345,7 +8339,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="337538896"/>
+        <c:axId val="313338272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8391,7 +8385,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8452,7 +8445,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337538336"/>
+        <c:crossAx val="313337712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8587,7 +8580,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8823,11 +8815,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="405727360"/>
-        <c:axId val="405727920"/>
+        <c:axId val="314034656"/>
+        <c:axId val="314035216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="405727360"/>
+        <c:axId val="314034656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8938,7 +8930,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405727920"/>
+        <c:crossAx val="314035216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8946,7 +8938,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="405727920"/>
+        <c:axId val="314035216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9060,7 +9052,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405727360"/>
+        <c:crossAx val="314034656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9542,11 +9534,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="420274576"/>
-        <c:axId val="420275136"/>
+        <c:axId val="314040256"/>
+        <c:axId val="314040816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="420274576"/>
+        <c:axId val="314040256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9652,7 +9644,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420275136"/>
+        <c:crossAx val="314040816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9660,7 +9652,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="420275136"/>
+        <c:axId val="314040816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9782,7 +9774,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420274576"/>
+        <c:crossAx val="314040256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9917,7 +9909,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10119,11 +10110,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="210671584"/>
-        <c:axId val="210672144"/>
+        <c:axId val="313858192"/>
+        <c:axId val="313858752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="210671584"/>
+        <c:axId val="313858192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10234,7 +10225,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210672144"/>
+        <c:crossAx val="313858752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10242,7 +10233,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="210672144"/>
+        <c:axId val="313858752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10356,7 +10347,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210671584"/>
+        <c:crossAx val="313858192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10692,11 +10683,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="205760384"/>
-        <c:axId val="205760944"/>
+        <c:axId val="313862112"/>
+        <c:axId val="313862672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="205760384"/>
+        <c:axId val="313862112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10807,7 +10798,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205760944"/>
+        <c:crossAx val="313862672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10815,7 +10806,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="205760944"/>
+        <c:axId val="313862672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10929,7 +10920,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205760384"/>
+        <c:crossAx val="313862112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11064,7 +11055,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11311,11 +11301,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="350000672"/>
-        <c:axId val="350001232"/>
+        <c:axId val="314377376"/>
+        <c:axId val="314377936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="350000672"/>
+        <c:axId val="314377376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11347,7 +11337,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11414,7 +11403,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350001232"/>
+        <c:crossAx val="314377936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11422,7 +11411,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="350001232"/>
+        <c:axId val="314377936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11541,7 +11530,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350000672"/>
+        <c:crossAx val="314377376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11866,11 +11855,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="168004624"/>
-        <c:axId val="168005184"/>
+        <c:axId val="312580832"/>
+        <c:axId val="312581392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="168004624"/>
+        <c:axId val="312580832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11968,7 +11957,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168005184"/>
+        <c:crossAx val="312581392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11976,7 +11965,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168005184"/>
+        <c:axId val="312581392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12095,7 +12084,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168004624"/>
+        <c:crossAx val="312580832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13016,11 +13005,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="337616256"/>
-        <c:axId val="337616816"/>
+        <c:axId val="310747904"/>
+        <c:axId val="310748464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="337616256"/>
+        <c:axId val="310747904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13118,7 +13107,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337616816"/>
+        <c:crossAx val="310748464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13126,7 +13115,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="337616816"/>
+        <c:axId val="310748464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13232,7 +13221,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337616256"/>
+        <c:crossAx val="310747904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13376,7 +13365,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13677,11 +13665,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="337519536"/>
-        <c:axId val="337520096"/>
+        <c:axId val="312551360"/>
+        <c:axId val="312551920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="337519536"/>
+        <c:axId val="312551360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13713,7 +13701,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13780,7 +13767,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337520096"/>
+        <c:crossAx val="312551920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13788,7 +13775,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="337520096"/>
+        <c:axId val="312551920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13907,7 +13894,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337519536"/>
+        <c:crossAx val="312551360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14046,7 +14033,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14347,11 +14333,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="210722256"/>
-        <c:axId val="210722816"/>
+        <c:axId val="312762016"/>
+        <c:axId val="312762576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="210722256"/>
+        <c:axId val="312762016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14383,7 +14369,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14450,7 +14435,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210722816"/>
+        <c:crossAx val="312762576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14458,7 +14443,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="210722816"/>
+        <c:axId val="312762576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14577,7 +14562,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210722256"/>
+        <c:crossAx val="312762016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14725,7 +14710,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15121,11 +15105,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="408218624"/>
-        <c:axId val="408219184"/>
+        <c:axId val="312768160"/>
+        <c:axId val="312768720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="408218624"/>
+        <c:axId val="312768160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15168,7 +15152,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408219184"/>
+        <c:crossAx val="312768720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15176,7 +15160,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="408219184"/>
+        <c:axId val="312768720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15227,7 +15211,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15288,7 +15271,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408218624"/>
+        <c:crossAx val="312768160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15818,11 +15801,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="33387008"/>
-        <c:axId val="33387568"/>
+        <c:axId val="312944176"/>
+        <c:axId val="312944736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="33387008"/>
+        <c:axId val="312944176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15865,7 +15848,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33387568"/>
+        <c:crossAx val="312944736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15873,7 +15856,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="33387568"/>
+        <c:axId val="312944736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15992,7 +15975,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33387008"/>
+        <c:crossAx val="312944176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16086,7 +16069,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16333,11 +16315,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="212488288"/>
-        <c:axId val="212488848"/>
+        <c:axId val="313307360"/>
+        <c:axId val="313307920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="212488288"/>
+        <c:axId val="313307360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16366,7 +16348,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16433,7 +16414,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212488848"/>
+        <c:crossAx val="313307920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16441,7 +16422,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="212488848"/>
+        <c:axId val="313307920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -16561,7 +16542,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212488288"/>
+        <c:crossAx val="313307360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -27462,54 +27443,54 @@
       <c r="AR3" s="5"/>
     </row>
     <row r="4" spans="1:44" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="529" t="s">
+      <c r="A4" s="663" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="530"/>
-      <c r="C4" s="530"/>
-      <c r="D4" s="530"/>
-      <c r="E4" s="531"/>
-      <c r="F4" s="531"/>
-      <c r="G4" s="531"/>
-      <c r="H4" s="531"/>
-      <c r="I4" s="531"/>
-      <c r="J4" s="531"/>
-      <c r="K4" s="531"/>
-      <c r="L4" s="531"/>
-      <c r="M4" s="531"/>
-      <c r="N4" s="531"/>
-      <c r="O4" s="531"/>
-      <c r="P4" s="531"/>
-      <c r="Q4" s="531"/>
-      <c r="R4" s="531"/>
-      <c r="S4" s="531"/>
-      <c r="T4" s="531"/>
-      <c r="U4" s="531"/>
-      <c r="V4" s="531"/>
-      <c r="W4" s="531"/>
-      <c r="X4" s="531"/>
-      <c r="Y4" s="531"/>
-      <c r="Z4" s="531"/>
-      <c r="AA4" s="531"/>
-      <c r="AB4" s="531"/>
-      <c r="AC4" s="531"/>
-      <c r="AD4" s="531"/>
-      <c r="AE4" s="531"/>
-      <c r="AF4" s="531"/>
-      <c r="AG4" s="531"/>
-      <c r="AH4" s="531"/>
-      <c r="AI4" s="531"/>
-      <c r="AJ4" s="531"/>
-      <c r="AK4" s="531"/>
-      <c r="AL4" s="531"/>
-      <c r="AM4" s="531"/>
-      <c r="AN4" s="531"/>
-      <c r="AO4" s="531"/>
-      <c r="AP4" s="531"/>
-      <c r="AQ4" s="532" t="s">
+      <c r="B4" s="664"/>
+      <c r="C4" s="664"/>
+      <c r="D4" s="664"/>
+      <c r="E4" s="665"/>
+      <c r="F4" s="665"/>
+      <c r="G4" s="665"/>
+      <c r="H4" s="665"/>
+      <c r="I4" s="665"/>
+      <c r="J4" s="665"/>
+      <c r="K4" s="665"/>
+      <c r="L4" s="665"/>
+      <c r="M4" s="665"/>
+      <c r="N4" s="665"/>
+      <c r="O4" s="665"/>
+      <c r="P4" s="665"/>
+      <c r="Q4" s="665"/>
+      <c r="R4" s="665"/>
+      <c r="S4" s="665"/>
+      <c r="T4" s="665"/>
+      <c r="U4" s="665"/>
+      <c r="V4" s="665"/>
+      <c r="W4" s="665"/>
+      <c r="X4" s="665"/>
+      <c r="Y4" s="665"/>
+      <c r="Z4" s="665"/>
+      <c r="AA4" s="665"/>
+      <c r="AB4" s="665"/>
+      <c r="AC4" s="665"/>
+      <c r="AD4" s="665"/>
+      <c r="AE4" s="665"/>
+      <c r="AF4" s="665"/>
+      <c r="AG4" s="665"/>
+      <c r="AH4" s="665"/>
+      <c r="AI4" s="665"/>
+      <c r="AJ4" s="665"/>
+      <c r="AK4" s="665"/>
+      <c r="AL4" s="665"/>
+      <c r="AM4" s="665"/>
+      <c r="AN4" s="665"/>
+      <c r="AO4" s="665"/>
+      <c r="AP4" s="665"/>
+      <c r="AQ4" s="666" t="s">
         <v>3</v>
       </c>
-      <c r="AR4" s="532"/>
+      <c r="AR4" s="666"/>
     </row>
     <row r="5" spans="1:44" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="414" t="s">
@@ -27805,7 +27786,7 @@
       <c r="B21" s="395" t="s">
         <v>326</v>
       </c>
-      <c r="C21" s="778"/>
+      <c r="C21" s="636"/>
     </row>
     <row r="22" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A22" s="394" t="s">
@@ -27814,7 +27795,7 @@
       <c r="B22" s="395" t="s">
         <v>328</v>
       </c>
-      <c r="C22" s="777"/>
+      <c r="C22" s="635"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="383" t="s">
@@ -27883,20 +27864,20 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="664" t="s">
+      <c r="A3" s="790" t="s">
         <v>347</v>
       </c>
-      <c r="B3" s="666" t="s">
+      <c r="B3" s="792" t="s">
         <v>348</v>
       </c>
-      <c r="C3" s="667"/>
-      <c r="D3" s="662" t="s">
+      <c r="C3" s="793"/>
+      <c r="D3" s="788" t="s">
         <v>357</v>
       </c>
-      <c r="E3" s="663"/>
+      <c r="E3" s="789"/>
     </row>
     <row r="4" spans="1:28" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="665"/>
+      <c r="A4" s="791"/>
       <c r="B4" s="427" t="s">
         <v>224</v>
       </c>
@@ -28019,7 +28000,7 @@
       </c>
     </row>
     <row r="13" spans="1:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="664" t="s">
+      <c r="A13" s="790" t="s">
         <v>351</v>
       </c>
       <c r="B13" s="426" t="s">
@@ -28042,7 +28023,7 @@
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="665"/>
+      <c r="A14" s="791"/>
       <c r="B14" s="429" t="s">
         <v>352</v>
       </c>
@@ -28101,14 +28082,14 @@
       <c r="A22" s="431" t="s">
         <v>311</v>
       </c>
-      <c r="B22" s="668" t="s">
+      <c r="B22" s="794" t="s">
         <v>348</v>
       </c>
-      <c r="C22" s="669"/>
-      <c r="D22" s="668" t="s">
+      <c r="C22" s="795"/>
+      <c r="D22" s="794" t="s">
         <v>462</v>
       </c>
-      <c r="E22" s="669"/>
+      <c r="E22" s="795"/>
     </row>
     <row r="23" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="432"/>
@@ -28142,9 +28123,9 @@
         <v>314</v>
       </c>
       <c r="B24" s="504"/>
-      <c r="C24" s="800"/>
+      <c r="C24" s="658"/>
       <c r="D24" s="435"/>
-      <c r="E24" s="783"/>
+      <c r="E24" s="641"/>
       <c r="Z24" t="str">
         <f t="shared" ref="Z24:Z29" si="1">A25</f>
         <v xml:space="preserve">re-used: Soil and agriculture </v>
@@ -28167,9 +28148,9 @@
         <v>359</v>
       </c>
       <c r="B25" s="515"/>
-      <c r="C25" s="801"/>
+      <c r="C25" s="659"/>
       <c r="D25" s="435"/>
-      <c r="E25" s="783"/>
+      <c r="E25" s="641"/>
       <c r="Z25" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">re-used: Others </v>
@@ -28192,9 +28173,9 @@
         <v>360</v>
       </c>
       <c r="B26" s="506"/>
-      <c r="C26" s="802"/>
+      <c r="C26" s="660"/>
       <c r="D26" s="435"/>
-      <c r="E26" s="783"/>
+      <c r="E26" s="641"/>
       <c r="Z26" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">disposed: Landfill </v>
@@ -28217,9 +28198,9 @@
         <v>454</v>
       </c>
       <c r="B27" s="506"/>
-      <c r="C27" s="802"/>
+      <c r="C27" s="660"/>
       <c r="D27" s="435"/>
-      <c r="E27" s="783"/>
+      <c r="E27" s="641"/>
       <c r="Z27" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">disposed: Incineration </v>
@@ -28242,9 +28223,9 @@
         <v>361</v>
       </c>
       <c r="B28" s="506"/>
-      <c r="C28" s="802"/>
+      <c r="C28" s="660"/>
       <c r="D28" s="435"/>
-      <c r="E28" s="783"/>
+      <c r="E28" s="641"/>
       <c r="Z28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">disposed: Others </v>
@@ -28267,9 +28248,9 @@
         <v>362</v>
       </c>
       <c r="B29" s="506"/>
-      <c r="C29" s="802"/>
+      <c r="C29" s="660"/>
       <c r="D29" s="435"/>
-      <c r="E29" s="783"/>
+      <c r="E29" s="641"/>
       <c r="Z29" t="str">
         <f t="shared" si="1"/>
         <v>Other</v>
@@ -28292,9 +28273,9 @@
         <v>461</v>
       </c>
       <c r="B30" s="506"/>
-      <c r="C30" s="802"/>
+      <c r="C30" s="660"/>
       <c r="D30" s="435"/>
-      <c r="E30" s="783"/>
+      <c r="E30" s="641"/>
     </row>
     <row r="35" spans="1:32" ht="33" x14ac:dyDescent="0.35">
       <c r="A35" s="436" t="s">
@@ -28317,8 +28298,8 @@
       <c r="B36" s="439" t="s">
         <v>326</v>
       </c>
-      <c r="C36" s="779"/>
-      <c r="D36" s="779"/>
+      <c r="C36" s="637"/>
+      <c r="D36" s="637"/>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="438" t="s">
@@ -28327,21 +28308,21 @@
       <c r="B37" s="439" t="s">
         <v>328</v>
       </c>
-      <c r="C37" s="799"/>
-      <c r="D37" s="799"/>
+      <c r="C37" s="657"/>
+      <c r="D37" s="657"/>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="434" t="s">
         <v>363</v>
       </c>
-      <c r="B41" s="658" t="s">
+      <c r="B41" s="784" t="s">
         <v>348</v>
       </c>
-      <c r="C41" s="659"/>
-      <c r="D41" s="660" t="s">
+      <c r="C41" s="785"/>
+      <c r="D41" s="786" t="s">
         <v>357</v>
       </c>
-      <c r="E41" s="661"/>
+      <c r="E41" s="787"/>
       <c r="AA41" t="s">
         <v>439</v>
       </c>
@@ -29013,14 +28994,14 @@
       <c r="A77" s="458" t="s">
         <v>269</v>
       </c>
-      <c r="B77" s="780"/>
-      <c r="C77" s="788"/>
-      <c r="D77" s="780"/>
-      <c r="E77" s="788"/>
+      <c r="B77" s="638"/>
+      <c r="C77" s="646"/>
+      <c r="D77" s="638"/>
+      <c r="E77" s="646"/>
       <c r="F77" s="489"/>
-      <c r="G77" s="791"/>
+      <c r="G77" s="649"/>
       <c r="H77" s="490"/>
-      <c r="I77" s="795"/>
+      <c r="I77" s="653"/>
       <c r="Z77" t="s">
         <v>269</v>
       </c>
@@ -29049,13 +29030,13 @@
         <v>258</v>
       </c>
       <c r="B78" s="491"/>
-      <c r="C78" s="789"/>
+      <c r="C78" s="647"/>
       <c r="D78" s="492"/>
-      <c r="E78" s="789"/>
+      <c r="E78" s="647"/>
       <c r="F78" s="491"/>
-      <c r="G78" s="792"/>
+      <c r="G78" s="650"/>
       <c r="H78" s="492"/>
-      <c r="I78" s="796"/>
+      <c r="I78" s="654"/>
       <c r="Z78" s="238" t="s">
         <v>258</v>
       </c>
@@ -29084,13 +29065,13 @@
         <v>386</v>
       </c>
       <c r="B79" s="491"/>
-      <c r="C79" s="789"/>
+      <c r="C79" s="647"/>
       <c r="D79" s="492"/>
-      <c r="E79" s="789"/>
+      <c r="E79" s="647"/>
       <c r="F79" s="491"/>
-      <c r="G79" s="792"/>
+      <c r="G79" s="650"/>
       <c r="H79" s="492"/>
-      <c r="I79" s="796"/>
+      <c r="I79" s="654"/>
       <c r="Z79" s="238" t="s">
         <v>386</v>
       </c>
@@ -29119,13 +29100,13 @@
         <v>387</v>
       </c>
       <c r="B80" s="491"/>
-      <c r="C80" s="789"/>
+      <c r="C80" s="647"/>
       <c r="D80" s="492"/>
-      <c r="E80" s="789"/>
+      <c r="E80" s="647"/>
       <c r="F80" s="491"/>
-      <c r="G80" s="792"/>
+      <c r="G80" s="650"/>
       <c r="H80" s="492"/>
-      <c r="I80" s="796"/>
+      <c r="I80" s="654"/>
       <c r="Z80" s="238" t="s">
         <v>387</v>
       </c>
@@ -29154,13 +29135,13 @@
         <v>388</v>
       </c>
       <c r="B81" s="493"/>
-      <c r="C81" s="789"/>
+      <c r="C81" s="647"/>
       <c r="D81" s="494"/>
-      <c r="E81" s="789"/>
+      <c r="E81" s="647"/>
       <c r="F81" s="493"/>
-      <c r="G81" s="793"/>
+      <c r="G81" s="651"/>
       <c r="H81" s="494"/>
-      <c r="I81" s="797"/>
+      <c r="I81" s="655"/>
       <c r="Z81" s="238" t="s">
         <v>388</v>
       </c>
@@ -29189,13 +29170,13 @@
         <v>389</v>
       </c>
       <c r="B82" s="495"/>
-      <c r="C82" s="790"/>
+      <c r="C82" s="648"/>
       <c r="D82" s="496"/>
-      <c r="E82" s="790"/>
+      <c r="E82" s="648"/>
       <c r="F82" s="495"/>
-      <c r="G82" s="794"/>
+      <c r="G82" s="652"/>
       <c r="H82" s="496"/>
-      <c r="I82" s="798"/>
+      <c r="I82" s="656"/>
       <c r="Z82" s="459" t="s">
         <v>389</v>
       </c>
@@ -29225,14 +29206,14 @@
       </c>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B85" s="651" t="s">
+      <c r="B85" s="798" t="s">
         <v>348</v>
       </c>
-      <c r="C85" s="652"/>
-      <c r="D85" s="651" t="s">
+      <c r="C85" s="799"/>
+      <c r="D85" s="798" t="s">
         <v>357</v>
       </c>
-      <c r="E85" s="652"/>
+      <c r="E85" s="799"/>
       <c r="Z85" t="s">
         <v>453</v>
       </c>
@@ -29245,14 +29226,14 @@
     </row>
     <row r="86" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="299"/>
-      <c r="B86" s="653" t="s">
+      <c r="B86" s="800" t="s">
         <v>256</v>
       </c>
-      <c r="C86" s="619"/>
-      <c r="D86" s="653" t="s">
+      <c r="C86" s="753"/>
+      <c r="D86" s="800" t="s">
         <v>256</v>
       </c>
-      <c r="E86" s="619"/>
+      <c r="E86" s="753"/>
       <c r="Z86" s="461" t="s">
         <v>257</v>
       </c>
@@ -29297,11 +29278,11 @@
       <c r="A88" s="461" t="s">
         <v>257</v>
       </c>
-      <c r="B88" s="785">
+      <c r="B88" s="643">
         <v>100</v>
       </c>
       <c r="C88" s="498"/>
-      <c r="D88" s="785">
+      <c r="D88" s="643">
         <v>100</v>
       </c>
       <c r="E88" s="498"/>
@@ -29321,9 +29302,9 @@
       <c r="A89" s="462" t="s">
         <v>391</v>
       </c>
-      <c r="B89" s="785"/>
+      <c r="B89" s="643"/>
       <c r="C89" s="435"/>
-      <c r="D89" s="785"/>
+      <c r="D89" s="643"/>
       <c r="E89" s="435"/>
       <c r="Z89" s="462" t="s">
         <v>393</v>
@@ -29341,11 +29322,11 @@
       <c r="A90" s="461" t="s">
         <v>392</v>
       </c>
-      <c r="B90" s="785">
+      <c r="B90" s="643">
         <v>100</v>
       </c>
       <c r="C90" s="498"/>
-      <c r="D90" s="785">
+      <c r="D90" s="643">
         <v>100</v>
       </c>
       <c r="E90" s="498"/>
@@ -29365,9 +29346,9 @@
       <c r="A91" s="462" t="s">
         <v>393</v>
       </c>
-      <c r="B91" s="786"/>
+      <c r="B91" s="644"/>
       <c r="C91" s="435"/>
-      <c r="D91" s="786"/>
+      <c r="D91" s="644"/>
       <c r="E91" s="435"/>
       <c r="Z91" s="463" t="s">
         <v>395</v>
@@ -29385,9 +29366,9 @@
       <c r="A92" s="462" t="s">
         <v>394</v>
       </c>
-      <c r="B92" s="786"/>
+      <c r="B92" s="644"/>
       <c r="C92" s="435"/>
-      <c r="D92" s="786"/>
+      <c r="D92" s="644"/>
       <c r="E92" s="435"/>
       <c r="Z92" s="462" t="s">
         <v>396</v>
@@ -29405,11 +29386,11 @@
       <c r="A93" s="463" t="s">
         <v>395</v>
       </c>
-      <c r="B93" s="787">
+      <c r="B93" s="645">
         <v>100</v>
       </c>
       <c r="C93" s="498"/>
-      <c r="D93" s="787">
+      <c r="D93" s="645">
         <v>100</v>
       </c>
       <c r="E93" s="498">
@@ -29431,25 +29412,25 @@
       <c r="A94" s="462" t="s">
         <v>396</v>
       </c>
-      <c r="B94" s="786"/>
+      <c r="B94" s="644"/>
       <c r="C94" s="435"/>
-      <c r="D94" s="786"/>
+      <c r="D94" s="644"/>
       <c r="E94" s="435"/>
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A95" s="462" t="s">
         <v>397</v>
       </c>
-      <c r="B95" s="786"/>
+      <c r="B95" s="644"/>
       <c r="C95" s="435"/>
-      <c r="D95" s="786"/>
+      <c r="D95" s="644"/>
       <c r="E95" s="435"/>
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A96" s="464"/>
-      <c r="B96" s="783"/>
+      <c r="B96" s="641"/>
       <c r="C96" s="435"/>
-      <c r="D96" s="783"/>
+      <c r="D96" s="641"/>
       <c r="E96" s="435"/>
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.25">
@@ -29458,25 +29439,25 @@
       </c>
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B101" s="651" t="s">
+      <c r="B101" s="798" t="s">
         <v>348</v>
       </c>
-      <c r="C101" s="652"/>
-      <c r="D101" s="651" t="s">
+      <c r="C101" s="799"/>
+      <c r="D101" s="798" t="s">
         <v>357</v>
       </c>
-      <c r="E101" s="652"/>
+      <c r="E101" s="799"/>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102" s="299"/>
-      <c r="B102" s="653" t="s">
+      <c r="B102" s="800" t="s">
         <v>256</v>
       </c>
-      <c r="C102" s="619"/>
-      <c r="D102" s="653" t="s">
+      <c r="C102" s="753"/>
+      <c r="D102" s="800" t="s">
         <v>256</v>
       </c>
-      <c r="E102" s="619"/>
+      <c r="E102" s="753"/>
       <c r="Z102" t="s">
         <v>453</v>
       </c>
@@ -29519,11 +29500,11 @@
       <c r="A104" s="461" t="s">
         <v>257</v>
       </c>
-      <c r="B104" s="785">
+      <c r="B104" s="643">
         <v>100</v>
       </c>
       <c r="C104" s="498"/>
-      <c r="D104" s="785">
+      <c r="D104" s="643">
         <v>100</v>
       </c>
       <c r="E104" s="498"/>
@@ -29543,9 +29524,9 @@
       <c r="A105" s="462" t="s">
         <v>391</v>
       </c>
-      <c r="B105" s="785"/>
+      <c r="B105" s="643"/>
       <c r="C105" s="435"/>
-      <c r="D105" s="785"/>
+      <c r="D105" s="643"/>
       <c r="E105" s="435"/>
       <c r="Z105" s="461" t="s">
         <v>392</v>
@@ -29563,11 +29544,11 @@
       <c r="A106" s="461" t="s">
         <v>392</v>
       </c>
-      <c r="B106" s="785">
+      <c r="B106" s="643">
         <v>100</v>
       </c>
       <c r="C106" s="498"/>
-      <c r="D106" s="785">
+      <c r="D106" s="643">
         <v>100</v>
       </c>
       <c r="E106" s="498"/>
@@ -29587,9 +29568,9 @@
       <c r="A107" s="462" t="s">
         <v>393</v>
       </c>
-      <c r="B107" s="786"/>
+      <c r="B107" s="644"/>
       <c r="C107" s="435"/>
-      <c r="D107" s="786"/>
+      <c r="D107" s="644"/>
       <c r="E107" s="435"/>
       <c r="Z107" s="462" t="s">
         <v>394</v>
@@ -29607,9 +29588,9 @@
       <c r="A108" s="462" t="s">
         <v>394</v>
       </c>
-      <c r="B108" s="786"/>
+      <c r="B108" s="644"/>
       <c r="C108" s="435"/>
-      <c r="D108" s="786"/>
+      <c r="D108" s="644"/>
       <c r="E108" s="435"/>
       <c r="Z108" s="463" t="s">
         <v>395</v>
@@ -29627,11 +29608,11 @@
       <c r="A109" s="463" t="s">
         <v>395</v>
       </c>
-      <c r="B109" s="787">
+      <c r="B109" s="645">
         <v>100</v>
       </c>
       <c r="C109" s="498"/>
-      <c r="D109" s="787">
+      <c r="D109" s="645">
         <v>100</v>
       </c>
       <c r="E109" s="498"/>
@@ -29651,9 +29632,9 @@
       <c r="A110" s="462" t="s">
         <v>396</v>
       </c>
-      <c r="B110" s="786"/>
+      <c r="B110" s="644"/>
       <c r="C110" s="435"/>
-      <c r="D110" s="786"/>
+      <c r="D110" s="644"/>
       <c r="E110" s="435"/>
       <c r="Z110" s="462" t="s">
         <v>397</v>
@@ -29671,16 +29652,16 @@
       <c r="A111" s="462" t="s">
         <v>397</v>
       </c>
-      <c r="B111" s="786"/>
+      <c r="B111" s="644"/>
       <c r="C111" s="435"/>
-      <c r="D111" s="786"/>
+      <c r="D111" s="644"/>
       <c r="E111" s="435"/>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A112" s="464"/>
-      <c r="B112" s="783"/>
+      <c r="B112" s="641"/>
       <c r="C112" s="435"/>
-      <c r="D112" s="783"/>
+      <c r="D112" s="641"/>
       <c r="E112" s="435"/>
     </row>
     <row r="114" spans="1:28" x14ac:dyDescent="0.25">
@@ -29689,25 +29670,25 @@
       </c>
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B116" s="654" t="s">
+      <c r="B116" s="801" t="s">
         <v>348</v>
       </c>
-      <c r="C116" s="655"/>
-      <c r="D116" s="654" t="s">
+      <c r="C116" s="802"/>
+      <c r="D116" s="801" t="s">
         <v>357</v>
       </c>
-      <c r="E116" s="655"/>
+      <c r="E116" s="802"/>
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A117" s="466"/>
-      <c r="B117" s="656" t="s">
+      <c r="B117" s="803" t="s">
         <v>256</v>
       </c>
-      <c r="C117" s="657"/>
-      <c r="D117" s="656" t="s">
+      <c r="C117" s="804"/>
+      <c r="D117" s="803" t="s">
         <v>256</v>
       </c>
-      <c r="E117" s="657"/>
+      <c r="E117" s="804"/>
       <c r="Z117" t="s">
         <v>453</v>
       </c>
@@ -29751,11 +29732,11 @@
       <c r="A119" s="461" t="s">
         <v>257</v>
       </c>
-      <c r="B119" s="785">
+      <c r="B119" s="643">
         <v>100</v>
       </c>
       <c r="C119" s="498"/>
-      <c r="D119" s="785">
+      <c r="D119" s="643">
         <v>100</v>
       </c>
       <c r="E119" s="498"/>
@@ -29776,9 +29757,9 @@
       <c r="A120" s="462" t="s">
         <v>391</v>
       </c>
-      <c r="B120" s="785"/>
+      <c r="B120" s="643"/>
       <c r="C120" s="435"/>
-      <c r="D120" s="785"/>
+      <c r="D120" s="643"/>
       <c r="E120" s="435"/>
       <c r="I120" s="499"/>
       <c r="Z120" s="461" t="s">
@@ -29797,11 +29778,11 @@
       <c r="A121" s="461" t="s">
         <v>392</v>
       </c>
-      <c r="B121" s="785">
+      <c r="B121" s="643">
         <v>100</v>
       </c>
       <c r="C121" s="498"/>
-      <c r="D121" s="785">
+      <c r="D121" s="643">
         <v>100</v>
       </c>
       <c r="E121" s="498"/>
@@ -29822,9 +29803,9 @@
       <c r="A122" s="462" t="s">
         <v>393</v>
       </c>
-      <c r="B122" s="786"/>
+      <c r="B122" s="644"/>
       <c r="C122" s="435"/>
-      <c r="D122" s="786"/>
+      <c r="D122" s="644"/>
       <c r="E122" s="435"/>
       <c r="I122" s="499"/>
       <c r="Z122" s="462" t="s">
@@ -29843,9 +29824,9 @@
       <c r="A123" s="462" t="s">
         <v>394</v>
       </c>
-      <c r="B123" s="786"/>
+      <c r="B123" s="644"/>
       <c r="C123" s="435"/>
-      <c r="D123" s="786"/>
+      <c r="D123" s="644"/>
       <c r="E123" s="435"/>
       <c r="I123" s="499"/>
       <c r="Z123" s="463" t="s">
@@ -29864,11 +29845,11 @@
       <c r="A124" s="463" t="s">
         <v>395</v>
       </c>
-      <c r="B124" s="787">
+      <c r="B124" s="645">
         <v>100</v>
       </c>
       <c r="C124" s="498"/>
-      <c r="D124" s="787">
+      <c r="D124" s="645">
         <v>100</v>
       </c>
       <c r="E124" s="498"/>
@@ -29889,9 +29870,9 @@
       <c r="A125" s="462" t="s">
         <v>396</v>
       </c>
-      <c r="B125" s="786"/>
+      <c r="B125" s="644"/>
       <c r="C125" s="435"/>
-      <c r="D125" s="786"/>
+      <c r="D125" s="644"/>
       <c r="E125" s="435"/>
       <c r="I125" s="499"/>
       <c r="Z125" s="462" t="s">
@@ -29910,27 +29891,27 @@
       <c r="A126" s="462" t="s">
         <v>397</v>
       </c>
-      <c r="B126" s="786"/>
+      <c r="B126" s="644"/>
       <c r="C126" s="435"/>
-      <c r="D126" s="786"/>
+      <c r="D126" s="644"/>
       <c r="E126" s="435"/>
     </row>
     <row r="127" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A127" s="464"/>
-      <c r="B127" s="783"/>
+      <c r="B127" s="641"/>
       <c r="C127" s="435"/>
-      <c r="D127" s="783"/>
+      <c r="D127" s="641"/>
       <c r="E127" s="435"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="470" t="s">
         <v>351</v>
       </c>
-      <c r="B129" s="649" t="s">
+      <c r="B129" s="796" t="s">
         <v>348</v>
       </c>
-      <c r="C129" s="650"/>
-      <c r="D129" s="650"/>
+      <c r="C129" s="797"/>
+      <c r="D129" s="797"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="471"/>
@@ -29948,17 +29929,17 @@
       <c r="A131" s="474" t="s">
         <v>400</v>
       </c>
-      <c r="B131" s="783">
+      <c r="B131" s="641">
         <v>100</v>
       </c>
       <c r="C131" s="498"/>
-      <c r="D131" s="781"/>
+      <c r="D131" s="639"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="428" t="s">
         <v>401</v>
       </c>
-      <c r="B132" s="783"/>
+      <c r="B132" s="641"/>
       <c r="C132" s="435"/>
       <c r="D132" s="522"/>
     </row>
@@ -29966,7 +29947,7 @@
       <c r="A133" s="428" t="s">
         <v>259</v>
       </c>
-      <c r="B133" s="783"/>
+      <c r="B133" s="641"/>
       <c r="C133" s="435"/>
       <c r="D133" s="522"/>
     </row>
@@ -29974,7 +29955,7 @@
       <c r="A134" s="428" t="s">
         <v>402</v>
       </c>
-      <c r="B134" s="783"/>
+      <c r="B134" s="641"/>
       <c r="C134" s="435"/>
       <c r="D134" s="522"/>
     </row>
@@ -29982,7 +29963,7 @@
       <c r="A135" s="428" t="s">
         <v>403</v>
       </c>
-      <c r="B135" s="783"/>
+      <c r="B135" s="641"/>
       <c r="C135" s="435"/>
       <c r="D135" s="522"/>
     </row>
@@ -29990,7 +29971,7 @@
       <c r="A136" s="428" t="s">
         <v>404</v>
       </c>
-      <c r="B136" s="783"/>
+      <c r="B136" s="641"/>
       <c r="C136" s="435"/>
       <c r="D136" s="522"/>
     </row>
@@ -29998,7 +29979,7 @@
       <c r="A137" s="428" t="s">
         <v>405</v>
       </c>
-      <c r="B137" s="783"/>
+      <c r="B137" s="641"/>
       <c r="C137" s="435"/>
       <c r="D137" s="522"/>
     </row>
@@ -30006,7 +29987,7 @@
       <c r="A138" s="428" t="s">
         <v>406</v>
       </c>
-      <c r="B138" s="783"/>
+      <c r="B138" s="641"/>
       <c r="C138" s="435"/>
       <c r="D138" s="522"/>
     </row>
@@ -30014,7 +29995,7 @@
       <c r="A139" s="428" t="s">
         <v>407</v>
       </c>
-      <c r="B139" s="783"/>
+      <c r="B139" s="641"/>
       <c r="C139" s="435"/>
       <c r="D139" s="522"/>
     </row>
@@ -30051,7 +30032,7 @@
         <v>132</v>
       </c>
       <c r="C148" s="435"/>
-      <c r="D148" s="782"/>
+      <c r="D148" s="640"/>
       <c r="Z148" s="480" t="s">
         <v>409</v>
       </c>
@@ -30069,7 +30050,7 @@
         <v>132</v>
       </c>
       <c r="C149" s="435"/>
-      <c r="D149" s="782"/>
+      <c r="D149" s="640"/>
       <c r="Z149" s="480" t="s">
         <v>411</v>
       </c>
@@ -30087,7 +30068,7 @@
         <v>132</v>
       </c>
       <c r="C150" s="435"/>
-      <c r="D150" s="782"/>
+      <c r="D150" s="640"/>
       <c r="Z150" s="480" t="s">
         <v>413</v>
       </c>
@@ -30105,7 +30086,7 @@
         <v>132</v>
       </c>
       <c r="C151" s="435"/>
-      <c r="D151" s="782"/>
+      <c r="D151" s="640"/>
       <c r="Z151" s="480" t="s">
         <v>415</v>
       </c>
@@ -30123,7 +30104,7 @@
         <v>132</v>
       </c>
       <c r="C152" s="435"/>
-      <c r="D152" s="782"/>
+      <c r="D152" s="640"/>
     </row>
     <row r="153" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A153" s="480" t="s">
@@ -30133,7 +30114,7 @@
         <v>132</v>
       </c>
       <c r="C153" s="435"/>
-      <c r="D153" s="782"/>
+      <c r="D153" s="640"/>
       <c r="Z153" s="476" t="s">
         <v>408</v>
       </c>
@@ -30153,7 +30134,7 @@
         <v>132</v>
       </c>
       <c r="C154" s="435"/>
-      <c r="D154" s="782"/>
+      <c r="D154" s="640"/>
       <c r="Z154" s="480" t="s">
         <v>410</v>
       </c>
@@ -30171,7 +30152,7 @@
         <v>132</v>
       </c>
       <c r="C155" s="435"/>
-      <c r="D155" s="782"/>
+      <c r="D155" s="640"/>
       <c r="Z155" s="480" t="s">
         <v>412</v>
       </c>
@@ -30222,8 +30203,8 @@
       <c r="B159" s="480" t="s">
         <v>127</v>
       </c>
-      <c r="C159" s="783"/>
-      <c r="D159" s="784"/>
+      <c r="C159" s="641"/>
+      <c r="D159" s="642"/>
       <c r="Z159" s="476" t="s">
         <v>408</v>
       </c>
@@ -30242,8 +30223,8 @@
       <c r="B160" s="480" t="s">
         <v>127</v>
       </c>
-      <c r="C160" s="783"/>
-      <c r="D160" s="784"/>
+      <c r="C160" s="641"/>
+      <c r="D160" s="642"/>
       <c r="Z160" s="480" t="s">
         <v>105</v>
       </c>
@@ -30266,8 +30247,8 @@
       <c r="B161" s="480" t="s">
         <v>127</v>
       </c>
-      <c r="C161" s="783"/>
-      <c r="D161" s="784"/>
+      <c r="C161" s="641"/>
+      <c r="D161" s="642"/>
       <c r="Z161" s="480" t="s">
         <v>110</v>
       </c>
@@ -30290,8 +30271,8 @@
       <c r="B162" s="480" t="s">
         <v>127</v>
       </c>
-      <c r="C162" s="783"/>
-      <c r="D162" s="784"/>
+      <c r="C162" s="641"/>
+      <c r="D162" s="642"/>
       <c r="Z162" s="480" t="s">
         <v>115</v>
       </c>
@@ -30347,7 +30328,7 @@
         <v>131</v>
       </c>
       <c r="C166" s="435"/>
-      <c r="D166" s="782"/>
+      <c r="D166" s="640"/>
     </row>
     <row r="168" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A168" s="476" t="s">
@@ -30378,8 +30359,8 @@
       <c r="B169" s="480" t="s">
         <v>133</v>
       </c>
-      <c r="C169" s="783"/>
-      <c r="D169" s="784"/>
+      <c r="C169" s="641"/>
+      <c r="D169" s="642"/>
       <c r="Z169" s="480" t="s">
         <v>418</v>
       </c>
@@ -30402,8 +30383,8 @@
       <c r="B170" s="480" t="s">
         <v>133</v>
       </c>
-      <c r="C170" s="783"/>
-      <c r="D170" s="784"/>
+      <c r="C170" s="641"/>
+      <c r="D170" s="642"/>
       <c r="Z170" s="480" t="s">
         <v>420</v>
       </c>
@@ -30426,8 +30407,8 @@
       <c r="B171" s="480" t="s">
         <v>133</v>
       </c>
-      <c r="C171" s="783"/>
-      <c r="D171" s="784"/>
+      <c r="C171" s="641"/>
+      <c r="D171" s="642"/>
       <c r="Z171" s="480" t="s">
         <v>422</v>
       </c>
@@ -30450,8 +30431,8 @@
       <c r="B172" s="480" t="s">
         <v>133</v>
       </c>
-      <c r="C172" s="783"/>
-      <c r="D172" s="784"/>
+      <c r="C172" s="641"/>
+      <c r="D172" s="642"/>
       <c r="Z172" s="480" t="s">
         <v>424</v>
       </c>
@@ -30474,8 +30455,8 @@
       <c r="B173" s="480" t="s">
         <v>133</v>
       </c>
-      <c r="C173" s="783"/>
-      <c r="D173" s="784"/>
+      <c r="C173" s="641"/>
+      <c r="D173" s="642"/>
     </row>
     <row r="174" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A174" s="480" t="s">
@@ -30484,8 +30465,8 @@
       <c r="B174" s="480" t="s">
         <v>133</v>
       </c>
-      <c r="C174" s="783"/>
-      <c r="D174" s="784"/>
+      <c r="C174" s="641"/>
+      <c r="D174" s="642"/>
       <c r="Z174" s="476" t="s">
         <v>408</v>
       </c>
@@ -30504,8 +30485,8 @@
       <c r="B175" s="480" t="s">
         <v>133</v>
       </c>
-      <c r="C175" s="783"/>
-      <c r="D175" s="784"/>
+      <c r="C175" s="641"/>
+      <c r="D175" s="642"/>
       <c r="Z175" s="480" t="s">
         <v>419</v>
       </c>
@@ -30528,8 +30509,8 @@
       <c r="B176" s="480" t="s">
         <v>133</v>
       </c>
-      <c r="C176" s="783"/>
-      <c r="D176" s="784"/>
+      <c r="C176" s="641"/>
+      <c r="D176" s="642"/>
       <c r="Z176" s="480" t="s">
         <v>421</v>
       </c>
@@ -30579,14 +30560,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
     <mergeCell ref="B129:D129"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="D85:E85"/>
@@ -30600,6 +30573,14 @@
     <mergeCell ref="D116:E116"/>
     <mergeCell ref="B117:C117"/>
     <mergeCell ref="D117:E117"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
@@ -30706,7 +30687,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="410"/>
       <c r="B6" s="411"/>
-      <c r="C6" s="803"/>
+      <c r="C6" s="661"/>
       <c r="D6" s="412"/>
     </row>
   </sheetData>
@@ -30765,7 +30746,7 @@
       <c r="B5" s="413"/>
       <c r="C5" s="413"/>
       <c r="D5" s="413"/>
-      <c r="E5" s="804"/>
+      <c r="E5" s="662"/>
       <c r="F5" s="412"/>
     </row>
   </sheetData>
@@ -30780,7 +30761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -30830,7 +30811,7 @@
       <c r="B6" s="411"/>
       <c r="C6" s="411"/>
       <c r="D6" s="411"/>
-      <c r="E6" s="803"/>
+      <c r="E6" s="661"/>
       <c r="F6" s="412"/>
     </row>
   </sheetData>
@@ -30855,123 +30836,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:95" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="562" t="s">
+      <c r="A1" s="667" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="563"/>
-      <c r="C1" s="563"/>
-      <c r="D1" s="563"/>
-      <c r="E1" s="563"/>
-      <c r="F1" s="563"/>
-      <c r="G1" s="563"/>
-      <c r="H1" s="564" t="s">
+      <c r="B1" s="668"/>
+      <c r="C1" s="668"/>
+      <c r="D1" s="668"/>
+      <c r="E1" s="668"/>
+      <c r="F1" s="668"/>
+      <c r="G1" s="668"/>
+      <c r="H1" s="669" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="565"/>
-      <c r="J1" s="565"/>
-      <c r="K1" s="565"/>
-      <c r="L1" s="565"/>
-      <c r="M1" s="566"/>
-      <c r="N1" s="567" t="s">
+      <c r="I1" s="670"/>
+      <c r="J1" s="670"/>
+      <c r="K1" s="670"/>
+      <c r="L1" s="670"/>
+      <c r="M1" s="671"/>
+      <c r="N1" s="672" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="545"/>
-      <c r="P1" s="545"/>
-      <c r="Q1" s="568"/>
-      <c r="R1" s="568"/>
-      <c r="S1" s="545"/>
-      <c r="T1" s="545"/>
-      <c r="U1" s="545"/>
-      <c r="V1" s="569" t="s">
+      <c r="O1" s="673"/>
+      <c r="P1" s="673"/>
+      <c r="Q1" s="674"/>
+      <c r="R1" s="674"/>
+      <c r="S1" s="673"/>
+      <c r="T1" s="673"/>
+      <c r="U1" s="673"/>
+      <c r="V1" s="675" t="s">
         <v>51</v>
       </c>
-      <c r="W1" s="570"/>
-      <c r="X1" s="571"/>
-      <c r="Y1" s="571"/>
-      <c r="Z1" s="572"/>
-      <c r="AA1" s="573" t="s">
+      <c r="W1" s="676"/>
+      <c r="X1" s="677"/>
+      <c r="Y1" s="677"/>
+      <c r="Z1" s="678"/>
+      <c r="AA1" s="679" t="s">
         <v>52</v>
       </c>
-      <c r="AB1" s="574"/>
-      <c r="AC1" s="574"/>
-      <c r="AD1" s="574"/>
-      <c r="AE1" s="574"/>
-      <c r="AF1" s="574"/>
-      <c r="AG1" s="574"/>
-      <c r="AH1" s="574"/>
-      <c r="AI1" s="574"/>
-      <c r="AJ1" s="574"/>
-      <c r="AK1" s="574"/>
-      <c r="AL1" s="574"/>
-      <c r="AM1" s="574"/>
+      <c r="AB1" s="680"/>
+      <c r="AC1" s="680"/>
+      <c r="AD1" s="680"/>
+      <c r="AE1" s="680"/>
+      <c r="AF1" s="680"/>
+      <c r="AG1" s="680"/>
+      <c r="AH1" s="680"/>
+      <c r="AI1" s="680"/>
+      <c r="AJ1" s="680"/>
+      <c r="AK1" s="680"/>
+      <c r="AL1" s="680"/>
+      <c r="AM1" s="680"/>
       <c r="AN1" s="7"/>
       <c r="AO1" s="8"/>
-      <c r="AP1" s="544" t="s">
+      <c r="AP1" s="692" t="s">
         <v>53</v>
       </c>
-      <c r="AQ1" s="545"/>
-      <c r="AR1" s="545"/>
-      <c r="AS1" s="545"/>
-      <c r="AT1" s="545"/>
-      <c r="AU1" s="545"/>
-      <c r="AV1" s="545"/>
-      <c r="AW1" s="546"/>
-      <c r="AX1" s="553" t="s">
+      <c r="AQ1" s="673"/>
+      <c r="AR1" s="673"/>
+      <c r="AS1" s="673"/>
+      <c r="AT1" s="673"/>
+      <c r="AU1" s="673"/>
+      <c r="AV1" s="673"/>
+      <c r="AW1" s="693"/>
+      <c r="AX1" s="700" t="s">
         <v>54</v>
       </c>
-      <c r="AY1" s="554"/>
-      <c r="AZ1" s="554"/>
-      <c r="BA1" s="554"/>
-      <c r="BB1" s="554"/>
-      <c r="BC1" s="555"/>
-      <c r="BD1" s="556" t="s">
+      <c r="AY1" s="701"/>
+      <c r="AZ1" s="701"/>
+      <c r="BA1" s="701"/>
+      <c r="BB1" s="701"/>
+      <c r="BC1" s="702"/>
+      <c r="BD1" s="703" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="557"/>
-      <c r="BF1" s="557"/>
-      <c r="BG1" s="557"/>
-      <c r="BH1" s="557"/>
-      <c r="BI1" s="558"/>
-      <c r="BJ1" s="559" t="s">
+      <c r="BE1" s="704"/>
+      <c r="BF1" s="704"/>
+      <c r="BG1" s="704"/>
+      <c r="BH1" s="704"/>
+      <c r="BI1" s="705"/>
+      <c r="BJ1" s="706" t="s">
         <v>56</v>
       </c>
-      <c r="BK1" s="560"/>
-      <c r="BL1" s="560"/>
-      <c r="BM1" s="560"/>
-      <c r="BN1" s="560"/>
-      <c r="BO1" s="560"/>
-      <c r="BP1" s="561"/>
-      <c r="BQ1" s="533" t="s">
+      <c r="BK1" s="707"/>
+      <c r="BL1" s="707"/>
+      <c r="BM1" s="707"/>
+      <c r="BN1" s="707"/>
+      <c r="BO1" s="707"/>
+      <c r="BP1" s="708"/>
+      <c r="BQ1" s="681" t="s">
         <v>57</v>
       </c>
-      <c r="BR1" s="534"/>
-      <c r="BS1" s="534"/>
-      <c r="BT1" s="534"/>
-      <c r="BU1" s="534"/>
-      <c r="BV1" s="534"/>
+      <c r="BR1" s="682"/>
+      <c r="BS1" s="682"/>
+      <c r="BT1" s="682"/>
+      <c r="BU1" s="682"/>
+      <c r="BV1" s="682"/>
       <c r="BW1" s="8"/>
       <c r="BX1" s="9"/>
-      <c r="BY1" s="535" t="s">
+      <c r="BY1" s="683" t="s">
         <v>58</v>
       </c>
-      <c r="BZ1" s="536"/>
-      <c r="CA1" s="536"/>
-      <c r="CB1" s="536"/>
-      <c r="CC1" s="536"/>
-      <c r="CD1" s="536"/>
-      <c r="CE1" s="536"/>
-      <c r="CF1" s="537"/>
-      <c r="CG1" s="537"/>
-      <c r="CH1" s="537"/>
-      <c r="CI1" s="537"/>
-      <c r="CJ1" s="537"/>
-      <c r="CK1" s="537"/>
-      <c r="CL1" s="537"/>
-      <c r="CM1" s="537"/>
-      <c r="CN1" s="537"/>
-      <c r="CO1" s="537"/>
-      <c r="CP1" s="537"/>
-      <c r="CQ1" s="537"/>
+      <c r="BZ1" s="684"/>
+      <c r="CA1" s="684"/>
+      <c r="CB1" s="684"/>
+      <c r="CC1" s="684"/>
+      <c r="CD1" s="684"/>
+      <c r="CE1" s="684"/>
+      <c r="CF1" s="685"/>
+      <c r="CG1" s="685"/>
+      <c r="CH1" s="685"/>
+      <c r="CI1" s="685"/>
+      <c r="CJ1" s="685"/>
+      <c r="CK1" s="685"/>
+      <c r="CL1" s="685"/>
+      <c r="CM1" s="685"/>
+      <c r="CN1" s="685"/>
+      <c r="CO1" s="685"/>
+      <c r="CP1" s="685"/>
+      <c r="CQ1" s="685"/>
     </row>
     <row r="2" spans="1:95" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -30995,18 +30976,18 @@
       <c r="G2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="538" t="s">
+      <c r="H2" s="686" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="539"/>
-      <c r="J2" s="539" t="s">
+      <c r="I2" s="687"/>
+      <c r="J2" s="687" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="539"/>
-      <c r="L2" s="539" t="s">
+      <c r="K2" s="687"/>
+      <c r="L2" s="687" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="540"/>
+      <c r="M2" s="688"/>
       <c r="N2" s="12" t="s">
         <v>59</v>
       </c>
@@ -31115,36 +31096,36 @@
       <c r="AW2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="AX2" s="541" t="s">
+      <c r="AX2" s="689" t="s">
         <v>93</v>
       </c>
-      <c r="AY2" s="542"/>
-      <c r="AZ2" s="542"/>
-      <c r="BA2" s="542" t="s">
+      <c r="AY2" s="690"/>
+      <c r="AZ2" s="690"/>
+      <c r="BA2" s="690" t="s">
         <v>94</v>
       </c>
-      <c r="BB2" s="542"/>
-      <c r="BC2" s="543"/>
-      <c r="BD2" s="547" t="s">
+      <c r="BB2" s="690"/>
+      <c r="BC2" s="691"/>
+      <c r="BD2" s="694" t="s">
         <v>93</v>
       </c>
-      <c r="BE2" s="548"/>
-      <c r="BF2" s="548"/>
-      <c r="BG2" s="548" t="s">
+      <c r="BE2" s="695"/>
+      <c r="BF2" s="695"/>
+      <c r="BG2" s="695" t="s">
         <v>94</v>
       </c>
-      <c r="BH2" s="548"/>
-      <c r="BI2" s="549"/>
-      <c r="BJ2" s="550" t="s">
+      <c r="BH2" s="695"/>
+      <c r="BI2" s="696"/>
+      <c r="BJ2" s="697" t="s">
         <v>93</v>
       </c>
-      <c r="BK2" s="551"/>
-      <c r="BL2" s="551"/>
-      <c r="BM2" s="551" t="s">
+      <c r="BK2" s="698"/>
+      <c r="BL2" s="698"/>
+      <c r="BM2" s="698" t="s">
         <v>94</v>
       </c>
-      <c r="BN2" s="552"/>
-      <c r="BO2" s="552"/>
+      <c r="BN2" s="699"/>
+      <c r="BO2" s="699"/>
       <c r="BP2" s="24" t="s">
         <v>95</v>
       </c>
@@ -31445,25 +31426,25 @@
       <c r="E4" s="65"/>
       <c r="F4" s="66"/>
       <c r="G4" s="66"/>
-      <c r="H4" s="680"/>
+      <c r="H4" s="539"/>
       <c r="I4" s="67"/>
-      <c r="J4" s="680"/>
+      <c r="J4" s="539"/>
       <c r="K4" s="67"/>
-      <c r="L4" s="680"/>
+      <c r="L4" s="539"/>
       <c r="M4" s="67"/>
       <c r="N4" s="68"/>
       <c r="O4" s="68"/>
       <c r="P4" s="68"/>
       <c r="Q4" s="68"/>
-      <c r="R4" s="671"/>
-      <c r="S4" s="679"/>
-      <c r="T4" s="671"/>
-      <c r="U4" s="672"/>
+      <c r="R4" s="530"/>
+      <c r="S4" s="538"/>
+      <c r="T4" s="530"/>
+      <c r="U4" s="531"/>
       <c r="V4" s="68"/>
-      <c r="W4" s="671"/>
-      <c r="X4" s="673"/>
-      <c r="Y4" s="676"/>
-      <c r="Z4" s="679"/>
+      <c r="W4" s="530"/>
+      <c r="X4" s="532"/>
+      <c r="Y4" s="535"/>
+      <c r="Z4" s="538"/>
       <c r="AA4" s="69"/>
       <c r="AB4" s="69"/>
       <c r="AC4" s="69"/>
@@ -31512,42 +31493,42 @@
       <c r="BT4" s="75"/>
       <c r="BU4" s="75"/>
       <c r="BV4" s="77"/>
-      <c r="BW4" s="681"/>
-      <c r="BX4" s="681"/>
-      <c r="BY4" s="681"/>
-      <c r="BZ4" s="682"/>
-      <c r="CA4" s="682"/>
-      <c r="CB4" s="682"/>
-      <c r="CC4" s="681"/>
-      <c r="CD4" s="681"/>
-      <c r="CE4" s="682"/>
-      <c r="CF4" s="682"/>
-      <c r="CG4" s="682"/>
-      <c r="CH4" s="681"/>
-      <c r="CI4" s="681"/>
-      <c r="CJ4" s="682"/>
-      <c r="CK4" s="682"/>
-      <c r="CL4" s="682"/>
-      <c r="CM4" s="681"/>
-      <c r="CN4" s="681"/>
-      <c r="CO4" s="682"/>
-      <c r="CP4" s="682"/>
-      <c r="CQ4" s="682"/>
+      <c r="BW4" s="540"/>
+      <c r="BX4" s="540"/>
+      <c r="BY4" s="540"/>
+      <c r="BZ4" s="541"/>
+      <c r="CA4" s="541"/>
+      <c r="CB4" s="541"/>
+      <c r="CC4" s="540"/>
+      <c r="CD4" s="540"/>
+      <c r="CE4" s="541"/>
+      <c r="CF4" s="541"/>
+      <c r="CG4" s="541"/>
+      <c r="CH4" s="540"/>
+      <c r="CI4" s="540"/>
+      <c r="CJ4" s="541"/>
+      <c r="CK4" s="541"/>
+      <c r="CL4" s="541"/>
+      <c r="CM4" s="540"/>
+      <c r="CN4" s="540"/>
+      <c r="CO4" s="541"/>
+      <c r="CP4" s="541"/>
+      <c r="CQ4" s="541"/>
     </row>
     <row r="5" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="H5" s="677"/>
-      <c r="J5" s="677"/>
+      <c r="H5" s="536"/>
+      <c r="J5" s="536"/>
       <c r="K5" s="484"/>
-      <c r="L5" s="677"/>
+      <c r="L5" s="536"/>
       <c r="M5" s="484"/>
       <c r="R5" s="484"/>
-      <c r="S5" s="677"/>
+      <c r="S5" s="536"/>
       <c r="T5" s="484"/>
       <c r="U5" s="484"/>
       <c r="W5" s="484"/>
-      <c r="X5" s="674"/>
-      <c r="Y5" s="677"/>
-      <c r="Z5" s="677"/>
+      <c r="X5" s="533"/>
+      <c r="Y5" s="536"/>
+      <c r="Z5" s="536"/>
       <c r="AA5" s="74"/>
       <c r="AB5" s="74"/>
       <c r="AC5" s="74"/>
@@ -31565,24 +31546,24 @@
       <c r="BW5" s="484"/>
       <c r="BX5" s="484"/>
       <c r="BY5" s="484"/>
-      <c r="BZ5" s="683"/>
-      <c r="CA5" s="683"/>
-      <c r="CB5" s="683"/>
+      <c r="BZ5" s="542"/>
+      <c r="CA5" s="542"/>
+      <c r="CB5" s="542"/>
       <c r="CC5" s="484"/>
       <c r="CD5" s="484"/>
-      <c r="CE5" s="683"/>
-      <c r="CF5" s="683"/>
-      <c r="CG5" s="683"/>
+      <c r="CE5" s="542"/>
+      <c r="CF5" s="542"/>
+      <c r="CG5" s="542"/>
       <c r="CH5" s="484"/>
       <c r="CI5" s="484"/>
-      <c r="CJ5" s="683"/>
-      <c r="CK5" s="683"/>
-      <c r="CL5" s="683"/>
+      <c r="CJ5" s="542"/>
+      <c r="CK5" s="542"/>
+      <c r="CL5" s="542"/>
       <c r="CM5" s="484"/>
       <c r="CN5" s="484"/>
-      <c r="CO5" s="683"/>
-      <c r="CP5" s="683"/>
-      <c r="CQ5" s="683"/>
+      <c r="CO5" s="542"/>
+      <c r="CP5" s="542"/>
+      <c r="CQ5" s="542"/>
     </row>
     <row r="6" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A6" s="79" t="s">
@@ -31594,37 +31575,37 @@
       <c r="E6" s="80"/>
       <c r="F6" s="80"/>
       <c r="G6" s="80"/>
-      <c r="H6" s="678"/>
+      <c r="H6" s="537"/>
       <c r="I6" s="80"/>
-      <c r="J6" s="678"/>
-      <c r="K6" s="670"/>
-      <c r="L6" s="678"/>
-      <c r="M6" s="670"/>
+      <c r="J6" s="537"/>
+      <c r="K6" s="529"/>
+      <c r="L6" s="537"/>
+      <c r="M6" s="529"/>
       <c r="N6" s="80"/>
       <c r="O6" s="80"/>
       <c r="P6" s="80"/>
       <c r="Q6" s="80"/>
-      <c r="R6" s="670"/>
-      <c r="S6" s="678" t="s">
+      <c r="R6" s="529"/>
+      <c r="S6" s="537" t="s">
         <v>135</v>
       </c>
-      <c r="T6" s="670" t="s">
+      <c r="T6" s="529" t="s">
         <v>135</v>
       </c>
-      <c r="U6" s="670" t="s">
+      <c r="U6" s="529" t="s">
         <v>135</v>
       </c>
       <c r="V6" s="80"/>
-      <c r="W6" s="670" t="s">
+      <c r="W6" s="529" t="s">
         <v>135</v>
       </c>
-      <c r="X6" s="675" t="s">
+      <c r="X6" s="534" t="s">
         <v>135</v>
       </c>
-      <c r="Y6" s="678" t="s">
+      <c r="Y6" s="537" t="s">
         <v>135</v>
       </c>
-      <c r="Z6" s="678" t="s">
+      <c r="Z6" s="537" t="s">
         <v>135</v>
       </c>
       <c r="AA6" s="81"/>
@@ -31707,37 +31688,37 @@
       <c r="E7" s="80"/>
       <c r="F7" s="80"/>
       <c r="G7" s="80"/>
-      <c r="H7" s="678"/>
+      <c r="H7" s="537"/>
       <c r="I7" s="80"/>
-      <c r="J7" s="678"/>
-      <c r="K7" s="670"/>
-      <c r="L7" s="678"/>
-      <c r="M7" s="670"/>
+      <c r="J7" s="537"/>
+      <c r="K7" s="529"/>
+      <c r="L7" s="537"/>
+      <c r="M7" s="529"/>
       <c r="N7" s="80"/>
       <c r="O7" s="80"/>
       <c r="P7" s="80"/>
       <c r="Q7" s="80"/>
-      <c r="R7" s="670"/>
-      <c r="S7" s="678" t="s">
+      <c r="R7" s="529"/>
+      <c r="S7" s="537" t="s">
         <v>135</v>
       </c>
-      <c r="T7" s="670" t="s">
+      <c r="T7" s="529" t="s">
         <v>135</v>
       </c>
-      <c r="U7" s="670" t="s">
+      <c r="U7" s="529" t="s">
         <v>135</v>
       </c>
       <c r="V7" s="80"/>
-      <c r="W7" s="670" t="s">
+      <c r="W7" s="529" t="s">
         <v>135</v>
       </c>
-      <c r="X7" s="675" t="s">
+      <c r="X7" s="534" t="s">
         <v>135</v>
       </c>
-      <c r="Y7" s="678" t="s">
+      <c r="Y7" s="537" t="s">
         <v>135</v>
       </c>
-      <c r="Z7" s="678" t="s">
+      <c r="Z7" s="537" t="s">
         <v>135</v>
       </c>
       <c r="AA7" s="81"/>
@@ -31820,37 +31801,37 @@
       <c r="E8" s="80"/>
       <c r="F8" s="80"/>
       <c r="G8" s="80"/>
-      <c r="H8" s="678"/>
+      <c r="H8" s="537"/>
       <c r="I8" s="80"/>
-      <c r="J8" s="678"/>
-      <c r="K8" s="670"/>
-      <c r="L8" s="678"/>
-      <c r="M8" s="670"/>
+      <c r="J8" s="537"/>
+      <c r="K8" s="529"/>
+      <c r="L8" s="537"/>
+      <c r="M8" s="529"/>
       <c r="N8" s="80"/>
       <c r="O8" s="80"/>
       <c r="P8" s="80"/>
       <c r="Q8" s="80"/>
-      <c r="R8" s="670"/>
-      <c r="S8" s="678" t="s">
+      <c r="R8" s="529"/>
+      <c r="S8" s="537" t="s">
         <v>135</v>
       </c>
-      <c r="T8" s="670" t="s">
+      <c r="T8" s="529" t="s">
         <v>135</v>
       </c>
-      <c r="U8" s="670" t="s">
+      <c r="U8" s="529" t="s">
         <v>135</v>
       </c>
       <c r="V8" s="80"/>
-      <c r="W8" s="670" t="s">
+      <c r="W8" s="529" t="s">
         <v>135</v>
       </c>
-      <c r="X8" s="675" t="s">
+      <c r="X8" s="534" t="s">
         <v>135</v>
       </c>
-      <c r="Y8" s="678" t="s">
+      <c r="Y8" s="537" t="s">
         <v>135</v>
       </c>
-      <c r="Z8" s="678" t="s">
+      <c r="Z8" s="537" t="s">
         <v>135</v>
       </c>
       <c r="AA8" s="81"/>
@@ -32051,11 +32032,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AM1"/>
     <mergeCell ref="BQ1:BV1"/>
     <mergeCell ref="BY1:CQ1"/>
     <mergeCell ref="H2:I2"/>
@@ -32071,6 +32047,11 @@
     <mergeCell ref="AX1:BC1"/>
     <mergeCell ref="BD1:BI1"/>
     <mergeCell ref="BJ1:BP1"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AM1"/>
   </mergeCells>
   <conditionalFormatting sqref="A13:A14 A4:B4">
     <cfRule type="duplicateValues" dxfId="8" priority="1"/>
@@ -32109,124 +32090,124 @@
         <v>138</v>
       </c>
       <c r="L1" s="87"/>
-      <c r="M1" s="601" t="s">
+      <c r="M1" s="713" t="s">
         <v>139</v>
       </c>
-      <c r="N1" s="602" t="s">
+      <c r="N1" s="714" t="s">
         <v>140</v>
       </c>
-      <c r="O1" s="603"/>
-      <c r="P1" s="603"/>
-      <c r="Q1" s="603"/>
-      <c r="R1" s="604" t="s">
+      <c r="O1" s="715"/>
+      <c r="P1" s="715"/>
+      <c r="Q1" s="715"/>
+      <c r="R1" s="716" t="s">
         <v>141</v>
       </c>
-      <c r="S1" s="596"/>
-      <c r="T1" s="596"/>
-      <c r="U1" s="596"/>
-      <c r="V1" s="596"/>
-      <c r="W1" s="596"/>
-      <c r="X1" s="605"/>
-      <c r="Y1" s="585" t="s">
+      <c r="S1" s="717"/>
+      <c r="T1" s="717"/>
+      <c r="U1" s="717"/>
+      <c r="V1" s="717"/>
+      <c r="W1" s="717"/>
+      <c r="X1" s="718"/>
+      <c r="Y1" s="719" t="s">
         <v>142</v>
       </c>
-      <c r="Z1" s="557"/>
-      <c r="AA1" s="606" t="s">
+      <c r="Z1" s="704"/>
+      <c r="AA1" s="722" t="s">
         <v>143</v>
       </c>
-      <c r="AB1" s="597" t="s">
+      <c r="AB1" s="724" t="s">
         <v>144</v>
       </c>
-      <c r="AC1" s="592" t="s">
+      <c r="AC1" s="732" t="s">
         <v>145</v>
       </c>
-      <c r="AD1" s="593"/>
-      <c r="AE1" s="593"/>
-      <c r="AF1" s="594"/>
-      <c r="AG1" s="595" t="s">
+      <c r="AD1" s="733"/>
+      <c r="AE1" s="733"/>
+      <c r="AF1" s="734"/>
+      <c r="AG1" s="735" t="s">
         <v>146</v>
       </c>
-      <c r="AH1" s="596"/>
-      <c r="AI1" s="596"/>
-      <c r="AJ1" s="596"/>
-      <c r="AK1" s="596"/>
-      <c r="AL1" s="596"/>
-      <c r="AM1" s="596"/>
-      <c r="AN1" s="596"/>
-      <c r="AO1" s="597" t="s">
+      <c r="AH1" s="717"/>
+      <c r="AI1" s="717"/>
+      <c r="AJ1" s="717"/>
+      <c r="AK1" s="717"/>
+      <c r="AL1" s="717"/>
+      <c r="AM1" s="717"/>
+      <c r="AN1" s="717"/>
+      <c r="AO1" s="724" t="s">
         <v>147</v>
       </c>
-      <c r="AP1" s="585" t="s">
+      <c r="AP1" s="719" t="s">
         <v>148</v>
       </c>
-      <c r="AQ1" s="557"/>
-      <c r="AR1" s="557"/>
-      <c r="AS1" s="558"/>
-      <c r="AT1" s="599" t="s">
+      <c r="AQ1" s="704"/>
+      <c r="AR1" s="704"/>
+      <c r="AS1" s="705"/>
+      <c r="AT1" s="736" t="s">
         <v>149</v>
       </c>
-      <c r="AU1" s="600"/>
-      <c r="AV1" s="600"/>
-      <c r="AW1" s="600"/>
-      <c r="AX1" s="600"/>
-      <c r="AY1" s="600"/>
-      <c r="AZ1" s="600"/>
-      <c r="BA1" s="600"/>
-      <c r="BB1" s="600"/>
-      <c r="BC1" s="600"/>
-      <c r="BD1" s="600"/>
-      <c r="BE1" s="600"/>
-      <c r="BF1" s="600"/>
-      <c r="BG1" s="600"/>
-      <c r="BH1" s="600"/>
-      <c r="BI1" s="600"/>
-      <c r="BJ1" s="600"/>
-      <c r="BK1" s="600"/>
-      <c r="BL1" s="600"/>
-      <c r="BM1" s="600"/>
-      <c r="BN1" s="600"/>
-      <c r="BO1" s="600"/>
-      <c r="BP1" s="600"/>
-      <c r="BQ1" s="600"/>
-      <c r="BR1" s="600"/>
-      <c r="BS1" s="600"/>
-      <c r="BT1" s="600"/>
-      <c r="BU1" s="600"/>
-      <c r="BV1" s="600"/>
-      <c r="BW1" s="597" t="s">
+      <c r="AU1" s="737"/>
+      <c r="AV1" s="737"/>
+      <c r="AW1" s="737"/>
+      <c r="AX1" s="737"/>
+      <c r="AY1" s="737"/>
+      <c r="AZ1" s="737"/>
+      <c r="BA1" s="737"/>
+      <c r="BB1" s="737"/>
+      <c r="BC1" s="737"/>
+      <c r="BD1" s="737"/>
+      <c r="BE1" s="737"/>
+      <c r="BF1" s="737"/>
+      <c r="BG1" s="737"/>
+      <c r="BH1" s="737"/>
+      <c r="BI1" s="737"/>
+      <c r="BJ1" s="737"/>
+      <c r="BK1" s="737"/>
+      <c r="BL1" s="737"/>
+      <c r="BM1" s="737"/>
+      <c r="BN1" s="737"/>
+      <c r="BO1" s="737"/>
+      <c r="BP1" s="737"/>
+      <c r="BQ1" s="737"/>
+      <c r="BR1" s="737"/>
+      <c r="BS1" s="737"/>
+      <c r="BT1" s="737"/>
+      <c r="BU1" s="737"/>
+      <c r="BV1" s="737"/>
+      <c r="BW1" s="724" t="s">
         <v>150</v>
       </c>
-      <c r="BX1" s="585" t="s">
+      <c r="BX1" s="719" t="s">
         <v>151</v>
       </c>
-      <c r="BY1" s="557"/>
-      <c r="BZ1" s="557"/>
-      <c r="CA1" s="558"/>
-      <c r="CB1" s="586" t="s">
+      <c r="BY1" s="704"/>
+      <c r="BZ1" s="704"/>
+      <c r="CA1" s="705"/>
+      <c r="CB1" s="726" t="s">
         <v>52</v>
       </c>
-      <c r="CC1" s="586"/>
-      <c r="CD1" s="586"/>
-      <c r="CE1" s="586"/>
-      <c r="CF1" s="586"/>
-      <c r="CG1" s="586"/>
-      <c r="CH1" s="586"/>
-      <c r="CI1" s="586"/>
-      <c r="CJ1" s="586"/>
-      <c r="CK1" s="586"/>
-      <c r="CL1" s="586"/>
-      <c r="CM1" s="586"/>
+      <c r="CC1" s="726"/>
+      <c r="CD1" s="726"/>
+      <c r="CE1" s="726"/>
+      <c r="CF1" s="726"/>
+      <c r="CG1" s="726"/>
+      <c r="CH1" s="726"/>
+      <c r="CI1" s="726"/>
+      <c r="CJ1" s="726"/>
+      <c r="CK1" s="726"/>
+      <c r="CL1" s="726"/>
+      <c r="CM1" s="726"/>
       <c r="CN1" s="88"/>
-      <c r="CO1" s="587" t="s">
+      <c r="CO1" s="727" t="s">
         <v>57</v>
       </c>
-      <c r="CP1" s="545"/>
-      <c r="CQ1" s="545"/>
-      <c r="CR1" s="545"/>
-      <c r="CS1" s="545"/>
-      <c r="CT1" s="545"/>
-      <c r="CU1" s="545"/>
-      <c r="CV1" s="546"/>
+      <c r="CP1" s="673"/>
+      <c r="CQ1" s="673"/>
+      <c r="CR1" s="673"/>
+      <c r="CS1" s="673"/>
+      <c r="CT1" s="673"/>
+      <c r="CU1" s="673"/>
+      <c r="CV1" s="693"/>
     </row>
     <row r="2" spans="1:100" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A2" s="89" t="s">
@@ -32265,7 +32246,7 @@
       <c r="L2" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="601"/>
+      <c r="M2" s="713"/>
       <c r="N2" s="94" t="s">
         <v>156</v>
       </c>
@@ -32281,22 +32262,22 @@
       <c r="R2" s="95" t="s">
         <v>436</v>
       </c>
-      <c r="S2" s="588" t="s">
+      <c r="S2" s="728" t="s">
         <v>159</v>
       </c>
-      <c r="T2" s="552"/>
-      <c r="U2" s="589" t="s">
+      <c r="T2" s="699"/>
+      <c r="U2" s="729" t="s">
         <v>67</v>
       </c>
-      <c r="V2" s="589"/>
-      <c r="W2" s="589" t="s">
+      <c r="V2" s="729"/>
+      <c r="W2" s="729" t="s">
         <v>68</v>
       </c>
-      <c r="X2" s="590"/>
-      <c r="Y2" s="579"/>
-      <c r="Z2" s="580"/>
-      <c r="AA2" s="607"/>
-      <c r="AB2" s="598"/>
+      <c r="X2" s="730"/>
+      <c r="Y2" s="720"/>
+      <c r="Z2" s="721"/>
+      <c r="AA2" s="723"/>
+      <c r="AB2" s="725"/>
       <c r="AC2" s="96" t="s">
         <v>160</v>
       </c>
@@ -32309,81 +32290,81 @@
       <c r="AF2" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="AG2" s="591" t="s">
+      <c r="AG2" s="731" t="s">
         <v>164</v>
       </c>
-      <c r="AH2" s="577"/>
-      <c r="AI2" s="577" t="s">
+      <c r="AH2" s="711"/>
+      <c r="AI2" s="711" t="s">
         <v>165</v>
       </c>
-      <c r="AJ2" s="577"/>
-      <c r="AK2" s="577" t="s">
+      <c r="AJ2" s="711"/>
+      <c r="AK2" s="711" t="s">
         <v>166</v>
       </c>
-      <c r="AL2" s="577"/>
+      <c r="AL2" s="711"/>
       <c r="AM2" s="97" t="s">
         <v>167</v>
       </c>
       <c r="AN2" s="97" t="s">
         <v>168</v>
       </c>
-      <c r="AO2" s="598"/>
-      <c r="AP2" s="579" t="s">
+      <c r="AO2" s="725"/>
+      <c r="AP2" s="720" t="s">
         <v>169</v>
       </c>
-      <c r="AQ2" s="580"/>
-      <c r="AR2" s="581" t="s">
+      <c r="AQ2" s="721"/>
+      <c r="AR2" s="709" t="s">
         <v>170</v>
       </c>
-      <c r="AS2" s="582"/>
-      <c r="AT2" s="577" t="s">
+      <c r="AS2" s="710"/>
+      <c r="AT2" s="711" t="s">
         <v>171</v>
       </c>
-      <c r="AU2" s="577"/>
-      <c r="AV2" s="578" t="s">
+      <c r="AU2" s="711"/>
+      <c r="AV2" s="712" t="s">
         <v>172</v>
       </c>
-      <c r="AW2" s="578"/>
-      <c r="AX2" s="578" t="s">
+      <c r="AW2" s="712"/>
+      <c r="AX2" s="712" t="s">
         <v>173</v>
       </c>
-      <c r="AY2" s="578"/>
+      <c r="AY2" s="712"/>
       <c r="AZ2" s="97" t="s">
         <v>174</v>
       </c>
       <c r="BA2" s="97" t="s">
         <v>175</v>
       </c>
-      <c r="BB2" s="577" t="s">
+      <c r="BB2" s="711" t="s">
         <v>176</v>
       </c>
-      <c r="BC2" s="577"/>
-      <c r="BD2" s="578" t="s">
+      <c r="BC2" s="711"/>
+      <c r="BD2" s="712" t="s">
         <v>177</v>
       </c>
-      <c r="BE2" s="578"/>
-      <c r="BF2" s="578" t="s">
+      <c r="BE2" s="712"/>
+      <c r="BF2" s="712" t="s">
         <v>178</v>
       </c>
-      <c r="BG2" s="578"/>
+      <c r="BG2" s="712"/>
       <c r="BH2" s="97" t="s">
         <v>179</v>
       </c>
       <c r="BI2" s="97" t="s">
         <v>180</v>
       </c>
-      <c r="BJ2" s="577" t="s">
+      <c r="BJ2" s="711" t="s">
         <v>181</v>
       </c>
-      <c r="BK2" s="577"/>
-      <c r="BL2" s="578" t="s">
+      <c r="BK2" s="711"/>
+      <c r="BL2" s="712" t="s">
         <v>182</v>
       </c>
-      <c r="BM2" s="578"/>
-      <c r="BN2" s="578" t="s">
+      <c r="BM2" s="712"/>
+      <c r="BN2" s="712" t="s">
         <v>183</v>
       </c>
-      <c r="BO2" s="578"/>
+      <c r="BO2" s="712"/>
       <c r="BP2" s="97" t="s">
         <v>184</v>
       </c>
@@ -32405,15 +32386,15 @@
       <c r="BV2" s="97" t="s">
         <v>190</v>
       </c>
-      <c r="BW2" s="598"/>
-      <c r="BX2" s="579" t="s">
+      <c r="BW2" s="725"/>
+      <c r="BX2" s="720" t="s">
         <v>169</v>
       </c>
-      <c r="BY2" s="580"/>
-      <c r="BZ2" s="581" t="s">
+      <c r="BY2" s="721"/>
+      <c r="BZ2" s="709" t="s">
         <v>170</v>
       </c>
-      <c r="CA2" s="582"/>
+      <c r="CA2" s="710"/>
       <c r="CB2" s="20" t="s">
         <v>74</v>
       </c>
@@ -32453,22 +32434,22 @@
       <c r="CN2" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="CO2" s="583" t="s">
+      <c r="CO2" s="740" t="s">
         <v>191</v>
       </c>
-      <c r="CP2" s="584"/>
-      <c r="CQ2" s="575" t="s">
+      <c r="CP2" s="741"/>
+      <c r="CQ2" s="738" t="s">
         <v>192</v>
       </c>
-      <c r="CR2" s="575"/>
-      <c r="CS2" s="584" t="s">
+      <c r="CR2" s="738"/>
+      <c r="CS2" s="741" t="s">
         <v>193</v>
       </c>
-      <c r="CT2" s="584"/>
-      <c r="CU2" s="575" t="s">
+      <c r="CT2" s="741"/>
+      <c r="CU2" s="738" t="s">
         <v>194</v>
       </c>
-      <c r="CV2" s="576"/>
+      <c r="CV2" s="739"/>
     </row>
     <row r="3" spans="1:100" ht="27" x14ac:dyDescent="0.25">
       <c r="A3" s="99" t="s">
@@ -32736,68 +32717,68 @@
       <c r="O4" s="136"/>
       <c r="P4" s="137"/>
       <c r="Q4" s="136"/>
-      <c r="R4" s="684"/>
-      <c r="S4" s="684"/>
-      <c r="T4" s="690"/>
-      <c r="U4" s="684"/>
-      <c r="V4" s="690"/>
-      <c r="W4" s="684"/>
-      <c r="X4" s="690"/>
-      <c r="Y4" s="685"/>
-      <c r="Z4" s="690"/>
+      <c r="R4" s="543"/>
+      <c r="S4" s="543"/>
+      <c r="T4" s="549"/>
+      <c r="U4" s="543"/>
+      <c r="V4" s="549"/>
+      <c r="W4" s="543"/>
+      <c r="X4" s="549"/>
+      <c r="Y4" s="544"/>
+      <c r="Z4" s="549"/>
       <c r="AA4" s="76"/>
       <c r="AB4" s="76"/>
-      <c r="AC4" s="693"/>
+      <c r="AC4" s="552"/>
       <c r="AD4" s="139"/>
-      <c r="AE4" s="693"/>
+      <c r="AE4" s="552"/>
       <c r="AF4" s="139"/>
-      <c r="AG4" s="686"/>
-      <c r="AH4" s="690"/>
-      <c r="AI4" s="686"/>
-      <c r="AJ4" s="690"/>
-      <c r="AK4" s="686"/>
-      <c r="AL4" s="690"/>
+      <c r="AG4" s="545"/>
+      <c r="AH4" s="549"/>
+      <c r="AI4" s="545"/>
+      <c r="AJ4" s="549"/>
+      <c r="AK4" s="545"/>
+      <c r="AL4" s="549"/>
       <c r="AM4" s="140"/>
       <c r="AN4" s="140"/>
       <c r="AO4" s="141"/>
-      <c r="AP4" s="687"/>
-      <c r="AQ4" s="691"/>
-      <c r="AR4" s="687"/>
-      <c r="AS4" s="691"/>
-      <c r="AT4" s="688"/>
-      <c r="AU4" s="692"/>
-      <c r="AV4" s="688"/>
-      <c r="AW4" s="692"/>
-      <c r="AX4" s="688"/>
-      <c r="AY4" s="692"/>
+      <c r="AP4" s="546"/>
+      <c r="AQ4" s="550"/>
+      <c r="AR4" s="546"/>
+      <c r="AS4" s="550"/>
+      <c r="AT4" s="547"/>
+      <c r="AU4" s="551"/>
+      <c r="AV4" s="547"/>
+      <c r="AW4" s="551"/>
+      <c r="AX4" s="547"/>
+      <c r="AY4" s="551"/>
       <c r="AZ4" s="143"/>
       <c r="BA4" s="144"/>
-      <c r="BB4" s="689"/>
-      <c r="BC4" s="692"/>
-      <c r="BD4" s="689"/>
-      <c r="BE4" s="692"/>
-      <c r="BF4" s="689"/>
-      <c r="BG4" s="692"/>
+      <c r="BB4" s="548"/>
+      <c r="BC4" s="551"/>
+      <c r="BD4" s="548"/>
+      <c r="BE4" s="551"/>
+      <c r="BF4" s="548"/>
+      <c r="BG4" s="551"/>
       <c r="BH4" s="143"/>
       <c r="BI4" s="144"/>
-      <c r="BJ4" s="689"/>
-      <c r="BK4" s="692"/>
-      <c r="BL4" s="689"/>
-      <c r="BM4" s="692"/>
-      <c r="BN4" s="689"/>
-      <c r="BO4" s="692"/>
+      <c r="BJ4" s="548"/>
+      <c r="BK4" s="551"/>
+      <c r="BL4" s="548"/>
+      <c r="BM4" s="551"/>
+      <c r="BN4" s="548"/>
+      <c r="BO4" s="551"/>
       <c r="BP4" s="143"/>
       <c r="BQ4" s="144"/>
-      <c r="BR4" s="692"/>
-      <c r="BS4" s="692"/>
-      <c r="BT4" s="692"/>
+      <c r="BR4" s="551"/>
+      <c r="BS4" s="551"/>
+      <c r="BT4" s="551"/>
       <c r="BU4" s="142"/>
       <c r="BV4" s="142"/>
       <c r="BW4" s="138"/>
       <c r="BX4" s="138"/>
-      <c r="BY4" s="690"/>
+      <c r="BY4" s="549"/>
       <c r="BZ4" s="69"/>
-      <c r="CA4" s="691"/>
+      <c r="CA4" s="550"/>
       <c r="CB4" s="145"/>
       <c r="CC4" s="145"/>
       <c r="CD4" s="145"/>
@@ -32811,14 +32792,14 @@
       <c r="CL4" s="146"/>
       <c r="CM4" s="146"/>
       <c r="CN4" s="147"/>
-      <c r="CO4" s="686"/>
-      <c r="CP4" s="690"/>
-      <c r="CQ4" s="686"/>
-      <c r="CR4" s="690"/>
-      <c r="CS4" s="686"/>
-      <c r="CT4" s="690"/>
-      <c r="CU4" s="686"/>
-      <c r="CV4" s="690"/>
+      <c r="CO4" s="545"/>
+      <c r="CP4" s="549"/>
+      <c r="CQ4" s="545"/>
+      <c r="CR4" s="549"/>
+      <c r="CS4" s="545"/>
+      <c r="CT4" s="549"/>
+      <c r="CU4" s="545"/>
+      <c r="CV4" s="549"/>
     </row>
     <row r="5" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A5" s="74"/>
@@ -37774,16 +37755,18 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Y1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="CU2:CV2"/>
+    <mergeCell ref="BB2:BC2"/>
+    <mergeCell ref="BD2:BE2"/>
+    <mergeCell ref="BF2:BG2"/>
+    <mergeCell ref="BJ2:BK2"/>
+    <mergeCell ref="BL2:BM2"/>
+    <mergeCell ref="BN2:BO2"/>
+    <mergeCell ref="BX2:BY2"/>
+    <mergeCell ref="BZ2:CA2"/>
+    <mergeCell ref="CO2:CP2"/>
+    <mergeCell ref="CQ2:CR2"/>
+    <mergeCell ref="CS2:CT2"/>
     <mergeCell ref="BX1:CA1"/>
     <mergeCell ref="CB1:CM1"/>
     <mergeCell ref="CO1:CV1"/>
@@ -37800,18 +37783,16 @@
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AT1:BV1"/>
     <mergeCell ref="BW1:BW2"/>
-    <mergeCell ref="CU2:CV2"/>
-    <mergeCell ref="BB2:BC2"/>
-    <mergeCell ref="BD2:BE2"/>
-    <mergeCell ref="BF2:BG2"/>
-    <mergeCell ref="BJ2:BK2"/>
-    <mergeCell ref="BL2:BM2"/>
-    <mergeCell ref="BN2:BO2"/>
-    <mergeCell ref="BX2:BY2"/>
-    <mergeCell ref="BZ2:CA2"/>
-    <mergeCell ref="CO2:CP2"/>
-    <mergeCell ref="CQ2:CR2"/>
-    <mergeCell ref="CS2:CT2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Y1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -37864,8 +37845,8 @@
       <c r="B2" s="209" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="615"/>
-      <c r="D2" s="615"/>
+      <c r="C2" s="742"/>
+      <c r="D2" s="742"/>
       <c r="E2" s="207"/>
       <c r="F2" s="207"/>
       <c r="G2" s="207"/>
@@ -37990,32 +37971,32 @@
     </row>
     <row r="7" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="206"/>
-      <c r="B7" s="616" t="s">
+      <c r="B7" s="743" t="s">
         <v>217</v>
       </c>
-      <c r="C7" s="616"/>
-      <c r="D7" s="616"/>
+      <c r="C7" s="743"/>
+      <c r="D7" s="743"/>
       <c r="E7" s="207"/>
       <c r="F7" s="207"/>
       <c r="G7" s="207"/>
       <c r="H7" s="207"/>
       <c r="I7" s="207"/>
-      <c r="J7" s="616" t="s">
+      <c r="J7" s="743" t="s">
         <v>218</v>
       </c>
-      <c r="K7" s="616"/>
-      <c r="L7" s="616"/>
+      <c r="K7" s="743"/>
+      <c r="L7" s="743"/>
       <c r="M7" s="207"/>
       <c r="N7" s="207"/>
       <c r="O7" s="207"/>
       <c r="P7" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="Q7" s="616" t="s">
+      <c r="Q7" s="743" t="s">
         <v>218</v>
       </c>
-      <c r="R7" s="616"/>
-      <c r="S7" s="616"/>
+      <c r="R7" s="743"/>
+      <c r="S7" s="743"/>
       <c r="T7" s="207"/>
       <c r="U7" s="221" t="s">
         <v>220</v>
@@ -38049,41 +38030,41 @@
       <c r="B9" s="222" t="s">
         <v>221</v>
       </c>
-      <c r="C9" s="611" t="s">
+      <c r="C9" s="744" t="s">
         <v>222</v>
       </c>
-      <c r="D9" s="612"/>
-      <c r="E9" s="611" t="s">
+      <c r="D9" s="745"/>
+      <c r="E9" s="744" t="s">
         <v>223</v>
       </c>
-      <c r="F9" s="612"/>
+      <c r="F9" s="745"/>
       <c r="G9" s="207"/>
       <c r="H9" s="207"/>
       <c r="I9" s="207"/>
       <c r="J9" s="222" t="s">
         <v>221</v>
       </c>
-      <c r="K9" s="611" t="s">
+      <c r="K9" s="744" t="s">
         <v>222</v>
       </c>
-      <c r="L9" s="612"/>
-      <c r="M9" s="611" t="s">
+      <c r="L9" s="745"/>
+      <c r="M9" s="744" t="s">
         <v>223</v>
       </c>
-      <c r="N9" s="612"/>
+      <c r="N9" s="745"/>
       <c r="O9" s="207"/>
       <c r="P9" s="207"/>
       <c r="Q9" s="222" t="s">
         <v>221</v>
       </c>
-      <c r="R9" s="611" t="s">
+      <c r="R9" s="744" t="s">
         <v>222</v>
       </c>
-      <c r="S9" s="612"/>
-      <c r="T9" s="611" t="s">
+      <c r="S9" s="745"/>
+      <c r="T9" s="744" t="s">
         <v>223</v>
       </c>
-      <c r="U9" s="612"/>
+      <c r="U9" s="745"/>
     </row>
     <row r="10" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="206"/>
@@ -38145,10 +38126,10 @@
       </c>
       <c r="C11" s="227"/>
       <c r="D11" s="227"/>
-      <c r="E11" s="608" t="s">
+      <c r="E11" s="746" t="s">
         <v>228</v>
       </c>
-      <c r="F11" s="609"/>
+      <c r="F11" s="747"/>
       <c r="G11" s="228"/>
       <c r="H11" s="228"/>
       <c r="I11" s="228"/>
@@ -38157,10 +38138,10 @@
       </c>
       <c r="K11" s="207"/>
       <c r="L11" s="207"/>
-      <c r="M11" s="613" t="s">
+      <c r="M11" s="749" t="s">
         <v>228</v>
       </c>
-      <c r="N11" s="614"/>
+      <c r="N11" s="750"/>
       <c r="O11" s="228"/>
       <c r="P11" s="228"/>
       <c r="Q11" s="226" t="s">
@@ -38168,19 +38149,19 @@
       </c>
       <c r="R11" s="227"/>
       <c r="S11" s="227"/>
-      <c r="T11" s="608" t="s">
+      <c r="T11" s="746" t="s">
         <v>228</v>
       </c>
-      <c r="U11" s="609"/>
+      <c r="U11" s="747"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="206"/>
       <c r="B12" s="230" t="s">
         <v>463</v>
       </c>
-      <c r="C12" s="708"/>
+      <c r="C12" s="567"/>
       <c r="D12" s="524"/>
-      <c r="E12" s="694"/>
+      <c r="E12" s="553"/>
       <c r="F12" s="527"/>
       <c r="G12" s="228"/>
       <c r="H12" s="228"/>
@@ -38188,18 +38169,18 @@
       <c r="J12" s="230" t="s">
         <v>463</v>
       </c>
-      <c r="K12" s="708"/>
+      <c r="K12" s="567"/>
       <c r="L12" s="524"/>
-      <c r="M12" s="694"/>
+      <c r="M12" s="553"/>
       <c r="N12" s="527"/>
       <c r="O12" s="228"/>
       <c r="P12" s="228"/>
       <c r="Q12" s="230" t="s">
         <v>463</v>
       </c>
-      <c r="R12" s="708"/>
+      <c r="R12" s="567"/>
       <c r="S12" s="524"/>
-      <c r="T12" s="694"/>
+      <c r="T12" s="553"/>
       <c r="U12" s="527"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -38207,9 +38188,9 @@
       <c r="B13" s="231" t="s">
         <v>464</v>
       </c>
-      <c r="C13" s="709"/>
+      <c r="C13" s="568"/>
       <c r="D13" s="525"/>
-      <c r="E13" s="695"/>
+      <c r="E13" s="554"/>
       <c r="F13" s="528"/>
       <c r="G13" s="228"/>
       <c r="H13" s="228"/>
@@ -38217,18 +38198,18 @@
       <c r="J13" s="231" t="s">
         <v>464</v>
       </c>
-      <c r="K13" s="709"/>
+      <c r="K13" s="568"/>
       <c r="L13" s="525"/>
-      <c r="M13" s="695"/>
+      <c r="M13" s="554"/>
       <c r="N13" s="528"/>
       <c r="O13" s="228"/>
       <c r="P13" s="228"/>
       <c r="Q13" s="231" t="s">
         <v>464</v>
       </c>
-      <c r="R13" s="709"/>
+      <c r="R13" s="568"/>
       <c r="S13" s="525"/>
-      <c r="T13" s="695"/>
+      <c r="T13" s="554"/>
       <c r="U13" s="528"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -38236,9 +38217,9 @@
       <c r="B14" s="231" t="s">
         <v>229</v>
       </c>
-      <c r="C14" s="709"/>
+      <c r="C14" s="568"/>
       <c r="D14" s="526"/>
-      <c r="E14" s="695"/>
+      <c r="E14" s="554"/>
       <c r="F14" s="528"/>
       <c r="G14" s="228"/>
       <c r="H14" s="228"/>
@@ -38246,18 +38227,18 @@
       <c r="J14" s="231" t="s">
         <v>229</v>
       </c>
-      <c r="K14" s="709"/>
+      <c r="K14" s="568"/>
       <c r="L14" s="526"/>
-      <c r="M14" s="695"/>
+      <c r="M14" s="554"/>
       <c r="N14" s="528"/>
       <c r="O14" s="228"/>
       <c r="P14" s="228"/>
       <c r="Q14" s="231" t="s">
         <v>229</v>
       </c>
-      <c r="R14" s="709"/>
+      <c r="R14" s="568"/>
       <c r="S14" s="526"/>
-      <c r="T14" s="695"/>
+      <c r="T14" s="554"/>
       <c r="U14" s="528"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -38267,7 +38248,7 @@
       </c>
       <c r="C15" s="233"/>
       <c r="D15" s="234"/>
-      <c r="E15" s="696"/>
+      <c r="E15" s="555"/>
       <c r="F15" s="235"/>
       <c r="G15" s="236"/>
       <c r="H15" s="236"/>
@@ -38277,7 +38258,7 @@
       </c>
       <c r="K15" s="233"/>
       <c r="L15" s="234"/>
-      <c r="M15" s="696"/>
+      <c r="M15" s="555"/>
       <c r="N15" s="235"/>
       <c r="O15" s="207"/>
       <c r="P15" s="207"/>
@@ -38286,7 +38267,7 @@
       </c>
       <c r="R15" s="233"/>
       <c r="S15" s="234"/>
-      <c r="T15" s="696"/>
+      <c r="T15" s="555"/>
       <c r="U15" s="235"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -38296,7 +38277,7 @@
       </c>
       <c r="C16" s="239"/>
       <c r="D16" s="240"/>
-      <c r="E16" s="697"/>
+      <c r="E16" s="556"/>
       <c r="F16" s="241"/>
       <c r="G16" s="236"/>
       <c r="H16" s="236"/>
@@ -38306,7 +38287,7 @@
       </c>
       <c r="K16" s="239"/>
       <c r="L16" s="240"/>
-      <c r="M16" s="704"/>
+      <c r="M16" s="563"/>
       <c r="N16" s="241"/>
       <c r="O16" s="207"/>
       <c r="P16" s="207"/>
@@ -38315,7 +38296,7 @@
       </c>
       <c r="R16" s="239"/>
       <c r="S16" s="240"/>
-      <c r="T16" s="704"/>
+      <c r="T16" s="563"/>
       <c r="U16" s="241"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -38335,7 +38316,7 @@
       </c>
       <c r="K17" s="243"/>
       <c r="L17" s="244"/>
-      <c r="M17" s="696"/>
+      <c r="M17" s="555"/>
       <c r="N17" s="245"/>
       <c r="O17" s="246"/>
       <c r="P17" s="246"/>
@@ -38344,7 +38325,7 @@
       </c>
       <c r="R17" s="243"/>
       <c r="S17" s="244"/>
-      <c r="T17" s="700"/>
+      <c r="T17" s="559"/>
       <c r="U17" s="245"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -38354,7 +38335,7 @@
       </c>
       <c r="C18" s="248"/>
       <c r="D18" s="249"/>
-      <c r="E18" s="698"/>
+      <c r="E18" s="557"/>
       <c r="F18" s="250"/>
       <c r="G18" s="236"/>
       <c r="H18" s="236"/>
@@ -38364,7 +38345,7 @@
       </c>
       <c r="K18" s="248"/>
       <c r="L18" s="249"/>
-      <c r="M18" s="698"/>
+      <c r="M18" s="557"/>
       <c r="N18" s="250"/>
       <c r="O18" s="207"/>
       <c r="P18" s="207"/>
@@ -38373,7 +38354,7 @@
       </c>
       <c r="R18" s="243"/>
       <c r="S18" s="244"/>
-      <c r="T18" s="700"/>
+      <c r="T18" s="559"/>
       <c r="U18" s="245"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -38404,35 +38385,35 @@
       <c r="B20" s="226" t="s">
         <v>234</v>
       </c>
-      <c r="C20" s="710"/>
+      <c r="C20" s="569"/>
       <c r="D20" s="255"/>
-      <c r="E20" s="608" t="s">
+      <c r="E20" s="746" t="s">
         <v>235</v>
       </c>
-      <c r="F20" s="609"/>
+      <c r="F20" s="747"/>
       <c r="G20" s="236"/>
       <c r="H20" s="236"/>
       <c r="I20" s="207"/>
       <c r="J20" s="226" t="s">
         <v>234</v>
       </c>
-      <c r="K20" s="710"/>
+      <c r="K20" s="569"/>
       <c r="L20" s="255"/>
-      <c r="M20" s="608" t="s">
+      <c r="M20" s="746" t="s">
         <v>235</v>
       </c>
-      <c r="N20" s="609"/>
+      <c r="N20" s="747"/>
       <c r="O20" s="246"/>
       <c r="P20" s="246"/>
       <c r="Q20" s="226" t="s">
         <v>234</v>
       </c>
-      <c r="R20" s="710"/>
+      <c r="R20" s="569"/>
       <c r="S20" s="255"/>
-      <c r="T20" s="608" t="s">
+      <c r="T20" s="746" t="s">
         <v>235</v>
       </c>
-      <c r="U20" s="609"/>
+      <c r="U20" s="747"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="206"/>
@@ -38441,7 +38422,7 @@
       </c>
       <c r="C21" s="257"/>
       <c r="D21" s="258"/>
-      <c r="E21" s="699"/>
+      <c r="E21" s="558"/>
       <c r="F21" s="259"/>
       <c r="G21" s="236"/>
       <c r="H21" s="236"/>
@@ -38451,7 +38432,7 @@
       </c>
       <c r="K21" s="257"/>
       <c r="L21" s="258"/>
-      <c r="M21" s="699"/>
+      <c r="M21" s="558"/>
       <c r="N21" s="259"/>
       <c r="O21" s="246"/>
       <c r="P21" s="246"/>
@@ -38460,7 +38441,7 @@
       </c>
       <c r="R21" s="233"/>
       <c r="S21" s="234"/>
-      <c r="T21" s="696"/>
+      <c r="T21" s="555"/>
       <c r="U21" s="235"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -38470,7 +38451,7 @@
       </c>
       <c r="C22" s="239"/>
       <c r="D22" s="240"/>
-      <c r="E22" s="697"/>
+      <c r="E22" s="556"/>
       <c r="F22" s="241"/>
       <c r="G22" s="236"/>
       <c r="H22" s="236"/>
@@ -38480,7 +38461,7 @@
       </c>
       <c r="K22" s="239"/>
       <c r="L22" s="240"/>
-      <c r="M22" s="704"/>
+      <c r="M22" s="563"/>
       <c r="N22" s="241"/>
       <c r="O22" s="246"/>
       <c r="P22" s="246"/>
@@ -38489,7 +38470,7 @@
       </c>
       <c r="R22" s="239"/>
       <c r="S22" s="240"/>
-      <c r="T22" s="704"/>
+      <c r="T22" s="563"/>
       <c r="U22" s="241"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -38499,7 +38480,7 @@
       </c>
       <c r="C23" s="243"/>
       <c r="D23" s="244"/>
-      <c r="E23" s="700"/>
+      <c r="E23" s="559"/>
       <c r="F23" s="245"/>
       <c r="G23" s="236"/>
       <c r="H23" s="236"/>
@@ -38509,7 +38490,7 @@
       </c>
       <c r="K23" s="243"/>
       <c r="L23" s="244"/>
-      <c r="M23" s="696"/>
+      <c r="M23" s="555"/>
       <c r="N23" s="245"/>
       <c r="O23" s="246"/>
       <c r="P23" s="246"/>
@@ -38518,7 +38499,7 @@
       </c>
       <c r="R23" s="243"/>
       <c r="S23" s="244"/>
-      <c r="T23" s="700"/>
+      <c r="T23" s="559"/>
       <c r="U23" s="245"/>
     </row>
     <row r="24" spans="1:21" ht="24" x14ac:dyDescent="0.25">
@@ -38538,7 +38519,7 @@
       </c>
       <c r="K24" s="261"/>
       <c r="L24" s="244"/>
-      <c r="M24" s="705"/>
+      <c r="M24" s="564"/>
       <c r="N24" s="245"/>
       <c r="O24" s="246"/>
       <c r="P24" s="246"/>
@@ -38547,7 +38528,7 @@
       </c>
       <c r="R24" s="261"/>
       <c r="S24" s="244"/>
-      <c r="T24" s="705"/>
+      <c r="T24" s="564"/>
       <c r="U24" s="245"/>
     </row>
     <row r="25" spans="1:21" ht="24" x14ac:dyDescent="0.25">
@@ -38567,7 +38548,7 @@
       </c>
       <c r="K25" s="261"/>
       <c r="L25" s="244"/>
-      <c r="M25" s="705"/>
+      <c r="M25" s="564"/>
       <c r="N25" s="245"/>
       <c r="O25" s="246"/>
       <c r="P25" s="246"/>
@@ -38576,7 +38557,7 @@
       </c>
       <c r="R25" s="261"/>
       <c r="S25" s="244"/>
-      <c r="T25" s="705"/>
+      <c r="T25" s="564"/>
       <c r="U25" s="245"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -38605,7 +38586,7 @@
       </c>
       <c r="R26" s="261"/>
       <c r="S26" s="244"/>
-      <c r="T26" s="705"/>
+      <c r="T26" s="564"/>
       <c r="U26" s="245"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -38634,7 +38615,7 @@
       </c>
       <c r="R27" s="261"/>
       <c r="S27" s="244"/>
-      <c r="T27" s="705"/>
+      <c r="T27" s="564"/>
       <c r="U27" s="245"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -38679,7 +38660,7 @@
       <c r="J29" s="264"/>
       <c r="K29" s="265"/>
       <c r="L29" s="266"/>
-      <c r="M29" s="706"/>
+      <c r="M29" s="565"/>
       <c r="N29" s="267"/>
       <c r="O29" s="246"/>
       <c r="P29" s="246"/>
@@ -38694,35 +38675,35 @@
       <c r="B30" s="226" t="s">
         <v>241</v>
       </c>
-      <c r="C30" s="710"/>
+      <c r="C30" s="569"/>
       <c r="D30" s="255"/>
-      <c r="E30" s="608" t="s">
+      <c r="E30" s="746" t="s">
         <v>235</v>
       </c>
-      <c r="F30" s="609"/>
+      <c r="F30" s="747"/>
       <c r="G30" s="236"/>
       <c r="H30" s="236"/>
       <c r="I30" s="207"/>
       <c r="J30" s="226" t="s">
         <v>241</v>
       </c>
-      <c r="K30" s="710"/>
+      <c r="K30" s="569"/>
       <c r="L30" s="255"/>
-      <c r="M30" s="608" t="s">
+      <c r="M30" s="746" t="s">
         <v>235</v>
       </c>
-      <c r="N30" s="609"/>
+      <c r="N30" s="747"/>
       <c r="O30" s="246"/>
       <c r="P30" s="246"/>
       <c r="Q30" s="226" t="s">
         <v>241</v>
       </c>
-      <c r="R30" s="710"/>
+      <c r="R30" s="569"/>
       <c r="S30" s="255"/>
-      <c r="T30" s="608" t="s">
+      <c r="T30" s="746" t="s">
         <v>235</v>
       </c>
-      <c r="U30" s="609"/>
+      <c r="U30" s="747"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="269"/>
@@ -38731,7 +38712,7 @@
       </c>
       <c r="C31" s="270"/>
       <c r="D31" s="271"/>
-      <c r="E31" s="701"/>
+      <c r="E31" s="560"/>
       <c r="F31" s="272"/>
       <c r="G31" s="273"/>
       <c r="H31" s="273"/>
@@ -38741,7 +38722,7 @@
       </c>
       <c r="K31" s="270"/>
       <c r="L31" s="275"/>
-      <c r="M31" s="701"/>
+      <c r="M31" s="560"/>
       <c r="N31" s="272"/>
       <c r="O31" s="276"/>
       <c r="P31" s="276"/>
@@ -38750,7 +38731,7 @@
       </c>
       <c r="R31" s="277"/>
       <c r="S31" s="278"/>
-      <c r="T31" s="707"/>
+      <c r="T31" s="566"/>
       <c r="U31" s="279"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
@@ -38760,7 +38741,7 @@
       </c>
       <c r="C32" s="281"/>
       <c r="D32" s="282"/>
-      <c r="E32" s="702"/>
+      <c r="E32" s="561"/>
       <c r="F32" s="283"/>
       <c r="G32" s="236"/>
       <c r="H32" s="284"/>
@@ -38770,7 +38751,7 @@
       </c>
       <c r="K32" s="281"/>
       <c r="L32" s="286"/>
-      <c r="M32" s="702"/>
+      <c r="M32" s="561"/>
       <c r="N32" s="283"/>
       <c r="O32" s="285"/>
       <c r="P32" s="285"/>
@@ -38779,7 +38760,7 @@
       </c>
       <c r="R32" s="281"/>
       <c r="S32" s="286"/>
-      <c r="T32" s="702"/>
+      <c r="T32" s="561"/>
       <c r="U32" s="283"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -38789,7 +38770,7 @@
       </c>
       <c r="C33" s="243"/>
       <c r="D33" s="244"/>
-      <c r="E33" s="700"/>
+      <c r="E33" s="559"/>
       <c r="F33" s="245"/>
       <c r="G33" s="236"/>
       <c r="H33" s="236"/>
@@ -38799,7 +38780,7 @@
       </c>
       <c r="K33" s="243"/>
       <c r="L33" s="244"/>
-      <c r="M33" s="703"/>
+      <c r="M33" s="562"/>
       <c r="N33" s="245"/>
       <c r="O33" s="246"/>
       <c r="P33" s="246"/>
@@ -38808,7 +38789,7 @@
       </c>
       <c r="R33" s="243"/>
       <c r="S33" s="244"/>
-      <c r="T33" s="700"/>
+      <c r="T33" s="559"/>
       <c r="U33" s="245"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
@@ -39045,11 +39026,11 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="206"/>
-      <c r="B42" s="610"/>
-      <c r="C42" s="610"/>
-      <c r="D42" s="610"/>
-      <c r="E42" s="610"/>
-      <c r="F42" s="610"/>
+      <c r="B42" s="748"/>
+      <c r="C42" s="748"/>
+      <c r="D42" s="748"/>
+      <c r="E42" s="748"/>
+      <c r="F42" s="748"/>
       <c r="G42" s="246"/>
       <c r="H42" s="207"/>
       <c r="I42" s="246"/>
@@ -39193,15 +39174,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="R9:S9"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="M30:N30"/>
     <mergeCell ref="T30:U30"/>
@@ -39213,6 +39185,15 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="T20:U20"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="R9:S9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -39223,8 +39204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F62"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39245,8 +39226,8 @@
       <c r="B3" s="292" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="617"/>
-      <c r="D3" s="617"/>
+      <c r="C3" s="751"/>
+      <c r="D3" s="751"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C4" s="293"/>
@@ -39279,10 +39260,10 @@
       <c r="D10" s="301" t="s">
         <v>255</v>
       </c>
-      <c r="E10" s="618" t="s">
+      <c r="E10" s="752" t="s">
         <v>256</v>
       </c>
-      <c r="F10" s="619"/>
+      <c r="F10" s="753"/>
     </row>
     <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="302" t="s">
@@ -39305,103 +39286,105 @@
       <c r="B12" s="307" t="s">
         <v>257</v>
       </c>
-      <c r="C12" s="711"/>
-      <c r="D12" s="719"/>
-      <c r="E12" s="719"/>
-      <c r="F12" s="716"/>
+      <c r="C12" s="570"/>
+      <c r="D12" s="578">
+        <v>100</v>
+      </c>
+      <c r="E12" s="578"/>
+      <c r="F12" s="575"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="308" t="s">
         <v>258</v>
       </c>
-      <c r="C13" s="712"/>
-      <c r="D13" s="720"/>
-      <c r="E13" s="720"/>
-      <c r="F13" s="717"/>
+      <c r="C13" s="571"/>
+      <c r="D13" s="579"/>
+      <c r="E13" s="579"/>
+      <c r="F13" s="576"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="727" t="s">
+      <c r="B14" s="586" t="s">
         <v>259</v>
       </c>
-      <c r="C14" s="728"/>
-      <c r="D14" s="729"/>
-      <c r="E14" s="730"/>
-      <c r="F14" s="718"/>
+      <c r="C14" s="587"/>
+      <c r="D14" s="588"/>
+      <c r="E14" s="589"/>
+      <c r="F14" s="577"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="309"/>
-      <c r="C15" s="713"/>
-      <c r="D15" s="721"/>
-      <c r="E15" s="722"/>
-      <c r="F15" s="717"/>
+      <c r="C15" s="572"/>
+      <c r="D15" s="580"/>
+      <c r="E15" s="581"/>
+      <c r="F15" s="576"/>
     </row>
     <row r="16" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="310" t="s">
         <v>260</v>
       </c>
-      <c r="C16" s="714"/>
-      <c r="D16" s="723"/>
-      <c r="E16" s="723"/>
-      <c r="F16" s="718"/>
+      <c r="C16" s="573"/>
+      <c r="D16" s="582"/>
+      <c r="E16" s="582"/>
+      <c r="F16" s="577"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="308" t="s">
         <v>261</v>
       </c>
-      <c r="C17" s="712"/>
-      <c r="D17" s="720"/>
-      <c r="E17" s="720"/>
-      <c r="F17" s="717"/>
+      <c r="C17" s="571"/>
+      <c r="D17" s="579"/>
+      <c r="E17" s="579"/>
+      <c r="F17" s="576"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="727" t="s">
+      <c r="B18" s="586" t="s">
         <v>262</v>
       </c>
-      <c r="C18" s="731"/>
-      <c r="D18" s="729"/>
-      <c r="E18" s="729"/>
-      <c r="F18" s="718"/>
+      <c r="C18" s="590"/>
+      <c r="D18" s="588"/>
+      <c r="E18" s="588"/>
+      <c r="F18" s="577"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="311"/>
-      <c r="C19" s="715"/>
-      <c r="D19" s="724"/>
-      <c r="E19" s="724"/>
-      <c r="F19" s="717"/>
+      <c r="C19" s="574"/>
+      <c r="D19" s="583"/>
+      <c r="E19" s="583"/>
+      <c r="F19" s="576"/>
     </row>
     <row r="20" spans="2:6" ht="63" x14ac:dyDescent="0.25">
       <c r="B20" s="312" t="s">
         <v>263</v>
       </c>
-      <c r="C20" s="714"/>
-      <c r="D20" s="725"/>
-      <c r="E20" s="725"/>
-      <c r="F20" s="718"/>
+      <c r="C20" s="573"/>
+      <c r="D20" s="584"/>
+      <c r="E20" s="584"/>
+      <c r="F20" s="577"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="308" t="s">
         <v>264</v>
       </c>
-      <c r="C21" s="712"/>
-      <c r="D21" s="720"/>
-      <c r="E21" s="720"/>
-      <c r="F21" s="717"/>
+      <c r="C21" s="571"/>
+      <c r="D21" s="579"/>
+      <c r="E21" s="579"/>
+      <c r="F21" s="576"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="308" t="s">
         <v>262</v>
       </c>
-      <c r="C22" s="712"/>
-      <c r="D22" s="720"/>
-      <c r="E22" s="720"/>
-      <c r="F22" s="717"/>
+      <c r="C22" s="571"/>
+      <c r="D22" s="579"/>
+      <c r="E22" s="579"/>
+      <c r="F22" s="576"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="739"/>
-      <c r="C23" s="738"/>
-      <c r="D23" s="737"/>
-      <c r="E23" s="736"/>
-      <c r="F23" s="718"/>
+      <c r="B23" s="598"/>
+      <c r="C23" s="597"/>
+      <c r="D23" s="596"/>
+      <c r="E23" s="595"/>
+      <c r="F23" s="577"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D26" s="294"/>
@@ -39431,10 +39414,10 @@
       <c r="D30" s="313" t="s">
         <v>255</v>
       </c>
-      <c r="E30" s="618" t="s">
+      <c r="E30" s="752" t="s">
         <v>256</v>
       </c>
-      <c r="F30" s="619"/>
+      <c r="F30" s="753"/>
     </row>
     <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="302" t="s">
@@ -39457,103 +39440,105 @@
       <c r="B32" s="307" t="s">
         <v>257</v>
       </c>
-      <c r="C32" s="711"/>
-      <c r="D32" s="719"/>
-      <c r="E32" s="719"/>
-      <c r="F32" s="716"/>
+      <c r="C32" s="570"/>
+      <c r="D32" s="578">
+        <v>100</v>
+      </c>
+      <c r="E32" s="578"/>
+      <c r="F32" s="575"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="308" t="s">
         <v>258</v>
       </c>
-      <c r="C33" s="712"/>
-      <c r="D33" s="720"/>
-      <c r="E33" s="720"/>
-      <c r="F33" s="717"/>
+      <c r="C33" s="571"/>
+      <c r="D33" s="579"/>
+      <c r="E33" s="579"/>
+      <c r="F33" s="576"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="727" t="s">
+      <c r="B34" s="586" t="s">
         <v>259</v>
       </c>
-      <c r="C34" s="728"/>
-      <c r="D34" s="729"/>
-      <c r="E34" s="730"/>
-      <c r="F34" s="718"/>
+      <c r="C34" s="587"/>
+      <c r="D34" s="588"/>
+      <c r="E34" s="589"/>
+      <c r="F34" s="577"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="309"/>
-      <c r="C35" s="713"/>
-      <c r="D35" s="721"/>
-      <c r="E35" s="722"/>
-      <c r="F35" s="717"/>
+      <c r="C35" s="572"/>
+      <c r="D35" s="580"/>
+      <c r="E35" s="581"/>
+      <c r="F35" s="576"/>
     </row>
     <row r="36" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="310" t="s">
         <v>260</v>
       </c>
-      <c r="C36" s="714"/>
-      <c r="D36" s="723"/>
-      <c r="E36" s="723"/>
-      <c r="F36" s="718"/>
+      <c r="C36" s="573"/>
+      <c r="D36" s="582"/>
+      <c r="E36" s="582"/>
+      <c r="F36" s="577"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="308" t="s">
         <v>261</v>
       </c>
-      <c r="C37" s="712"/>
-      <c r="D37" s="720"/>
-      <c r="E37" s="720"/>
-      <c r="F37" s="717"/>
+      <c r="C37" s="571"/>
+      <c r="D37" s="579"/>
+      <c r="E37" s="579"/>
+      <c r="F37" s="576"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="732" t="s">
+      <c r="B38" s="591" t="s">
         <v>262</v>
       </c>
-      <c r="C38" s="733"/>
-      <c r="D38" s="729"/>
-      <c r="E38" s="729"/>
-      <c r="F38" s="718"/>
+      <c r="C38" s="592"/>
+      <c r="D38" s="588"/>
+      <c r="E38" s="588"/>
+      <c r="F38" s="577"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="311"/>
-      <c r="C39" s="715"/>
-      <c r="D39" s="724"/>
-      <c r="E39" s="724"/>
-      <c r="F39" s="717"/>
+      <c r="C39" s="574"/>
+      <c r="D39" s="583"/>
+      <c r="E39" s="583"/>
+      <c r="F39" s="576"/>
     </row>
     <row r="40" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B40" s="312" t="s">
         <v>263</v>
       </c>
-      <c r="C40" s="714"/>
-      <c r="D40" s="725"/>
-      <c r="E40" s="725"/>
-      <c r="F40" s="718"/>
+      <c r="C40" s="573"/>
+      <c r="D40" s="584"/>
+      <c r="E40" s="584"/>
+      <c r="F40" s="577"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="308" t="s">
         <v>264</v>
       </c>
-      <c r="C41" s="712"/>
-      <c r="D41" s="720"/>
-      <c r="E41" s="720"/>
-      <c r="F41" s="717"/>
+      <c r="C41" s="571"/>
+      <c r="D41" s="579"/>
+      <c r="E41" s="579"/>
+      <c r="F41" s="576"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="308" t="s">
         <v>262</v>
       </c>
-      <c r="C42" s="712"/>
-      <c r="D42" s="720"/>
-      <c r="E42" s="720"/>
-      <c r="F42" s="717"/>
+      <c r="C42" s="571"/>
+      <c r="D42" s="579"/>
+      <c r="E42" s="579"/>
+      <c r="F42" s="576"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="315"/>
-      <c r="C43" s="735"/>
-      <c r="D43" s="726"/>
-      <c r="E43" s="734"/>
-      <c r="F43" s="718"/>
+      <c r="C43" s="594"/>
+      <c r="D43" s="585"/>
+      <c r="E43" s="593"/>
+      <c r="F43" s="577"/>
     </row>
     <row r="46" spans="2:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B46" s="295" t="s">
@@ -39580,10 +39565,10 @@
       <c r="D49" s="313" t="s">
         <v>255</v>
       </c>
-      <c r="E49" s="618" t="s">
+      <c r="E49" s="752" t="s">
         <v>256</v>
       </c>
-      <c r="F49" s="619"/>
+      <c r="F49" s="753"/>
     </row>
     <row r="50" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="302" t="s">
@@ -39606,103 +39591,105 @@
       <c r="B51" s="307" t="s">
         <v>257</v>
       </c>
-      <c r="C51" s="711"/>
-      <c r="D51" s="719"/>
-      <c r="E51" s="719"/>
-      <c r="F51" s="716"/>
+      <c r="C51" s="570"/>
+      <c r="D51" s="578">
+        <v>100</v>
+      </c>
+      <c r="E51" s="578"/>
+      <c r="F51" s="575"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="308" t="s">
         <v>258</v>
       </c>
-      <c r="C52" s="712"/>
-      <c r="D52" s="720"/>
-      <c r="E52" s="720"/>
-      <c r="F52" s="717"/>
+      <c r="C52" s="571"/>
+      <c r="D52" s="579"/>
+      <c r="E52" s="579"/>
+      <c r="F52" s="576"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="727" t="s">
+      <c r="B53" s="586" t="s">
         <v>259</v>
       </c>
-      <c r="C53" s="728"/>
-      <c r="D53" s="729"/>
-      <c r="E53" s="730"/>
-      <c r="F53" s="718"/>
+      <c r="C53" s="587"/>
+      <c r="D53" s="588"/>
+      <c r="E53" s="589"/>
+      <c r="F53" s="577"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="309"/>
-      <c r="C54" s="713"/>
-      <c r="D54" s="721"/>
-      <c r="E54" s="722"/>
-      <c r="F54" s="717"/>
+      <c r="C54" s="572"/>
+      <c r="D54" s="580"/>
+      <c r="E54" s="581"/>
+      <c r="F54" s="576"/>
     </row>
     <row r="55" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="310" t="s">
         <v>260</v>
       </c>
-      <c r="C55" s="714"/>
-      <c r="D55" s="723"/>
-      <c r="E55" s="723"/>
-      <c r="F55" s="718"/>
+      <c r="C55" s="573"/>
+      <c r="D55" s="582"/>
+      <c r="E55" s="582"/>
+      <c r="F55" s="577"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="308" t="s">
         <v>261</v>
       </c>
-      <c r="C56" s="712"/>
-      <c r="D56" s="720"/>
-      <c r="E56" s="720"/>
-      <c r="F56" s="717"/>
+      <c r="C56" s="571"/>
+      <c r="D56" s="579"/>
+      <c r="E56" s="579"/>
+      <c r="F56" s="576"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="727" t="s">
+      <c r="B57" s="586" t="s">
         <v>262</v>
       </c>
-      <c r="C57" s="731"/>
-      <c r="D57" s="729"/>
-      <c r="E57" s="729"/>
-      <c r="F57" s="718"/>
+      <c r="C57" s="590"/>
+      <c r="D57" s="588"/>
+      <c r="E57" s="588"/>
+      <c r="F57" s="577"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="311"/>
-      <c r="C58" s="715"/>
-      <c r="D58" s="724"/>
-      <c r="E58" s="724"/>
-      <c r="F58" s="717"/>
+      <c r="C58" s="574"/>
+      <c r="D58" s="583"/>
+      <c r="E58" s="583"/>
+      <c r="F58" s="576"/>
     </row>
     <row r="59" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B59" s="312" t="s">
         <v>263</v>
       </c>
-      <c r="C59" s="714"/>
-      <c r="D59" s="725"/>
-      <c r="E59" s="725"/>
-      <c r="F59" s="718"/>
+      <c r="C59" s="573"/>
+      <c r="D59" s="584"/>
+      <c r="E59" s="584"/>
+      <c r="F59" s="577"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="308" t="s">
         <v>264</v>
       </c>
-      <c r="C60" s="712"/>
-      <c r="D60" s="720"/>
-      <c r="E60" s="720"/>
-      <c r="F60" s="717"/>
+      <c r="C60" s="571"/>
+      <c r="D60" s="579"/>
+      <c r="E60" s="579"/>
+      <c r="F60" s="576"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="308" t="s">
         <v>262</v>
       </c>
-      <c r="C61" s="712"/>
-      <c r="D61" s="720"/>
-      <c r="E61" s="720"/>
-      <c r="F61" s="717"/>
+      <c r="C61" s="571"/>
+      <c r="D61" s="579"/>
+      <c r="E61" s="579"/>
+      <c r="F61" s="576"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="315"/>
-      <c r="C62" s="735"/>
-      <c r="D62" s="740"/>
-      <c r="E62" s="736"/>
-      <c r="F62" s="718"/>
+      <c r="C62" s="594"/>
+      <c r="D62" s="599"/>
+      <c r="E62" s="595"/>
+      <c r="F62" s="577"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -39749,8 +39736,8 @@
       </c>
       <c r="C2" s="209"/>
       <c r="D2" s="209"/>
-      <c r="E2" s="615"/>
-      <c r="F2" s="615"/>
+      <c r="E2" s="742"/>
+      <c r="F2" s="742"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="208"/>
@@ -39782,13 +39769,13 @@
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="206"/>
-      <c r="B6" s="616" t="s">
+      <c r="B6" s="743" t="s">
         <v>268</v>
       </c>
-      <c r="C6" s="616"/>
-      <c r="D6" s="616"/>
-      <c r="E6" s="616"/>
-      <c r="F6" s="616"/>
+      <c r="C6" s="743"/>
+      <c r="D6" s="743"/>
+      <c r="E6" s="743"/>
+      <c r="F6" s="743"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="206"/>
@@ -39800,27 +39787,27 @@
     </row>
     <row r="8" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="206"/>
-      <c r="B8" s="748" t="s">
+      <c r="B8" s="606" t="s">
         <v>221</v>
       </c>
-      <c r="C8" s="745" t="s">
+      <c r="C8" s="754" t="s">
         <v>222</v>
       </c>
-      <c r="D8" s="621"/>
-      <c r="E8" s="620" t="s">
+      <c r="D8" s="755"/>
+      <c r="E8" s="756" t="s">
         <v>223</v>
       </c>
-      <c r="F8" s="621"/>
+      <c r="F8" s="755"/>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="206"/>
-      <c r="B9" s="749" t="s">
+      <c r="B9" s="607" t="s">
         <v>214</v>
       </c>
-      <c r="C9" s="746" t="s">
+      <c r="C9" s="604" t="s">
         <v>224</v>
       </c>
-      <c r="D9" s="747" t="s">
+      <c r="D9" s="605" t="s">
         <v>226</v>
       </c>
       <c r="E9" s="317" t="s">
@@ -39832,55 +39819,55 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="319"/>
-      <c r="B10" s="754" t="s">
+      <c r="B10" s="612" t="s">
         <v>269</v>
       </c>
       <c r="C10" s="320"/>
-      <c r="D10" s="762"/>
+      <c r="D10" s="620"/>
       <c r="E10" s="320"/>
-      <c r="F10" s="768"/>
+      <c r="F10" s="626"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="319"/>
-      <c r="B11" s="755" t="s">
+      <c r="B11" s="613" t="s">
         <v>270</v>
       </c>
       <c r="C11" s="324"/>
-      <c r="D11" s="763"/>
-      <c r="E11" s="742"/>
-      <c r="F11" s="769"/>
+      <c r="D11" s="621"/>
+      <c r="E11" s="601"/>
+      <c r="F11" s="627"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="322"/>
-      <c r="B12" s="750" t="s">
+      <c r="B12" s="608" t="s">
         <v>258</v>
       </c>
-      <c r="C12" s="744"/>
-      <c r="D12" s="743"/>
-      <c r="E12" s="744"/>
-      <c r="F12" s="743"/>
+      <c r="C12" s="603"/>
+      <c r="D12" s="602"/>
+      <c r="E12" s="603"/>
+      <c r="F12" s="602"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="322"/>
       <c r="B13" s="238"/>
-      <c r="C13" s="756"/>
-      <c r="D13" s="764"/>
+      <c r="C13" s="614"/>
+      <c r="D13" s="622"/>
       <c r="E13" s="327"/>
-      <c r="F13" s="741"/>
+      <c r="F13" s="600"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="319"/>
       <c r="B14" s="326" t="s">
         <v>271</v>
       </c>
-      <c r="C14" s="757"/>
-      <c r="D14" s="765"/>
-      <c r="E14" s="760"/>
-      <c r="F14" s="770"/>
+      <c r="C14" s="615"/>
+      <c r="D14" s="623"/>
+      <c r="E14" s="618"/>
+      <c r="F14" s="628"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="322"/>
-      <c r="B15" s="751" t="s">
+      <c r="B15" s="609" t="s">
         <v>264</v>
       </c>
       <c r="C15" s="321"/>
@@ -39890,35 +39877,35 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="322"/>
-      <c r="B16" s="750" t="s">
+      <c r="B16" s="608" t="s">
         <v>262</v>
       </c>
-      <c r="C16" s="744"/>
-      <c r="D16" s="743"/>
-      <c r="E16" s="744"/>
-      <c r="F16" s="743"/>
+      <c r="C16" s="603"/>
+      <c r="D16" s="602"/>
+      <c r="E16" s="603"/>
+      <c r="F16" s="602"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="322"/>
       <c r="B17" s="329"/>
-      <c r="C17" s="758"/>
-      <c r="D17" s="766"/>
-      <c r="E17" s="758"/>
-      <c r="F17" s="771"/>
+      <c r="C17" s="616"/>
+      <c r="D17" s="624"/>
+      <c r="E17" s="616"/>
+      <c r="F17" s="629"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="319"/>
       <c r="B18" s="326" t="s">
         <v>272</v>
       </c>
-      <c r="C18" s="757"/>
-      <c r="D18" s="765"/>
-      <c r="E18" s="760"/>
-      <c r="F18" s="770"/>
+      <c r="C18" s="615"/>
+      <c r="D18" s="623"/>
+      <c r="E18" s="618"/>
+      <c r="F18" s="628"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="322"/>
-      <c r="B19" s="751" t="s">
+      <c r="B19" s="609" t="s">
         <v>264</v>
       </c>
       <c r="C19" s="321"/>
@@ -39928,7 +39915,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="322"/>
-      <c r="B20" s="752" t="s">
+      <c r="B20" s="610" t="s">
         <v>262</v>
       </c>
       <c r="C20" s="327"/>
@@ -39938,19 +39925,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="322"/>
-      <c r="B21" s="753"/>
-      <c r="C21" s="759"/>
-      <c r="D21" s="767"/>
-      <c r="E21" s="761"/>
-      <c r="F21" s="772"/>
+      <c r="B21" s="611"/>
+      <c r="C21" s="617"/>
+      <c r="D21" s="625"/>
+      <c r="E21" s="619"/>
+      <c r="F21" s="630"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="206"/>
-      <c r="B22" s="610"/>
-      <c r="C22" s="610"/>
-      <c r="D22" s="610"/>
-      <c r="E22" s="610"/>
-      <c r="F22" s="610"/>
+      <c r="B22" s="748"/>
+      <c r="C22" s="748"/>
+      <c r="D22" s="748"/>
+      <c r="E22" s="748"/>
+      <c r="F22" s="748"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="206"/>
@@ -40013,13 +40000,13 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.25">
-      <c r="B2" s="622" t="s">
+      <c r="B2" s="757" t="s">
         <v>275</v>
       </c>
-      <c r="C2" s="623" t="s">
+      <c r="C2" s="758" t="s">
         <v>276</v>
       </c>
-      <c r="D2" s="623" t="s">
+      <c r="D2" s="758" t="s">
         <v>154</v>
       </c>
       <c r="E2" s="330" t="s">
@@ -40054,9 +40041,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="622"/>
-      <c r="C3" s="624"/>
-      <c r="D3" s="624"/>
+      <c r="B3" s="757"/>
+      <c r="C3" s="759"/>
+      <c r="D3" s="759"/>
       <c r="E3" s="332" t="s">
         <v>285</v>
       </c>
@@ -40089,7 +40076,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="625" t="s">
+      <c r="B4" s="760" t="s">
         <v>288</v>
       </c>
       <c r="C4" s="334" t="s">
@@ -40108,7 +40095,7 @@
       <c r="N4" s="336"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="625"/>
+      <c r="B5" s="760"/>
       <c r="C5" s="334" t="s">
         <v>62</v>
       </c>
@@ -40125,7 +40112,7 @@
       <c r="N5" s="336"/>
     </row>
     <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="626"/>
+      <c r="B6" s="761"/>
       <c r="C6" s="337" t="s">
         <v>278</v>
       </c>
@@ -40186,16 +40173,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="627" t="s">
+      <c r="A1" s="762" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="628"/>
-      <c r="C1" s="629"/>
-      <c r="D1" s="630" t="s">
+      <c r="B1" s="763"/>
+      <c r="C1" s="764"/>
+      <c r="D1" s="765" t="s">
         <v>290</v>
       </c>
-      <c r="E1" s="630"/>
-      <c r="F1" s="631"/>
+      <c r="E1" s="765"/>
+      <c r="F1" s="766"/>
       <c r="G1" s="347" t="s">
         <v>291</v>
       </c>
@@ -40203,7 +40190,7 @@
       <c r="I1" s="417"/>
       <c r="J1" s="417"/>
       <c r="K1" s="348"/>
-      <c r="L1" s="632" t="s">
+      <c r="L1" s="767" t="s">
         <v>292</v>
       </c>
     </row>
@@ -40241,7 +40228,7 @@
       <c r="K2" s="357" t="s">
         <v>296</v>
       </c>
-      <c r="L2" s="633"/>
+      <c r="L2" s="768"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="358"/>
@@ -40249,46 +40236,46 @@
       <c r="C3" s="360" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="634" t="s">
+      <c r="D3" s="769" t="s">
         <v>297</v>
       </c>
-      <c r="E3" s="635"/>
-      <c r="F3" s="636"/>
-      <c r="G3" s="637" t="s">
+      <c r="E3" s="770"/>
+      <c r="F3" s="771"/>
+      <c r="G3" s="772" t="s">
         <v>297</v>
       </c>
-      <c r="H3" s="638"/>
-      <c r="I3" s="638"/>
-      <c r="J3" s="638"/>
-      <c r="K3" s="639"/>
-      <c r="L3" s="633"/>
+      <c r="H3" s="773"/>
+      <c r="I3" s="773"/>
+      <c r="J3" s="773"/>
+      <c r="K3" s="774"/>
+      <c r="L3" s="768"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="418"/>
       <c r="B4" s="419"/>
       <c r="C4" s="420"/>
-      <c r="D4" s="773"/>
-      <c r="E4" s="775"/>
-      <c r="F4" s="775"/>
-      <c r="G4" s="775"/>
-      <c r="H4" s="775"/>
-      <c r="I4" s="775"/>
-      <c r="J4" s="775"/>
-      <c r="K4" s="775"/>
+      <c r="D4" s="631"/>
+      <c r="E4" s="633"/>
+      <c r="F4" s="633"/>
+      <c r="G4" s="633"/>
+      <c r="H4" s="633"/>
+      <c r="I4" s="633"/>
+      <c r="J4" s="633"/>
+      <c r="K4" s="633"/>
       <c r="L4" s="421"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="422"/>
       <c r="B5" s="423"/>
       <c r="C5" s="424"/>
-      <c r="D5" s="774"/>
-      <c r="E5" s="776"/>
-      <c r="F5" s="774"/>
-      <c r="G5" s="776"/>
-      <c r="H5" s="776"/>
-      <c r="I5" s="776"/>
-      <c r="J5" s="776"/>
-      <c r="K5" s="776"/>
+      <c r="D5" s="632"/>
+      <c r="E5" s="634"/>
+      <c r="F5" s="632"/>
+      <c r="G5" s="634"/>
+      <c r="H5" s="634"/>
+      <c r="I5" s="634"/>
+      <c r="J5" s="634"/>
+      <c r="K5" s="634"/>
       <c r="L5" s="425"/>
     </row>
   </sheetData>
@@ -40314,23 +40301,23 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:29" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="562" t="s">
+      <c r="A1" s="667" t="s">
         <v>298</v>
       </c>
-      <c r="B1" s="563"/>
-      <c r="C1" s="563"/>
-      <c r="D1" s="563"/>
+      <c r="B1" s="668"/>
+      <c r="C1" s="668"/>
+      <c r="D1" s="668"/>
       <c r="E1" s="361"/>
-      <c r="F1" s="645" t="s">
+      <c r="F1" s="780" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="646"/>
-      <c r="H1" s="646"/>
+      <c r="G1" s="781"/>
+      <c r="H1" s="781"/>
       <c r="I1" s="362"/>
       <c r="J1" s="363"/>
       <c r="K1" s="362"/>
       <c r="L1" s="364"/>
-      <c r="M1" s="640" t="s">
+      <c r="M1" s="775" t="s">
         <v>299</v>
       </c>
       <c r="N1" s="365"/>
@@ -40342,19 +40329,19 @@
       <c r="R1" s="363"/>
       <c r="S1" s="362"/>
       <c r="T1" s="364"/>
-      <c r="U1" s="640" t="s">
+      <c r="U1" s="775" t="s">
         <v>301</v>
       </c>
       <c r="V1" s="365"/>
-      <c r="W1" s="647" t="s">
+      <c r="W1" s="782" t="s">
         <v>302</v>
       </c>
-      <c r="X1" s="647"/>
-      <c r="Y1" s="647"/>
-      <c r="Z1" s="647"/>
-      <c r="AA1" s="647"/>
-      <c r="AB1" s="648"/>
-      <c r="AC1" s="640" t="s">
+      <c r="X1" s="782"/>
+      <c r="Y1" s="782"/>
+      <c r="Z1" s="782"/>
+      <c r="AA1" s="782"/>
+      <c r="AB1" s="783"/>
+      <c r="AC1" s="775" t="s">
         <v>303</v>
       </c>
     </row>
@@ -40368,52 +40355,52 @@
       <c r="C2" s="367" t="s">
         <v>305</v>
       </c>
-      <c r="D2" s="642" t="s">
+      <c r="D2" s="777" t="s">
         <v>306</v>
       </c>
-      <c r="E2" s="642"/>
+      <c r="E2" s="777"/>
       <c r="F2" s="368"/>
-      <c r="G2" s="643" t="s">
+      <c r="G2" s="778" t="s">
         <v>164</v>
       </c>
-      <c r="H2" s="643"/>
-      <c r="I2" s="643" t="s">
+      <c r="H2" s="778"/>
+      <c r="I2" s="778" t="s">
         <v>165</v>
       </c>
-      <c r="J2" s="643"/>
-      <c r="K2" s="643" t="s">
+      <c r="J2" s="778"/>
+      <c r="K2" s="778" t="s">
         <v>166</v>
       </c>
-      <c r="L2" s="644"/>
-      <c r="M2" s="641"/>
+      <c r="L2" s="779"/>
+      <c r="M2" s="776"/>
       <c r="N2" s="369"/>
-      <c r="O2" s="643" t="s">
+      <c r="O2" s="778" t="s">
         <v>164</v>
       </c>
-      <c r="P2" s="643"/>
-      <c r="Q2" s="643" t="s">
+      <c r="P2" s="778"/>
+      <c r="Q2" s="778" t="s">
         <v>165</v>
       </c>
-      <c r="R2" s="643"/>
-      <c r="S2" s="643" t="s">
+      <c r="R2" s="778"/>
+      <c r="S2" s="778" t="s">
         <v>166</v>
       </c>
-      <c r="T2" s="644"/>
-      <c r="U2" s="641"/>
+      <c r="T2" s="779"/>
+      <c r="U2" s="776"/>
       <c r="V2" s="369"/>
-      <c r="W2" s="643" t="s">
+      <c r="W2" s="778" t="s">
         <v>164</v>
       </c>
-      <c r="X2" s="643"/>
-      <c r="Y2" s="643" t="s">
+      <c r="X2" s="778"/>
+      <c r="Y2" s="778" t="s">
         <v>165</v>
       </c>
-      <c r="Z2" s="643"/>
-      <c r="AA2" s="643" t="s">
+      <c r="Z2" s="778"/>
+      <c r="AA2" s="778" t="s">
         <v>166</v>
       </c>
-      <c r="AB2" s="644"/>
-      <c r="AC2" s="641"/>
+      <c r="AB2" s="779"/>
+      <c r="AC2" s="776"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
@@ -40509,7 +40496,7 @@
       <c r="B4" s="484"/>
       <c r="C4" s="484"/>
       <c r="D4" s="484"/>
-      <c r="E4" s="683"/>
+      <c r="E4" s="542"/>
       <c r="F4" s="484"/>
       <c r="G4" s="484"/>
       <c r="H4" s="484"/>
@@ -40517,7 +40504,7 @@
       <c r="J4" s="484"/>
       <c r="K4" s="484"/>
       <c r="L4" s="484"/>
-      <c r="M4" s="683"/>
+      <c r="M4" s="542"/>
       <c r="N4" s="484"/>
       <c r="O4" s="484"/>
       <c r="P4" s="484"/>
@@ -40525,7 +40512,7 @@
       <c r="R4" s="484"/>
       <c r="S4" s="484"/>
       <c r="T4" s="484"/>
-      <c r="U4" s="683"/>
+      <c r="U4" s="542"/>
       <c r="V4" s="484"/>
       <c r="W4" s="484"/>
       <c r="X4" s="484"/>
@@ -40533,10 +40520,10 @@
       <c r="Z4" s="484"/>
       <c r="AA4" s="484"/>
       <c r="AB4" s="484"/>
-      <c r="AC4" s="683"/>
+      <c r="AC4" s="542"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E5" s="683"/>
+      <c r="E5" s="542"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/uwwtd website/sites/all/modules/uwwtd/model/2015_register_model_20160208_1.xlsx
+++ b/uwwtd website/sites/all/modules/uwwtd/model/2015_register_model_20160208_1.xlsx
@@ -2406,7 +2406,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2639,6 +2639,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3565,7 +3577,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="805">
+  <cellXfs count="808">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4969,9 +4981,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="71" fillId="31" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="71" fillId="31" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="71" fillId="31" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5169,48 +5178,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="7" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="7" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
@@ -5245,6 +5212,9 @@
     <xf numFmtId="3" fontId="11" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5293,17 +5263,122 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="7" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="7" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="12" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="32" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="32" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="32" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="32" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="19" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5317,107 +5392,41 @@
     <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="19" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="12" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="64" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5514,6 +5523,31 @@
     <xf numFmtId="3" fontId="12" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="69" fillId="32" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="69" fillId="39" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5550,31 +5584,12 @@
     <xf numFmtId="0" fontId="0" fillId="38" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="69" fillId="32" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="69" fillId="39" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="71" fillId="40" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="41" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="71" fillId="40" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="41" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Hyperlink 2" xfId="10"/>
@@ -5764,7 +5779,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5955,11 +5969,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="311477744"/>
-        <c:axId val="311478304"/>
+        <c:axId val="214729040"/>
+        <c:axId val="211888336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="311477744"/>
+        <c:axId val="214729040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5991,7 +6005,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6058,7 +6071,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311478304"/>
+        <c:crossAx val="211888336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6066,7 +6079,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="311478304"/>
+        <c:axId val="211888336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6185,7 +6198,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311477744"/>
+        <c:crossAx val="214729040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6571,11 +6584,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="312973344"/>
-        <c:axId val="312973904"/>
+        <c:axId val="256190256"/>
+        <c:axId val="256190816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="312973344"/>
+        <c:axId val="256190256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6673,7 +6686,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312973904"/>
+        <c:crossAx val="256190816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6681,7 +6694,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312973904"/>
+        <c:axId val="256190816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6801,7 +6814,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312973344"/>
+        <c:crossAx val="256190256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7685,11 +7698,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="313333792"/>
-        <c:axId val="313334352"/>
+        <c:axId val="257247568"/>
+        <c:axId val="257248128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="313333792"/>
+        <c:axId val="257247568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7792,7 +7805,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313334352"/>
+        <c:crossAx val="257248128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7800,7 +7813,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="313334352"/>
+        <c:axId val="257248128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7851,7 +7864,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313333792"/>
+        <c:crossAx val="257247568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8216,11 +8229,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="313337712"/>
-        <c:axId val="313338272"/>
+        <c:axId val="257251488"/>
+        <c:axId val="257252048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="313337712"/>
+        <c:axId val="257251488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8331,7 +8344,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313338272"/>
+        <c:crossAx val="257252048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8339,7 +8352,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="313338272"/>
+        <c:axId val="257252048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8445,7 +8458,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313337712"/>
+        <c:crossAx val="257251488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8815,11 +8828,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="314034656"/>
-        <c:axId val="314035216"/>
+        <c:axId val="251968672"/>
+        <c:axId val="251969232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="314034656"/>
+        <c:axId val="251968672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8930,7 +8943,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314035216"/>
+        <c:crossAx val="251969232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8938,7 +8951,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="314035216"/>
+        <c:axId val="251969232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9052,7 +9065,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314034656"/>
+        <c:crossAx val="251968672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9187,7 +9200,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9534,11 +9546,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="314040256"/>
-        <c:axId val="314040816"/>
+        <c:axId val="209639616"/>
+        <c:axId val="209640176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="314040256"/>
+        <c:axId val="209639616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9644,7 +9656,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314040816"/>
+        <c:crossAx val="209640176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9652,7 +9664,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="314040816"/>
+        <c:axId val="209640176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9774,7 +9786,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314040256"/>
+        <c:crossAx val="209639616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10110,11 +10122,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="313858192"/>
-        <c:axId val="313858752"/>
+        <c:axId val="209643536"/>
+        <c:axId val="209644096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="313858192"/>
+        <c:axId val="209643536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10225,7 +10237,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313858752"/>
+        <c:crossAx val="209644096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10233,7 +10245,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="313858752"/>
+        <c:axId val="209644096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10347,7 +10359,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313858192"/>
+        <c:crossAx val="209643536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10683,11 +10695,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="313862112"/>
-        <c:axId val="313862672"/>
+        <c:axId val="209647456"/>
+        <c:axId val="209648016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="313862112"/>
+        <c:axId val="209647456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10798,7 +10810,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313862672"/>
+        <c:crossAx val="209648016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10806,7 +10818,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="313862672"/>
+        <c:axId val="209648016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10920,7 +10932,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313862112"/>
+        <c:crossAx val="209647456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11301,11 +11313,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="314377376"/>
-        <c:axId val="314377936"/>
+        <c:axId val="209651376"/>
+        <c:axId val="209651936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="314377376"/>
+        <c:axId val="209651376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11403,7 +11415,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314377936"/>
+        <c:crossAx val="209651936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11411,7 +11423,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="314377936"/>
+        <c:axId val="209651936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11530,7 +11542,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314377376"/>
+        <c:crossAx val="209651376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11855,11 +11867,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="312580832"/>
-        <c:axId val="312581392"/>
+        <c:axId val="211891696"/>
+        <c:axId val="211892256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="312580832"/>
+        <c:axId val="211891696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11957,7 +11969,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312581392"/>
+        <c:crossAx val="211892256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11965,7 +11977,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312581392"/>
+        <c:axId val="211892256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12084,7 +12096,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312580832"/>
+        <c:crossAx val="211891696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12214,7 +12226,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12445,9 +12456,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -13005,11 +13014,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="310747904"/>
-        <c:axId val="310748464"/>
+        <c:axId val="256230096"/>
+        <c:axId val="256230656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="310747904"/>
+        <c:axId val="256230096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13107,7 +13116,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310748464"/>
+        <c:crossAx val="256230656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13115,7 +13124,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="310748464"/>
+        <c:axId val="256230656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13221,7 +13230,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310747904"/>
+        <c:crossAx val="256230096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13665,11 +13674,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="312551360"/>
-        <c:axId val="312551920"/>
+        <c:axId val="251516896"/>
+        <c:axId val="251517456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="312551360"/>
+        <c:axId val="251516896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13767,7 +13776,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312551920"/>
+        <c:crossAx val="251517456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13775,7 +13784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312551920"/>
+        <c:axId val="251517456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13894,7 +13903,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312551360"/>
+        <c:crossAx val="251516896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14333,11 +14342,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="312762016"/>
-        <c:axId val="312762576"/>
+        <c:axId val="251521376"/>
+        <c:axId val="251521936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="312762016"/>
+        <c:axId val="251521376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14435,7 +14444,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312762576"/>
+        <c:crossAx val="251521936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14443,7 +14452,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312762576"/>
+        <c:axId val="251521936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14562,7 +14571,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312762016"/>
+        <c:crossAx val="251521376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15105,11 +15114,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="312768160"/>
-        <c:axId val="312768720"/>
+        <c:axId val="252277872"/>
+        <c:axId val="252278432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="312768160"/>
+        <c:axId val="252277872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15152,7 +15161,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312768720"/>
+        <c:crossAx val="252278432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15160,7 +15169,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312768720"/>
+        <c:axId val="252278432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15271,7 +15280,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312768160"/>
+        <c:crossAx val="252277872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15801,11 +15810,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="312944176"/>
-        <c:axId val="312944736"/>
+        <c:axId val="252281792"/>
+        <c:axId val="252282352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="312944176"/>
+        <c:axId val="252281792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15848,7 +15857,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312944736"/>
+        <c:crossAx val="252282352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15856,7 +15865,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312944736"/>
+        <c:axId val="252282352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15975,7 +15984,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312944176"/>
+        <c:crossAx val="252281792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16315,11 +16324,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="313307360"/>
-        <c:axId val="313307920"/>
+        <c:axId val="256186336"/>
+        <c:axId val="256186896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="313307360"/>
+        <c:axId val="256186336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16414,7 +16423,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313307920"/>
+        <c:crossAx val="256186896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16422,7 +16431,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="313307920"/>
+        <c:axId val="256186896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -16542,7 +16551,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313307360"/>
+        <c:crossAx val="256186336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -27443,54 +27452,54 @@
       <c r="AR3" s="5"/>
     </row>
     <row r="4" spans="1:44" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="663" t="s">
+      <c r="A4" s="662" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="664"/>
-      <c r="C4" s="664"/>
-      <c r="D4" s="664"/>
-      <c r="E4" s="665"/>
-      <c r="F4" s="665"/>
-      <c r="G4" s="665"/>
-      <c r="H4" s="665"/>
-      <c r="I4" s="665"/>
-      <c r="J4" s="665"/>
-      <c r="K4" s="665"/>
-      <c r="L4" s="665"/>
-      <c r="M4" s="665"/>
-      <c r="N4" s="665"/>
-      <c r="O4" s="665"/>
-      <c r="P4" s="665"/>
-      <c r="Q4" s="665"/>
-      <c r="R4" s="665"/>
-      <c r="S4" s="665"/>
-      <c r="T4" s="665"/>
-      <c r="U4" s="665"/>
-      <c r="V4" s="665"/>
-      <c r="W4" s="665"/>
-      <c r="X4" s="665"/>
-      <c r="Y4" s="665"/>
-      <c r="Z4" s="665"/>
-      <c r="AA4" s="665"/>
-      <c r="AB4" s="665"/>
-      <c r="AC4" s="665"/>
-      <c r="AD4" s="665"/>
-      <c r="AE4" s="665"/>
-      <c r="AF4" s="665"/>
-      <c r="AG4" s="665"/>
-      <c r="AH4" s="665"/>
-      <c r="AI4" s="665"/>
-      <c r="AJ4" s="665"/>
-      <c r="AK4" s="665"/>
-      <c r="AL4" s="665"/>
-      <c r="AM4" s="665"/>
-      <c r="AN4" s="665"/>
-      <c r="AO4" s="665"/>
-      <c r="AP4" s="665"/>
-      <c r="AQ4" s="666" t="s">
+      <c r="B4" s="663"/>
+      <c r="C4" s="663"/>
+      <c r="D4" s="663"/>
+      <c r="E4" s="664"/>
+      <c r="F4" s="664"/>
+      <c r="G4" s="664"/>
+      <c r="H4" s="664"/>
+      <c r="I4" s="664"/>
+      <c r="J4" s="664"/>
+      <c r="K4" s="664"/>
+      <c r="L4" s="664"/>
+      <c r="M4" s="664"/>
+      <c r="N4" s="664"/>
+      <c r="O4" s="664"/>
+      <c r="P4" s="664"/>
+      <c r="Q4" s="664"/>
+      <c r="R4" s="664"/>
+      <c r="S4" s="664"/>
+      <c r="T4" s="664"/>
+      <c r="U4" s="664"/>
+      <c r="V4" s="664"/>
+      <c r="W4" s="664"/>
+      <c r="X4" s="664"/>
+      <c r="Y4" s="664"/>
+      <c r="Z4" s="664"/>
+      <c r="AA4" s="664"/>
+      <c r="AB4" s="664"/>
+      <c r="AC4" s="664"/>
+      <c r="AD4" s="664"/>
+      <c r="AE4" s="664"/>
+      <c r="AF4" s="664"/>
+      <c r="AG4" s="664"/>
+      <c r="AH4" s="664"/>
+      <c r="AI4" s="664"/>
+      <c r="AJ4" s="664"/>
+      <c r="AK4" s="664"/>
+      <c r="AL4" s="664"/>
+      <c r="AM4" s="664"/>
+      <c r="AN4" s="664"/>
+      <c r="AO4" s="664"/>
+      <c r="AP4" s="664"/>
+      <c r="AQ4" s="665" t="s">
         <v>3</v>
       </c>
-      <c r="AR4" s="666"/>
+      <c r="AR4" s="665"/>
     </row>
     <row r="5" spans="1:44" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="414" t="s">
@@ -27786,7 +27795,7 @@
       <c r="B21" s="395" t="s">
         <v>326</v>
       </c>
-      <c r="C21" s="636"/>
+      <c r="C21" s="635"/>
     </row>
     <row r="22" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A22" s="394" t="s">
@@ -27795,7 +27804,7 @@
       <c r="B22" s="395" t="s">
         <v>328</v>
       </c>
-      <c r="C22" s="635"/>
+      <c r="C22" s="634"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="383" t="s">
@@ -27864,20 +27873,20 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="790" t="s">
+      <c r="A3" s="798" t="s">
         <v>347</v>
       </c>
-      <c r="B3" s="792" t="s">
+      <c r="B3" s="800" t="s">
         <v>348</v>
       </c>
-      <c r="C3" s="793"/>
-      <c r="D3" s="788" t="s">
+      <c r="C3" s="801"/>
+      <c r="D3" s="796" t="s">
         <v>357</v>
       </c>
-      <c r="E3" s="789"/>
+      <c r="E3" s="797"/>
     </row>
     <row r="4" spans="1:28" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="791"/>
+      <c r="A4" s="799"/>
       <c r="B4" s="427" t="s">
         <v>224</v>
       </c>
@@ -28000,7 +28009,7 @@
       </c>
     </row>
     <row r="13" spans="1:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="790" t="s">
+      <c r="A13" s="798" t="s">
         <v>351</v>
       </c>
       <c r="B13" s="426" t="s">
@@ -28023,7 +28032,7 @@
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="791"/>
+      <c r="A14" s="799"/>
       <c r="B14" s="429" t="s">
         <v>352</v>
       </c>
@@ -28082,14 +28091,14 @@
       <c r="A22" s="431" t="s">
         <v>311</v>
       </c>
-      <c r="B22" s="794" t="s">
+      <c r="B22" s="802" t="s">
         <v>348</v>
       </c>
-      <c r="C22" s="795"/>
-      <c r="D22" s="794" t="s">
+      <c r="C22" s="803"/>
+      <c r="D22" s="802" t="s">
         <v>462</v>
       </c>
-      <c r="E22" s="795"/>
+      <c r="E22" s="803"/>
     </row>
     <row r="23" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="432"/>
@@ -28123,9 +28132,9 @@
         <v>314</v>
       </c>
       <c r="B24" s="504"/>
-      <c r="C24" s="658"/>
+      <c r="C24" s="657"/>
       <c r="D24" s="435"/>
-      <c r="E24" s="641"/>
+      <c r="E24" s="640"/>
       <c r="Z24" t="str">
         <f t="shared" ref="Z24:Z29" si="1">A25</f>
         <v xml:space="preserve">re-used: Soil and agriculture </v>
@@ -28148,9 +28157,9 @@
         <v>359</v>
       </c>
       <c r="B25" s="515"/>
-      <c r="C25" s="659"/>
+      <c r="C25" s="658"/>
       <c r="D25" s="435"/>
-      <c r="E25" s="641"/>
+      <c r="E25" s="640"/>
       <c r="Z25" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">re-used: Others </v>
@@ -28173,9 +28182,9 @@
         <v>360</v>
       </c>
       <c r="B26" s="506"/>
-      <c r="C26" s="660"/>
+      <c r="C26" s="659"/>
       <c r="D26" s="435"/>
-      <c r="E26" s="641"/>
+      <c r="E26" s="640"/>
       <c r="Z26" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">disposed: Landfill </v>
@@ -28198,9 +28207,9 @@
         <v>454</v>
       </c>
       <c r="B27" s="506"/>
-      <c r="C27" s="660"/>
+      <c r="C27" s="659"/>
       <c r="D27" s="435"/>
-      <c r="E27" s="641"/>
+      <c r="E27" s="640"/>
       <c r="Z27" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">disposed: Incineration </v>
@@ -28223,9 +28232,9 @@
         <v>361</v>
       </c>
       <c r="B28" s="506"/>
-      <c r="C28" s="660"/>
+      <c r="C28" s="659"/>
       <c r="D28" s="435"/>
-      <c r="E28" s="641"/>
+      <c r="E28" s="640"/>
       <c r="Z28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">disposed: Others </v>
@@ -28248,9 +28257,9 @@
         <v>362</v>
       </c>
       <c r="B29" s="506"/>
-      <c r="C29" s="660"/>
+      <c r="C29" s="659"/>
       <c r="D29" s="435"/>
-      <c r="E29" s="641"/>
+      <c r="E29" s="640"/>
       <c r="Z29" t="str">
         <f t="shared" si="1"/>
         <v>Other</v>
@@ -28273,9 +28282,9 @@
         <v>461</v>
       </c>
       <c r="B30" s="506"/>
-      <c r="C30" s="660"/>
+      <c r="C30" s="659"/>
       <c r="D30" s="435"/>
-      <c r="E30" s="641"/>
+      <c r="E30" s="640"/>
     </row>
     <row r="35" spans="1:32" ht="33" x14ac:dyDescent="0.35">
       <c r="A35" s="436" t="s">
@@ -28298,8 +28307,8 @@
       <c r="B36" s="439" t="s">
         <v>326</v>
       </c>
-      <c r="C36" s="637"/>
-      <c r="D36" s="637"/>
+      <c r="C36" s="636"/>
+      <c r="D36" s="636"/>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="438" t="s">
@@ -28308,21 +28317,21 @@
       <c r="B37" s="439" t="s">
         <v>328</v>
       </c>
-      <c r="C37" s="657"/>
-      <c r="D37" s="657"/>
+      <c r="C37" s="656"/>
+      <c r="D37" s="656"/>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="434" t="s">
         <v>363</v>
       </c>
-      <c r="B41" s="784" t="s">
+      <c r="B41" s="792" t="s">
         <v>348</v>
       </c>
-      <c r="C41" s="785"/>
-      <c r="D41" s="786" t="s">
+      <c r="C41" s="793"/>
+      <c r="D41" s="794" t="s">
         <v>357</v>
       </c>
-      <c r="E41" s="787"/>
+      <c r="E41" s="795"/>
       <c r="AA41" t="s">
         <v>439</v>
       </c>
@@ -28994,14 +29003,14 @@
       <c r="A77" s="458" t="s">
         <v>269</v>
       </c>
-      <c r="B77" s="638"/>
-      <c r="C77" s="646"/>
-      <c r="D77" s="638"/>
-      <c r="E77" s="646"/>
+      <c r="B77" s="637"/>
+      <c r="C77" s="645"/>
+      <c r="D77" s="637"/>
+      <c r="E77" s="645"/>
       <c r="F77" s="489"/>
-      <c r="G77" s="649"/>
+      <c r="G77" s="648"/>
       <c r="H77" s="490"/>
-      <c r="I77" s="653"/>
+      <c r="I77" s="652"/>
       <c r="Z77" t="s">
         <v>269</v>
       </c>
@@ -29030,13 +29039,13 @@
         <v>258</v>
       </c>
       <c r="B78" s="491"/>
-      <c r="C78" s="647"/>
+      <c r="C78" s="646"/>
       <c r="D78" s="492"/>
-      <c r="E78" s="647"/>
+      <c r="E78" s="646"/>
       <c r="F78" s="491"/>
-      <c r="G78" s="650"/>
+      <c r="G78" s="649"/>
       <c r="H78" s="492"/>
-      <c r="I78" s="654"/>
+      <c r="I78" s="653"/>
       <c r="Z78" s="238" t="s">
         <v>258</v>
       </c>
@@ -29065,13 +29074,13 @@
         <v>386</v>
       </c>
       <c r="B79" s="491"/>
-      <c r="C79" s="647"/>
+      <c r="C79" s="646"/>
       <c r="D79" s="492"/>
-      <c r="E79" s="647"/>
+      <c r="E79" s="646"/>
       <c r="F79" s="491"/>
-      <c r="G79" s="650"/>
+      <c r="G79" s="649"/>
       <c r="H79" s="492"/>
-      <c r="I79" s="654"/>
+      <c r="I79" s="653"/>
       <c r="Z79" s="238" t="s">
         <v>386</v>
       </c>
@@ -29100,13 +29109,13 @@
         <v>387</v>
       </c>
       <c r="B80" s="491"/>
-      <c r="C80" s="647"/>
+      <c r="C80" s="646"/>
       <c r="D80" s="492"/>
-      <c r="E80" s="647"/>
+      <c r="E80" s="646"/>
       <c r="F80" s="491"/>
-      <c r="G80" s="650"/>
+      <c r="G80" s="649"/>
       <c r="H80" s="492"/>
-      <c r="I80" s="654"/>
+      <c r="I80" s="653"/>
       <c r="Z80" s="238" t="s">
         <v>387</v>
       </c>
@@ -29135,13 +29144,13 @@
         <v>388</v>
       </c>
       <c r="B81" s="493"/>
-      <c r="C81" s="647"/>
+      <c r="C81" s="646"/>
       <c r="D81" s="494"/>
-      <c r="E81" s="647"/>
+      <c r="E81" s="646"/>
       <c r="F81" s="493"/>
-      <c r="G81" s="651"/>
+      <c r="G81" s="650"/>
       <c r="H81" s="494"/>
-      <c r="I81" s="655"/>
+      <c r="I81" s="654"/>
       <c r="Z81" s="238" t="s">
         <v>388</v>
       </c>
@@ -29170,13 +29179,13 @@
         <v>389</v>
       </c>
       <c r="B82" s="495"/>
-      <c r="C82" s="648"/>
+      <c r="C82" s="647"/>
       <c r="D82" s="496"/>
-      <c r="E82" s="648"/>
+      <c r="E82" s="647"/>
       <c r="F82" s="495"/>
-      <c r="G82" s="652"/>
+      <c r="G82" s="651"/>
       <c r="H82" s="496"/>
-      <c r="I82" s="656"/>
+      <c r="I82" s="655"/>
       <c r="Z82" s="459" t="s">
         <v>389</v>
       </c>
@@ -29206,14 +29215,14 @@
       </c>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B85" s="798" t="s">
+      <c r="B85" s="785" t="s">
         <v>348</v>
       </c>
-      <c r="C85" s="799"/>
-      <c r="D85" s="798" t="s">
+      <c r="C85" s="786"/>
+      <c r="D85" s="785" t="s">
         <v>357</v>
       </c>
-      <c r="E85" s="799"/>
+      <c r="E85" s="786"/>
       <c r="Z85" t="s">
         <v>453</v>
       </c>
@@ -29226,14 +29235,14 @@
     </row>
     <row r="86" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="299"/>
-      <c r="B86" s="800" t="s">
+      <c r="B86" s="787" t="s">
         <v>256</v>
       </c>
-      <c r="C86" s="753"/>
-      <c r="D86" s="800" t="s">
+      <c r="C86" s="752"/>
+      <c r="D86" s="787" t="s">
         <v>256</v>
       </c>
-      <c r="E86" s="753"/>
+      <c r="E86" s="752"/>
       <c r="Z86" s="461" t="s">
         <v>257</v>
       </c>
@@ -29278,11 +29287,11 @@
       <c r="A88" s="461" t="s">
         <v>257</v>
       </c>
-      <c r="B88" s="643">
+      <c r="B88" s="642">
         <v>100</v>
       </c>
       <c r="C88" s="498"/>
-      <c r="D88" s="643">
+      <c r="D88" s="642">
         <v>100</v>
       </c>
       <c r="E88" s="498"/>
@@ -29302,9 +29311,9 @@
       <c r="A89" s="462" t="s">
         <v>391</v>
       </c>
-      <c r="B89" s="643"/>
+      <c r="B89" s="642"/>
       <c r="C89" s="435"/>
-      <c r="D89" s="643"/>
+      <c r="D89" s="642"/>
       <c r="E89" s="435"/>
       <c r="Z89" s="462" t="s">
         <v>393</v>
@@ -29322,11 +29331,11 @@
       <c r="A90" s="461" t="s">
         <v>392</v>
       </c>
-      <c r="B90" s="643">
+      <c r="B90" s="642">
         <v>100</v>
       </c>
       <c r="C90" s="498"/>
-      <c r="D90" s="643">
+      <c r="D90" s="642">
         <v>100</v>
       </c>
       <c r="E90" s="498"/>
@@ -29346,9 +29355,9 @@
       <c r="A91" s="462" t="s">
         <v>393</v>
       </c>
-      <c r="B91" s="644"/>
+      <c r="B91" s="643"/>
       <c r="C91" s="435"/>
-      <c r="D91" s="644"/>
+      <c r="D91" s="643"/>
       <c r="E91" s="435"/>
       <c r="Z91" s="463" t="s">
         <v>395</v>
@@ -29366,9 +29375,9 @@
       <c r="A92" s="462" t="s">
         <v>394</v>
       </c>
-      <c r="B92" s="644"/>
+      <c r="B92" s="643"/>
       <c r="C92" s="435"/>
-      <c r="D92" s="644"/>
+      <c r="D92" s="643"/>
       <c r="E92" s="435"/>
       <c r="Z92" s="462" t="s">
         <v>396</v>
@@ -29386,11 +29395,11 @@
       <c r="A93" s="463" t="s">
         <v>395</v>
       </c>
-      <c r="B93" s="645">
+      <c r="B93" s="644">
         <v>100</v>
       </c>
       <c r="C93" s="498"/>
-      <c r="D93" s="645">
+      <c r="D93" s="644">
         <v>100</v>
       </c>
       <c r="E93" s="498">
@@ -29412,25 +29421,25 @@
       <c r="A94" s="462" t="s">
         <v>396</v>
       </c>
-      <c r="B94" s="644"/>
+      <c r="B94" s="643"/>
       <c r="C94" s="435"/>
-      <c r="D94" s="644"/>
+      <c r="D94" s="643"/>
       <c r="E94" s="435"/>
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A95" s="462" t="s">
         <v>397</v>
       </c>
-      <c r="B95" s="644"/>
+      <c r="B95" s="643"/>
       <c r="C95" s="435"/>
-      <c r="D95" s="644"/>
+      <c r="D95" s="643"/>
       <c r="E95" s="435"/>
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A96" s="464"/>
-      <c r="B96" s="641"/>
+      <c r="B96" s="640"/>
       <c r="C96" s="435"/>
-      <c r="D96" s="641"/>
+      <c r="D96" s="640"/>
       <c r="E96" s="435"/>
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.25">
@@ -29439,25 +29448,25 @@
       </c>
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B101" s="798" t="s">
+      <c r="B101" s="785" t="s">
         <v>348</v>
       </c>
-      <c r="C101" s="799"/>
-      <c r="D101" s="798" t="s">
+      <c r="C101" s="786"/>
+      <c r="D101" s="785" t="s">
         <v>357</v>
       </c>
-      <c r="E101" s="799"/>
+      <c r="E101" s="786"/>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102" s="299"/>
-      <c r="B102" s="800" t="s">
+      <c r="B102" s="787" t="s">
         <v>256</v>
       </c>
-      <c r="C102" s="753"/>
-      <c r="D102" s="800" t="s">
+      <c r="C102" s="752"/>
+      <c r="D102" s="787" t="s">
         <v>256</v>
       </c>
-      <c r="E102" s="753"/>
+      <c r="E102" s="752"/>
       <c r="Z102" t="s">
         <v>453</v>
       </c>
@@ -29500,11 +29509,11 @@
       <c r="A104" s="461" t="s">
         <v>257</v>
       </c>
-      <c r="B104" s="643">
+      <c r="B104" s="642">
         <v>100</v>
       </c>
       <c r="C104" s="498"/>
-      <c r="D104" s="643">
+      <c r="D104" s="642">
         <v>100</v>
       </c>
       <c r="E104" s="498"/>
@@ -29524,9 +29533,9 @@
       <c r="A105" s="462" t="s">
         <v>391</v>
       </c>
-      <c r="B105" s="643"/>
+      <c r="B105" s="642"/>
       <c r="C105" s="435"/>
-      <c r="D105" s="643"/>
+      <c r="D105" s="642"/>
       <c r="E105" s="435"/>
       <c r="Z105" s="461" t="s">
         <v>392</v>
@@ -29544,11 +29553,11 @@
       <c r="A106" s="461" t="s">
         <v>392</v>
       </c>
-      <c r="B106" s="643">
+      <c r="B106" s="642">
         <v>100</v>
       </c>
       <c r="C106" s="498"/>
-      <c r="D106" s="643">
+      <c r="D106" s="642">
         <v>100</v>
       </c>
       <c r="E106" s="498"/>
@@ -29568,9 +29577,9 @@
       <c r="A107" s="462" t="s">
         <v>393</v>
       </c>
-      <c r="B107" s="644"/>
+      <c r="B107" s="643"/>
       <c r="C107" s="435"/>
-      <c r="D107" s="644"/>
+      <c r="D107" s="643"/>
       <c r="E107" s="435"/>
       <c r="Z107" s="462" t="s">
         <v>394</v>
@@ -29588,9 +29597,9 @@
       <c r="A108" s="462" t="s">
         <v>394</v>
       </c>
-      <c r="B108" s="644"/>
+      <c r="B108" s="643"/>
       <c r="C108" s="435"/>
-      <c r="D108" s="644"/>
+      <c r="D108" s="643"/>
       <c r="E108" s="435"/>
       <c r="Z108" s="463" t="s">
         <v>395</v>
@@ -29608,11 +29617,11 @@
       <c r="A109" s="463" t="s">
         <v>395</v>
       </c>
-      <c r="B109" s="645">
+      <c r="B109" s="644">
         <v>100</v>
       </c>
       <c r="C109" s="498"/>
-      <c r="D109" s="645">
+      <c r="D109" s="644">
         <v>100</v>
       </c>
       <c r="E109" s="498"/>
@@ -29632,9 +29641,9 @@
       <c r="A110" s="462" t="s">
         <v>396</v>
       </c>
-      <c r="B110" s="644"/>
+      <c r="B110" s="643"/>
       <c r="C110" s="435"/>
-      <c r="D110" s="644"/>
+      <c r="D110" s="643"/>
       <c r="E110" s="435"/>
       <c r="Z110" s="462" t="s">
         <v>397</v>
@@ -29652,16 +29661,16 @@
       <c r="A111" s="462" t="s">
         <v>397</v>
       </c>
-      <c r="B111" s="644"/>
+      <c r="B111" s="643"/>
       <c r="C111" s="435"/>
-      <c r="D111" s="644"/>
+      <c r="D111" s="643"/>
       <c r="E111" s="435"/>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A112" s="464"/>
-      <c r="B112" s="641"/>
+      <c r="B112" s="640"/>
       <c r="C112" s="435"/>
-      <c r="D112" s="641"/>
+      <c r="D112" s="640"/>
       <c r="E112" s="435"/>
     </row>
     <row r="114" spans="1:28" x14ac:dyDescent="0.25">
@@ -29670,25 +29679,25 @@
       </c>
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B116" s="801" t="s">
+      <c r="B116" s="788" t="s">
         <v>348</v>
       </c>
-      <c r="C116" s="802"/>
-      <c r="D116" s="801" t="s">
+      <c r="C116" s="789"/>
+      <c r="D116" s="788" t="s">
         <v>357</v>
       </c>
-      <c r="E116" s="802"/>
+      <c r="E116" s="789"/>
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A117" s="466"/>
-      <c r="B117" s="803" t="s">
+      <c r="B117" s="790" t="s">
         <v>256</v>
       </c>
-      <c r="C117" s="804"/>
-      <c r="D117" s="803" t="s">
+      <c r="C117" s="791"/>
+      <c r="D117" s="790" t="s">
         <v>256</v>
       </c>
-      <c r="E117" s="804"/>
+      <c r="E117" s="791"/>
       <c r="Z117" t="s">
         <v>453</v>
       </c>
@@ -29732,11 +29741,11 @@
       <c r="A119" s="461" t="s">
         <v>257</v>
       </c>
-      <c r="B119" s="643">
+      <c r="B119" s="642">
         <v>100</v>
       </c>
       <c r="C119" s="498"/>
-      <c r="D119" s="643">
+      <c r="D119" s="642">
         <v>100</v>
       </c>
       <c r="E119" s="498"/>
@@ -29757,9 +29766,9 @@
       <c r="A120" s="462" t="s">
         <v>391</v>
       </c>
-      <c r="B120" s="643"/>
+      <c r="B120" s="642"/>
       <c r="C120" s="435"/>
-      <c r="D120" s="643"/>
+      <c r="D120" s="642"/>
       <c r="E120" s="435"/>
       <c r="I120" s="499"/>
       <c r="Z120" s="461" t="s">
@@ -29778,11 +29787,11 @@
       <c r="A121" s="461" t="s">
         <v>392</v>
       </c>
-      <c r="B121" s="643">
+      <c r="B121" s="642">
         <v>100</v>
       </c>
       <c r="C121" s="498"/>
-      <c r="D121" s="643">
+      <c r="D121" s="642">
         <v>100</v>
       </c>
       <c r="E121" s="498"/>
@@ -29803,9 +29812,9 @@
       <c r="A122" s="462" t="s">
         <v>393</v>
       </c>
-      <c r="B122" s="644"/>
+      <c r="B122" s="643"/>
       <c r="C122" s="435"/>
-      <c r="D122" s="644"/>
+      <c r="D122" s="643"/>
       <c r="E122" s="435"/>
       <c r="I122" s="499"/>
       <c r="Z122" s="462" t="s">
@@ -29824,9 +29833,9 @@
       <c r="A123" s="462" t="s">
         <v>394</v>
       </c>
-      <c r="B123" s="644"/>
+      <c r="B123" s="643"/>
       <c r="C123" s="435"/>
-      <c r="D123" s="644"/>
+      <c r="D123" s="643"/>
       <c r="E123" s="435"/>
       <c r="I123" s="499"/>
       <c r="Z123" s="463" t="s">
@@ -29845,11 +29854,11 @@
       <c r="A124" s="463" t="s">
         <v>395</v>
       </c>
-      <c r="B124" s="645">
+      <c r="B124" s="644">
         <v>100</v>
       </c>
       <c r="C124" s="498"/>
-      <c r="D124" s="645">
+      <c r="D124" s="644">
         <v>100</v>
       </c>
       <c r="E124" s="498"/>
@@ -29870,9 +29879,9 @@
       <c r="A125" s="462" t="s">
         <v>396</v>
       </c>
-      <c r="B125" s="644"/>
+      <c r="B125" s="643"/>
       <c r="C125" s="435"/>
-      <c r="D125" s="644"/>
+      <c r="D125" s="643"/>
       <c r="E125" s="435"/>
       <c r="I125" s="499"/>
       <c r="Z125" s="462" t="s">
@@ -29891,27 +29900,27 @@
       <c r="A126" s="462" t="s">
         <v>397</v>
       </c>
-      <c r="B126" s="644"/>
+      <c r="B126" s="643"/>
       <c r="C126" s="435"/>
-      <c r="D126" s="644"/>
+      <c r="D126" s="643"/>
       <c r="E126" s="435"/>
     </row>
     <row r="127" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A127" s="464"/>
-      <c r="B127" s="641"/>
+      <c r="B127" s="640"/>
       <c r="C127" s="435"/>
-      <c r="D127" s="641"/>
+      <c r="D127" s="640"/>
       <c r="E127" s="435"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="470" t="s">
         <v>351</v>
       </c>
-      <c r="B129" s="796" t="s">
+      <c r="B129" s="783" t="s">
         <v>348</v>
       </c>
-      <c r="C129" s="797"/>
-      <c r="D129" s="797"/>
+      <c r="C129" s="784"/>
+      <c r="D129" s="784"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="471"/>
@@ -29929,17 +29938,17 @@
       <c r="A131" s="474" t="s">
         <v>400</v>
       </c>
-      <c r="B131" s="641">
+      <c r="B131" s="640">
         <v>100</v>
       </c>
       <c r="C131" s="498"/>
-      <c r="D131" s="639"/>
+      <c r="D131" s="638"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="428" t="s">
         <v>401</v>
       </c>
-      <c r="B132" s="641"/>
+      <c r="B132" s="640"/>
       <c r="C132" s="435"/>
       <c r="D132" s="522"/>
     </row>
@@ -29947,7 +29956,7 @@
       <c r="A133" s="428" t="s">
         <v>259</v>
       </c>
-      <c r="B133" s="641"/>
+      <c r="B133" s="640"/>
       <c r="C133" s="435"/>
       <c r="D133" s="522"/>
     </row>
@@ -29955,7 +29964,7 @@
       <c r="A134" s="428" t="s">
         <v>402</v>
       </c>
-      <c r="B134" s="641"/>
+      <c r="B134" s="640"/>
       <c r="C134" s="435"/>
       <c r="D134" s="522"/>
     </row>
@@ -29963,7 +29972,7 @@
       <c r="A135" s="428" t="s">
         <v>403</v>
       </c>
-      <c r="B135" s="641"/>
+      <c r="B135" s="640"/>
       <c r="C135" s="435"/>
       <c r="D135" s="522"/>
     </row>
@@ -29971,7 +29980,7 @@
       <c r="A136" s="428" t="s">
         <v>404</v>
       </c>
-      <c r="B136" s="641"/>
+      <c r="B136" s="640"/>
       <c r="C136" s="435"/>
       <c r="D136" s="522"/>
     </row>
@@ -29979,7 +29988,7 @@
       <c r="A137" s="428" t="s">
         <v>405</v>
       </c>
-      <c r="B137" s="641"/>
+      <c r="B137" s="640"/>
       <c r="C137" s="435"/>
       <c r="D137" s="522"/>
     </row>
@@ -29987,7 +29996,7 @@
       <c r="A138" s="428" t="s">
         <v>406</v>
       </c>
-      <c r="B138" s="641"/>
+      <c r="B138" s="640"/>
       <c r="C138" s="435"/>
       <c r="D138" s="522"/>
     </row>
@@ -29995,7 +30004,7 @@
       <c r="A139" s="428" t="s">
         <v>407</v>
       </c>
-      <c r="B139" s="641"/>
+      <c r="B139" s="640"/>
       <c r="C139" s="435"/>
       <c r="D139" s="522"/>
     </row>
@@ -30032,7 +30041,7 @@
         <v>132</v>
       </c>
       <c r="C148" s="435"/>
-      <c r="D148" s="640"/>
+      <c r="D148" s="639"/>
       <c r="Z148" s="480" t="s">
         <v>409</v>
       </c>
@@ -30050,7 +30059,7 @@
         <v>132</v>
       </c>
       <c r="C149" s="435"/>
-      <c r="D149" s="640"/>
+      <c r="D149" s="639"/>
       <c r="Z149" s="480" t="s">
         <v>411</v>
       </c>
@@ -30068,7 +30077,7 @@
         <v>132</v>
       </c>
       <c r="C150" s="435"/>
-      <c r="D150" s="640"/>
+      <c r="D150" s="639"/>
       <c r="Z150" s="480" t="s">
         <v>413</v>
       </c>
@@ -30086,7 +30095,7 @@
         <v>132</v>
       </c>
       <c r="C151" s="435"/>
-      <c r="D151" s="640"/>
+      <c r="D151" s="639"/>
       <c r="Z151" s="480" t="s">
         <v>415</v>
       </c>
@@ -30104,7 +30113,7 @@
         <v>132</v>
       </c>
       <c r="C152" s="435"/>
-      <c r="D152" s="640"/>
+      <c r="D152" s="639"/>
     </row>
     <row r="153" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A153" s="480" t="s">
@@ -30114,7 +30123,7 @@
         <v>132</v>
       </c>
       <c r="C153" s="435"/>
-      <c r="D153" s="640"/>
+      <c r="D153" s="639"/>
       <c r="Z153" s="476" t="s">
         <v>408</v>
       </c>
@@ -30134,7 +30143,7 @@
         <v>132</v>
       </c>
       <c r="C154" s="435"/>
-      <c r="D154" s="640"/>
+      <c r="D154" s="639"/>
       <c r="Z154" s="480" t="s">
         <v>410</v>
       </c>
@@ -30152,7 +30161,7 @@
         <v>132</v>
       </c>
       <c r="C155" s="435"/>
-      <c r="D155" s="640"/>
+      <c r="D155" s="639"/>
       <c r="Z155" s="480" t="s">
         <v>412</v>
       </c>
@@ -30203,8 +30212,8 @@
       <c r="B159" s="480" t="s">
         <v>127</v>
       </c>
-      <c r="C159" s="641"/>
-      <c r="D159" s="642"/>
+      <c r="C159" s="640"/>
+      <c r="D159" s="641"/>
       <c r="Z159" s="476" t="s">
         <v>408</v>
       </c>
@@ -30223,8 +30232,8 @@
       <c r="B160" s="480" t="s">
         <v>127</v>
       </c>
-      <c r="C160" s="641"/>
-      <c r="D160" s="642"/>
+      <c r="C160" s="640"/>
+      <c r="D160" s="641"/>
       <c r="Z160" s="480" t="s">
         <v>105</v>
       </c>
@@ -30247,8 +30256,8 @@
       <c r="B161" s="480" t="s">
         <v>127</v>
       </c>
-      <c r="C161" s="641"/>
-      <c r="D161" s="642"/>
+      <c r="C161" s="640"/>
+      <c r="D161" s="641"/>
       <c r="Z161" s="480" t="s">
         <v>110</v>
       </c>
@@ -30271,8 +30280,8 @@
       <c r="B162" s="480" t="s">
         <v>127</v>
       </c>
-      <c r="C162" s="641"/>
-      <c r="D162" s="642"/>
+      <c r="C162" s="640"/>
+      <c r="D162" s="641"/>
       <c r="Z162" s="480" t="s">
         <v>115</v>
       </c>
@@ -30328,7 +30337,7 @@
         <v>131</v>
       </c>
       <c r="C166" s="435"/>
-      <c r="D166" s="640"/>
+      <c r="D166" s="639"/>
     </row>
     <row r="168" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A168" s="476" t="s">
@@ -30359,8 +30368,8 @@
       <c r="B169" s="480" t="s">
         <v>133</v>
       </c>
-      <c r="C169" s="641"/>
-      <c r="D169" s="642"/>
+      <c r="C169" s="640"/>
+      <c r="D169" s="641"/>
       <c r="Z169" s="480" t="s">
         <v>418</v>
       </c>
@@ -30383,8 +30392,8 @@
       <c r="B170" s="480" t="s">
         <v>133</v>
       </c>
-      <c r="C170" s="641"/>
-      <c r="D170" s="642"/>
+      <c r="C170" s="640"/>
+      <c r="D170" s="641"/>
       <c r="Z170" s="480" t="s">
         <v>420</v>
       </c>
@@ -30407,8 +30416,8 @@
       <c r="B171" s="480" t="s">
         <v>133</v>
       </c>
-      <c r="C171" s="641"/>
-      <c r="D171" s="642"/>
+      <c r="C171" s="640"/>
+      <c r="D171" s="641"/>
       <c r="Z171" s="480" t="s">
         <v>422</v>
       </c>
@@ -30431,8 +30440,8 @@
       <c r="B172" s="480" t="s">
         <v>133</v>
       </c>
-      <c r="C172" s="641"/>
-      <c r="D172" s="642"/>
+      <c r="C172" s="640"/>
+      <c r="D172" s="641"/>
       <c r="Z172" s="480" t="s">
         <v>424</v>
       </c>
@@ -30455,8 +30464,8 @@
       <c r="B173" s="480" t="s">
         <v>133</v>
       </c>
-      <c r="C173" s="641"/>
-      <c r="D173" s="642"/>
+      <c r="C173" s="640"/>
+      <c r="D173" s="641"/>
     </row>
     <row r="174" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A174" s="480" t="s">
@@ -30465,8 +30474,8 @@
       <c r="B174" s="480" t="s">
         <v>133</v>
       </c>
-      <c r="C174" s="641"/>
-      <c r="D174" s="642"/>
+      <c r="C174" s="640"/>
+      <c r="D174" s="641"/>
       <c r="Z174" s="476" t="s">
         <v>408</v>
       </c>
@@ -30485,8 +30494,8 @@
       <c r="B175" s="480" t="s">
         <v>133</v>
       </c>
-      <c r="C175" s="641"/>
-      <c r="D175" s="642"/>
+      <c r="C175" s="640"/>
+      <c r="D175" s="641"/>
       <c r="Z175" s="480" t="s">
         <v>419</v>
       </c>
@@ -30509,8 +30518,8 @@
       <c r="B176" s="480" t="s">
         <v>133</v>
       </c>
-      <c r="C176" s="641"/>
-      <c r="D176" s="642"/>
+      <c r="C176" s="640"/>
+      <c r="D176" s="641"/>
       <c r="Z176" s="480" t="s">
         <v>421</v>
       </c>
@@ -30560,6 +30569,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="B129:D129"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="D85:E85"/>
@@ -30573,14 +30590,6 @@
     <mergeCell ref="D116:E116"/>
     <mergeCell ref="B117:C117"/>
     <mergeCell ref="D117:E117"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
@@ -30687,7 +30696,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="410"/>
       <c r="B6" s="411"/>
-      <c r="C6" s="661"/>
+      <c r="C6" s="660"/>
       <c r="D6" s="412"/>
     </row>
   </sheetData>
@@ -30746,7 +30755,7 @@
       <c r="B5" s="413"/>
       <c r="C5" s="413"/>
       <c r="D5" s="413"/>
-      <c r="E5" s="662"/>
+      <c r="E5" s="661"/>
       <c r="F5" s="412"/>
     </row>
   </sheetData>
@@ -30811,7 +30820,7 @@
       <c r="B6" s="411"/>
       <c r="C6" s="411"/>
       <c r="D6" s="411"/>
-      <c r="E6" s="661"/>
+      <c r="E6" s="660"/>
       <c r="F6" s="412"/>
     </row>
   </sheetData>
@@ -30836,123 +30845,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:95" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="667" t="s">
+      <c r="A1" s="695" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="668"/>
-      <c r="C1" s="668"/>
-      <c r="D1" s="668"/>
-      <c r="E1" s="668"/>
-      <c r="F1" s="668"/>
-      <c r="G1" s="668"/>
-      <c r="H1" s="669" t="s">
+      <c r="B1" s="696"/>
+      <c r="C1" s="696"/>
+      <c r="D1" s="696"/>
+      <c r="E1" s="696"/>
+      <c r="F1" s="696"/>
+      <c r="G1" s="696"/>
+      <c r="H1" s="697" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="670"/>
-      <c r="J1" s="670"/>
-      <c r="K1" s="670"/>
-      <c r="L1" s="670"/>
-      <c r="M1" s="671"/>
-      <c r="N1" s="672" t="s">
+      <c r="I1" s="698"/>
+      <c r="J1" s="698"/>
+      <c r="K1" s="698"/>
+      <c r="L1" s="698"/>
+      <c r="M1" s="699"/>
+      <c r="N1" s="700" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="673"/>
-      <c r="P1" s="673"/>
-      <c r="Q1" s="674"/>
-      <c r="R1" s="674"/>
-      <c r="S1" s="673"/>
-      <c r="T1" s="673"/>
-      <c r="U1" s="673"/>
-      <c r="V1" s="675" t="s">
+      <c r="O1" s="678"/>
+      <c r="P1" s="678"/>
+      <c r="Q1" s="701"/>
+      <c r="R1" s="701"/>
+      <c r="S1" s="678"/>
+      <c r="T1" s="678"/>
+      <c r="U1" s="678"/>
+      <c r="V1" s="702" t="s">
         <v>51</v>
       </c>
-      <c r="W1" s="676"/>
-      <c r="X1" s="677"/>
-      <c r="Y1" s="677"/>
-      <c r="Z1" s="678"/>
-      <c r="AA1" s="679" t="s">
+      <c r="W1" s="703"/>
+      <c r="X1" s="704"/>
+      <c r="Y1" s="704"/>
+      <c r="Z1" s="705"/>
+      <c r="AA1" s="706" t="s">
         <v>52</v>
       </c>
-      <c r="AB1" s="680"/>
-      <c r="AC1" s="680"/>
-      <c r="AD1" s="680"/>
-      <c r="AE1" s="680"/>
-      <c r="AF1" s="680"/>
-      <c r="AG1" s="680"/>
-      <c r="AH1" s="680"/>
-      <c r="AI1" s="680"/>
-      <c r="AJ1" s="680"/>
-      <c r="AK1" s="680"/>
-      <c r="AL1" s="680"/>
-      <c r="AM1" s="680"/>
+      <c r="AB1" s="707"/>
+      <c r="AC1" s="707"/>
+      <c r="AD1" s="707"/>
+      <c r="AE1" s="707"/>
+      <c r="AF1" s="707"/>
+      <c r="AG1" s="707"/>
+      <c r="AH1" s="707"/>
+      <c r="AI1" s="707"/>
+      <c r="AJ1" s="707"/>
+      <c r="AK1" s="707"/>
+      <c r="AL1" s="707"/>
+      <c r="AM1" s="707"/>
       <c r="AN1" s="7"/>
       <c r="AO1" s="8"/>
-      <c r="AP1" s="692" t="s">
+      <c r="AP1" s="677" t="s">
         <v>53</v>
       </c>
-      <c r="AQ1" s="673"/>
-      <c r="AR1" s="673"/>
-      <c r="AS1" s="673"/>
-      <c r="AT1" s="673"/>
-      <c r="AU1" s="673"/>
-      <c r="AV1" s="673"/>
-      <c r="AW1" s="693"/>
-      <c r="AX1" s="700" t="s">
+      <c r="AQ1" s="678"/>
+      <c r="AR1" s="678"/>
+      <c r="AS1" s="678"/>
+      <c r="AT1" s="678"/>
+      <c r="AU1" s="678"/>
+      <c r="AV1" s="678"/>
+      <c r="AW1" s="679"/>
+      <c r="AX1" s="686" t="s">
         <v>54</v>
       </c>
-      <c r="AY1" s="701"/>
-      <c r="AZ1" s="701"/>
-      <c r="BA1" s="701"/>
-      <c r="BB1" s="701"/>
-      <c r="BC1" s="702"/>
-      <c r="BD1" s="703" t="s">
+      <c r="AY1" s="687"/>
+      <c r="AZ1" s="687"/>
+      <c r="BA1" s="687"/>
+      <c r="BB1" s="687"/>
+      <c r="BC1" s="688"/>
+      <c r="BD1" s="689" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="704"/>
-      <c r="BF1" s="704"/>
-      <c r="BG1" s="704"/>
-      <c r="BH1" s="704"/>
-      <c r="BI1" s="705"/>
-      <c r="BJ1" s="706" t="s">
+      <c r="BE1" s="690"/>
+      <c r="BF1" s="690"/>
+      <c r="BG1" s="690"/>
+      <c r="BH1" s="690"/>
+      <c r="BI1" s="691"/>
+      <c r="BJ1" s="692" t="s">
         <v>56</v>
       </c>
-      <c r="BK1" s="707"/>
-      <c r="BL1" s="707"/>
-      <c r="BM1" s="707"/>
-      <c r="BN1" s="707"/>
-      <c r="BO1" s="707"/>
-      <c r="BP1" s="708"/>
-      <c r="BQ1" s="681" t="s">
+      <c r="BK1" s="693"/>
+      <c r="BL1" s="693"/>
+      <c r="BM1" s="693"/>
+      <c r="BN1" s="693"/>
+      <c r="BO1" s="693"/>
+      <c r="BP1" s="694"/>
+      <c r="BQ1" s="666" t="s">
         <v>57</v>
       </c>
-      <c r="BR1" s="682"/>
-      <c r="BS1" s="682"/>
-      <c r="BT1" s="682"/>
-      <c r="BU1" s="682"/>
-      <c r="BV1" s="682"/>
+      <c r="BR1" s="667"/>
+      <c r="BS1" s="667"/>
+      <c r="BT1" s="667"/>
+      <c r="BU1" s="667"/>
+      <c r="BV1" s="667"/>
       <c r="BW1" s="8"/>
       <c r="BX1" s="9"/>
-      <c r="BY1" s="683" t="s">
+      <c r="BY1" s="668" t="s">
         <v>58</v>
       </c>
-      <c r="BZ1" s="684"/>
-      <c r="CA1" s="684"/>
-      <c r="CB1" s="684"/>
-      <c r="CC1" s="684"/>
-      <c r="CD1" s="684"/>
-      <c r="CE1" s="684"/>
-      <c r="CF1" s="685"/>
-      <c r="CG1" s="685"/>
-      <c r="CH1" s="685"/>
-      <c r="CI1" s="685"/>
-      <c r="CJ1" s="685"/>
-      <c r="CK1" s="685"/>
-      <c r="CL1" s="685"/>
-      <c r="CM1" s="685"/>
-      <c r="CN1" s="685"/>
-      <c r="CO1" s="685"/>
-      <c r="CP1" s="685"/>
-      <c r="CQ1" s="685"/>
+      <c r="BZ1" s="669"/>
+      <c r="CA1" s="669"/>
+      <c r="CB1" s="669"/>
+      <c r="CC1" s="669"/>
+      <c r="CD1" s="669"/>
+      <c r="CE1" s="669"/>
+      <c r="CF1" s="670"/>
+      <c r="CG1" s="670"/>
+      <c r="CH1" s="670"/>
+      <c r="CI1" s="670"/>
+      <c r="CJ1" s="670"/>
+      <c r="CK1" s="670"/>
+      <c r="CL1" s="670"/>
+      <c r="CM1" s="670"/>
+      <c r="CN1" s="670"/>
+      <c r="CO1" s="670"/>
+      <c r="CP1" s="670"/>
+      <c r="CQ1" s="670"/>
     </row>
     <row r="2" spans="1:95" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -30976,18 +30985,18 @@
       <c r="G2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="686" t="s">
+      <c r="H2" s="671" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="687"/>
-      <c r="J2" s="687" t="s">
+      <c r="I2" s="672"/>
+      <c r="J2" s="672" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="687"/>
-      <c r="L2" s="687" t="s">
+      <c r="K2" s="672"/>
+      <c r="L2" s="672" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="688"/>
+      <c r="M2" s="673"/>
       <c r="N2" s="12" t="s">
         <v>59</v>
       </c>
@@ -31096,36 +31105,36 @@
       <c r="AW2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="AX2" s="689" t="s">
+      <c r="AX2" s="674" t="s">
         <v>93</v>
       </c>
-      <c r="AY2" s="690"/>
-      <c r="AZ2" s="690"/>
-      <c r="BA2" s="690" t="s">
+      <c r="AY2" s="675"/>
+      <c r="AZ2" s="675"/>
+      <c r="BA2" s="675" t="s">
         <v>94</v>
       </c>
-      <c r="BB2" s="690"/>
-      <c r="BC2" s="691"/>
-      <c r="BD2" s="694" t="s">
+      <c r="BB2" s="675"/>
+      <c r="BC2" s="676"/>
+      <c r="BD2" s="680" t="s">
         <v>93</v>
       </c>
-      <c r="BE2" s="695"/>
-      <c r="BF2" s="695"/>
-      <c r="BG2" s="695" t="s">
+      <c r="BE2" s="681"/>
+      <c r="BF2" s="681"/>
+      <c r="BG2" s="681" t="s">
         <v>94</v>
       </c>
-      <c r="BH2" s="695"/>
-      <c r="BI2" s="696"/>
-      <c r="BJ2" s="697" t="s">
+      <c r="BH2" s="681"/>
+      <c r="BI2" s="682"/>
+      <c r="BJ2" s="683" t="s">
         <v>93</v>
       </c>
-      <c r="BK2" s="698"/>
-      <c r="BL2" s="698"/>
-      <c r="BM2" s="698" t="s">
+      <c r="BK2" s="684"/>
+      <c r="BL2" s="684"/>
+      <c r="BM2" s="684" t="s">
         <v>94</v>
       </c>
-      <c r="BN2" s="699"/>
-      <c r="BO2" s="699"/>
+      <c r="BN2" s="685"/>
+      <c r="BO2" s="685"/>
       <c r="BP2" s="24" t="s">
         <v>95</v>
       </c>
@@ -32032,6 +32041,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AM1"/>
     <mergeCell ref="BQ1:BV1"/>
     <mergeCell ref="BY1:CQ1"/>
     <mergeCell ref="H2:I2"/>
@@ -32047,11 +32061,6 @@
     <mergeCell ref="AX1:BC1"/>
     <mergeCell ref="BD1:BI1"/>
     <mergeCell ref="BJ1:BP1"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AM1"/>
   </mergeCells>
   <conditionalFormatting sqref="A13:A14 A4:B4">
     <cfRule type="duplicateValues" dxfId="8" priority="1"/>
@@ -32090,124 +32099,124 @@
         <v>138</v>
       </c>
       <c r="L1" s="87"/>
-      <c r="M1" s="713" t="s">
+      <c r="M1" s="734" t="s">
         <v>139</v>
       </c>
-      <c r="N1" s="714" t="s">
+      <c r="N1" s="735" t="s">
         <v>140</v>
       </c>
-      <c r="O1" s="715"/>
-      <c r="P1" s="715"/>
-      <c r="Q1" s="715"/>
-      <c r="R1" s="716" t="s">
+      <c r="O1" s="736"/>
+      <c r="P1" s="736"/>
+      <c r="Q1" s="736"/>
+      <c r="R1" s="737" t="s">
         <v>141</v>
       </c>
-      <c r="S1" s="717"/>
-      <c r="T1" s="717"/>
-      <c r="U1" s="717"/>
-      <c r="V1" s="717"/>
-      <c r="W1" s="717"/>
-      <c r="X1" s="718"/>
-      <c r="Y1" s="719" t="s">
+      <c r="S1" s="729"/>
+      <c r="T1" s="729"/>
+      <c r="U1" s="729"/>
+      <c r="V1" s="729"/>
+      <c r="W1" s="729"/>
+      <c r="X1" s="738"/>
+      <c r="Y1" s="718" t="s">
         <v>142</v>
       </c>
-      <c r="Z1" s="704"/>
-      <c r="AA1" s="722" t="s">
+      <c r="Z1" s="690"/>
+      <c r="AA1" s="739" t="s">
         <v>143</v>
       </c>
-      <c r="AB1" s="724" t="s">
+      <c r="AB1" s="730" t="s">
         <v>144</v>
       </c>
-      <c r="AC1" s="732" t="s">
+      <c r="AC1" s="725" t="s">
         <v>145</v>
       </c>
-      <c r="AD1" s="733"/>
-      <c r="AE1" s="733"/>
-      <c r="AF1" s="734"/>
-      <c r="AG1" s="735" t="s">
+      <c r="AD1" s="726"/>
+      <c r="AE1" s="726"/>
+      <c r="AF1" s="727"/>
+      <c r="AG1" s="728" t="s">
         <v>146</v>
       </c>
-      <c r="AH1" s="717"/>
-      <c r="AI1" s="717"/>
-      <c r="AJ1" s="717"/>
-      <c r="AK1" s="717"/>
-      <c r="AL1" s="717"/>
-      <c r="AM1" s="717"/>
-      <c r="AN1" s="717"/>
-      <c r="AO1" s="724" t="s">
+      <c r="AH1" s="729"/>
+      <c r="AI1" s="729"/>
+      <c r="AJ1" s="729"/>
+      <c r="AK1" s="729"/>
+      <c r="AL1" s="729"/>
+      <c r="AM1" s="729"/>
+      <c r="AN1" s="729"/>
+      <c r="AO1" s="730" t="s">
         <v>147</v>
       </c>
-      <c r="AP1" s="719" t="s">
+      <c r="AP1" s="718" t="s">
         <v>148</v>
       </c>
-      <c r="AQ1" s="704"/>
-      <c r="AR1" s="704"/>
-      <c r="AS1" s="705"/>
-      <c r="AT1" s="736" t="s">
+      <c r="AQ1" s="690"/>
+      <c r="AR1" s="690"/>
+      <c r="AS1" s="691"/>
+      <c r="AT1" s="732" t="s">
         <v>149</v>
       </c>
-      <c r="AU1" s="737"/>
-      <c r="AV1" s="737"/>
-      <c r="AW1" s="737"/>
-      <c r="AX1" s="737"/>
-      <c r="AY1" s="737"/>
-      <c r="AZ1" s="737"/>
-      <c r="BA1" s="737"/>
-      <c r="BB1" s="737"/>
-      <c r="BC1" s="737"/>
-      <c r="BD1" s="737"/>
-      <c r="BE1" s="737"/>
-      <c r="BF1" s="737"/>
-      <c r="BG1" s="737"/>
-      <c r="BH1" s="737"/>
-      <c r="BI1" s="737"/>
-      <c r="BJ1" s="737"/>
-      <c r="BK1" s="737"/>
-      <c r="BL1" s="737"/>
-      <c r="BM1" s="737"/>
-      <c r="BN1" s="737"/>
-      <c r="BO1" s="737"/>
-      <c r="BP1" s="737"/>
-      <c r="BQ1" s="737"/>
-      <c r="BR1" s="737"/>
-      <c r="BS1" s="737"/>
-      <c r="BT1" s="737"/>
-      <c r="BU1" s="737"/>
-      <c r="BV1" s="737"/>
-      <c r="BW1" s="724" t="s">
+      <c r="AU1" s="733"/>
+      <c r="AV1" s="733"/>
+      <c r="AW1" s="733"/>
+      <c r="AX1" s="733"/>
+      <c r="AY1" s="733"/>
+      <c r="AZ1" s="733"/>
+      <c r="BA1" s="733"/>
+      <c r="BB1" s="733"/>
+      <c r="BC1" s="733"/>
+      <c r="BD1" s="733"/>
+      <c r="BE1" s="733"/>
+      <c r="BF1" s="733"/>
+      <c r="BG1" s="733"/>
+      <c r="BH1" s="733"/>
+      <c r="BI1" s="733"/>
+      <c r="BJ1" s="733"/>
+      <c r="BK1" s="733"/>
+      <c r="BL1" s="733"/>
+      <c r="BM1" s="733"/>
+      <c r="BN1" s="733"/>
+      <c r="BO1" s="733"/>
+      <c r="BP1" s="733"/>
+      <c r="BQ1" s="733"/>
+      <c r="BR1" s="733"/>
+      <c r="BS1" s="733"/>
+      <c r="BT1" s="733"/>
+      <c r="BU1" s="733"/>
+      <c r="BV1" s="733"/>
+      <c r="BW1" s="730" t="s">
         <v>150</v>
       </c>
-      <c r="BX1" s="719" t="s">
+      <c r="BX1" s="718" t="s">
         <v>151</v>
       </c>
-      <c r="BY1" s="704"/>
-      <c r="BZ1" s="704"/>
-      <c r="CA1" s="705"/>
-      <c r="CB1" s="726" t="s">
+      <c r="BY1" s="690"/>
+      <c r="BZ1" s="690"/>
+      <c r="CA1" s="691"/>
+      <c r="CB1" s="719" t="s">
         <v>52</v>
       </c>
-      <c r="CC1" s="726"/>
-      <c r="CD1" s="726"/>
-      <c r="CE1" s="726"/>
-      <c r="CF1" s="726"/>
-      <c r="CG1" s="726"/>
-      <c r="CH1" s="726"/>
-      <c r="CI1" s="726"/>
-      <c r="CJ1" s="726"/>
-      <c r="CK1" s="726"/>
-      <c r="CL1" s="726"/>
-      <c r="CM1" s="726"/>
+      <c r="CC1" s="719"/>
+      <c r="CD1" s="719"/>
+      <c r="CE1" s="719"/>
+      <c r="CF1" s="719"/>
+      <c r="CG1" s="719"/>
+      <c r="CH1" s="719"/>
+      <c r="CI1" s="719"/>
+      <c r="CJ1" s="719"/>
+      <c r="CK1" s="719"/>
+      <c r="CL1" s="719"/>
+      <c r="CM1" s="719"/>
       <c r="CN1" s="88"/>
-      <c r="CO1" s="727" t="s">
+      <c r="CO1" s="720" t="s">
         <v>57</v>
       </c>
-      <c r="CP1" s="673"/>
-      <c r="CQ1" s="673"/>
-      <c r="CR1" s="673"/>
-      <c r="CS1" s="673"/>
-      <c r="CT1" s="673"/>
-      <c r="CU1" s="673"/>
-      <c r="CV1" s="693"/>
+      <c r="CP1" s="678"/>
+      <c r="CQ1" s="678"/>
+      <c r="CR1" s="678"/>
+      <c r="CS1" s="678"/>
+      <c r="CT1" s="678"/>
+      <c r="CU1" s="678"/>
+      <c r="CV1" s="679"/>
     </row>
     <row r="2" spans="1:100" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A2" s="89" t="s">
@@ -32246,7 +32255,7 @@
       <c r="L2" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="713"/>
+      <c r="M2" s="734"/>
       <c r="N2" s="94" t="s">
         <v>156</v>
       </c>
@@ -32262,22 +32271,22 @@
       <c r="R2" s="95" t="s">
         <v>436</v>
       </c>
-      <c r="S2" s="728" t="s">
+      <c r="S2" s="721" t="s">
         <v>159</v>
       </c>
-      <c r="T2" s="699"/>
-      <c r="U2" s="729" t="s">
+      <c r="T2" s="685"/>
+      <c r="U2" s="722" t="s">
         <v>67</v>
       </c>
-      <c r="V2" s="729"/>
-      <c r="W2" s="729" t="s">
+      <c r="V2" s="722"/>
+      <c r="W2" s="722" t="s">
         <v>68</v>
       </c>
-      <c r="X2" s="730"/>
-      <c r="Y2" s="720"/>
-      <c r="Z2" s="721"/>
-      <c r="AA2" s="723"/>
-      <c r="AB2" s="725"/>
+      <c r="X2" s="723"/>
+      <c r="Y2" s="712"/>
+      <c r="Z2" s="713"/>
+      <c r="AA2" s="740"/>
+      <c r="AB2" s="731"/>
       <c r="AC2" s="96" t="s">
         <v>160</v>
       </c>
@@ -32290,81 +32299,81 @@
       <c r="AF2" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="AG2" s="731" t="s">
+      <c r="AG2" s="724" t="s">
         <v>164</v>
       </c>
-      <c r="AH2" s="711"/>
-      <c r="AI2" s="711" t="s">
+      <c r="AH2" s="710"/>
+      <c r="AI2" s="710" t="s">
         <v>165</v>
       </c>
-      <c r="AJ2" s="711"/>
-      <c r="AK2" s="711" t="s">
+      <c r="AJ2" s="710"/>
+      <c r="AK2" s="710" t="s">
         <v>166</v>
       </c>
-      <c r="AL2" s="711"/>
+      <c r="AL2" s="710"/>
       <c r="AM2" s="97" t="s">
         <v>167</v>
       </c>
       <c r="AN2" s="97" t="s">
         <v>168</v>
       </c>
-      <c r="AO2" s="725"/>
-      <c r="AP2" s="720" t="s">
+      <c r="AO2" s="731"/>
+      <c r="AP2" s="712" t="s">
         <v>169</v>
       </c>
-      <c r="AQ2" s="721"/>
-      <c r="AR2" s="709" t="s">
+      <c r="AQ2" s="713"/>
+      <c r="AR2" s="714" t="s">
         <v>170</v>
       </c>
-      <c r="AS2" s="710"/>
-      <c r="AT2" s="711" t="s">
+      <c r="AS2" s="715"/>
+      <c r="AT2" s="710" t="s">
         <v>171</v>
       </c>
-      <c r="AU2" s="711"/>
-      <c r="AV2" s="712" t="s">
+      <c r="AU2" s="710"/>
+      <c r="AV2" s="711" t="s">
         <v>172</v>
       </c>
-      <c r="AW2" s="712"/>
-      <c r="AX2" s="712" t="s">
+      <c r="AW2" s="711"/>
+      <c r="AX2" s="711" t="s">
         <v>173</v>
       </c>
-      <c r="AY2" s="712"/>
+      <c r="AY2" s="711"/>
       <c r="AZ2" s="97" t="s">
         <v>174</v>
       </c>
       <c r="BA2" s="97" t="s">
         <v>175</v>
       </c>
-      <c r="BB2" s="711" t="s">
+      <c r="BB2" s="710" t="s">
         <v>176</v>
       </c>
-      <c r="BC2" s="711"/>
-      <c r="BD2" s="712" t="s">
+      <c r="BC2" s="710"/>
+      <c r="BD2" s="711" t="s">
         <v>177</v>
       </c>
-      <c r="BE2" s="712"/>
-      <c r="BF2" s="712" t="s">
+      <c r="BE2" s="711"/>
+      <c r="BF2" s="711" t="s">
         <v>178</v>
       </c>
-      <c r="BG2" s="712"/>
+      <c r="BG2" s="711"/>
       <c r="BH2" s="97" t="s">
         <v>179</v>
       </c>
       <c r="BI2" s="97" t="s">
         <v>180</v>
       </c>
-      <c r="BJ2" s="711" t="s">
+      <c r="BJ2" s="710" t="s">
         <v>181</v>
       </c>
-      <c r="BK2" s="711"/>
-      <c r="BL2" s="712" t="s">
+      <c r="BK2" s="710"/>
+      <c r="BL2" s="711" t="s">
         <v>182</v>
       </c>
-      <c r="BM2" s="712"/>
-      <c r="BN2" s="712" t="s">
+      <c r="BM2" s="711"/>
+      <c r="BN2" s="711" t="s">
         <v>183</v>
       </c>
-      <c r="BO2" s="712"/>
+      <c r="BO2" s="711"/>
       <c r="BP2" s="97" t="s">
         <v>184</v>
       </c>
@@ -32386,15 +32395,15 @@
       <c r="BV2" s="97" t="s">
         <v>190</v>
       </c>
-      <c r="BW2" s="725"/>
-      <c r="BX2" s="720" t="s">
+      <c r="BW2" s="731"/>
+      <c r="BX2" s="712" t="s">
         <v>169</v>
       </c>
-      <c r="BY2" s="721"/>
-      <c r="BZ2" s="709" t="s">
+      <c r="BY2" s="713"/>
+      <c r="BZ2" s="714" t="s">
         <v>170</v>
       </c>
-      <c r="CA2" s="710"/>
+      <c r="CA2" s="715"/>
       <c r="CB2" s="20" t="s">
         <v>74</v>
       </c>
@@ -32434,22 +32443,22 @@
       <c r="CN2" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="CO2" s="740" t="s">
+      <c r="CO2" s="716" t="s">
         <v>191</v>
       </c>
-      <c r="CP2" s="741"/>
-      <c r="CQ2" s="738" t="s">
+      <c r="CP2" s="717"/>
+      <c r="CQ2" s="708" t="s">
         <v>192</v>
       </c>
-      <c r="CR2" s="738"/>
-      <c r="CS2" s="741" t="s">
+      <c r="CR2" s="708"/>
+      <c r="CS2" s="717" t="s">
         <v>193</v>
       </c>
-      <c r="CT2" s="741"/>
-      <c r="CU2" s="738" t="s">
+      <c r="CT2" s="717"/>
+      <c r="CU2" s="708" t="s">
         <v>194</v>
       </c>
-      <c r="CV2" s="739"/>
+      <c r="CV2" s="709"/>
     </row>
     <row r="3" spans="1:100" ht="27" x14ac:dyDescent="0.25">
       <c r="A3" s="99" t="s">
@@ -37755,18 +37764,16 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="CU2:CV2"/>
-    <mergeCell ref="BB2:BC2"/>
-    <mergeCell ref="BD2:BE2"/>
-    <mergeCell ref="BF2:BG2"/>
-    <mergeCell ref="BJ2:BK2"/>
-    <mergeCell ref="BL2:BM2"/>
-    <mergeCell ref="BN2:BO2"/>
-    <mergeCell ref="BX2:BY2"/>
-    <mergeCell ref="BZ2:CA2"/>
-    <mergeCell ref="CO2:CP2"/>
-    <mergeCell ref="CQ2:CR2"/>
-    <mergeCell ref="CS2:CT2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Y1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="BX1:CA1"/>
     <mergeCell ref="CB1:CM1"/>
     <mergeCell ref="CO1:CV1"/>
@@ -37783,16 +37790,18 @@
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AT1:BV1"/>
     <mergeCell ref="BW1:BW2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Y1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="CU2:CV2"/>
+    <mergeCell ref="BB2:BC2"/>
+    <mergeCell ref="BD2:BE2"/>
+    <mergeCell ref="BF2:BG2"/>
+    <mergeCell ref="BJ2:BK2"/>
+    <mergeCell ref="BL2:BM2"/>
+    <mergeCell ref="BN2:BO2"/>
+    <mergeCell ref="BX2:BY2"/>
+    <mergeCell ref="BZ2:CA2"/>
+    <mergeCell ref="CO2:CP2"/>
+    <mergeCell ref="CQ2:CR2"/>
+    <mergeCell ref="CS2:CT2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -37802,7 +37811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
@@ -37845,8 +37854,8 @@
       <c r="B2" s="209" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="742"/>
-      <c r="D2" s="742"/>
+      <c r="C2" s="748"/>
+      <c r="D2" s="748"/>
       <c r="E2" s="207"/>
       <c r="F2" s="207"/>
       <c r="G2" s="207"/>
@@ -37971,32 +37980,32 @@
     </row>
     <row r="7" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="206"/>
-      <c r="B7" s="743" t="s">
+      <c r="B7" s="749" t="s">
         <v>217</v>
       </c>
-      <c r="C7" s="743"/>
-      <c r="D7" s="743"/>
+      <c r="C7" s="749"/>
+      <c r="D7" s="749"/>
       <c r="E7" s="207"/>
       <c r="F7" s="207"/>
       <c r="G7" s="207"/>
       <c r="H7" s="207"/>
       <c r="I7" s="207"/>
-      <c r="J7" s="743" t="s">
+      <c r="J7" s="749" t="s">
         <v>218</v>
       </c>
-      <c r="K7" s="743"/>
-      <c r="L7" s="743"/>
+      <c r="K7" s="749"/>
+      <c r="L7" s="749"/>
       <c r="M7" s="207"/>
       <c r="N7" s="207"/>
       <c r="O7" s="207"/>
       <c r="P7" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="Q7" s="743" t="s">
+      <c r="Q7" s="749" t="s">
         <v>218</v>
       </c>
-      <c r="R7" s="743"/>
-      <c r="S7" s="743"/>
+      <c r="R7" s="749"/>
+      <c r="S7" s="749"/>
       <c r="T7" s="207"/>
       <c r="U7" s="221" t="s">
         <v>220</v>
@@ -38126,10 +38135,10 @@
       </c>
       <c r="C11" s="227"/>
       <c r="D11" s="227"/>
-      <c r="E11" s="746" t="s">
+      <c r="E11" s="741" t="s">
         <v>228</v>
       </c>
-      <c r="F11" s="747"/>
+      <c r="F11" s="742"/>
       <c r="G11" s="228"/>
       <c r="H11" s="228"/>
       <c r="I11" s="228"/>
@@ -38138,10 +38147,10 @@
       </c>
       <c r="K11" s="207"/>
       <c r="L11" s="207"/>
-      <c r="M11" s="749" t="s">
+      <c r="M11" s="746" t="s">
         <v>228</v>
       </c>
-      <c r="N11" s="750"/>
+      <c r="N11" s="747"/>
       <c r="O11" s="228"/>
       <c r="P11" s="228"/>
       <c r="Q11" s="226" t="s">
@@ -38149,10 +38158,10 @@
       </c>
       <c r="R11" s="227"/>
       <c r="S11" s="227"/>
-      <c r="T11" s="746" t="s">
+      <c r="T11" s="741" t="s">
         <v>228</v>
       </c>
-      <c r="U11" s="747"/>
+      <c r="U11" s="742"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="206"/>
@@ -38387,10 +38396,10 @@
       </c>
       <c r="C20" s="569"/>
       <c r="D20" s="255"/>
-      <c r="E20" s="746" t="s">
+      <c r="E20" s="741" t="s">
         <v>235</v>
       </c>
-      <c r="F20" s="747"/>
+      <c r="F20" s="742"/>
       <c r="G20" s="236"/>
       <c r="H20" s="236"/>
       <c r="I20" s="207"/>
@@ -38399,10 +38408,10 @@
       </c>
       <c r="K20" s="569"/>
       <c r="L20" s="255"/>
-      <c r="M20" s="746" t="s">
+      <c r="M20" s="741" t="s">
         <v>235</v>
       </c>
-      <c r="N20" s="747"/>
+      <c r="N20" s="742"/>
       <c r="O20" s="246"/>
       <c r="P20" s="246"/>
       <c r="Q20" s="226" t="s">
@@ -38410,10 +38419,10 @@
       </c>
       <c r="R20" s="569"/>
       <c r="S20" s="255"/>
-      <c r="T20" s="746" t="s">
+      <c r="T20" s="741" t="s">
         <v>235</v>
       </c>
-      <c r="U20" s="747"/>
+      <c r="U20" s="742"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="206"/>
@@ -38677,10 +38686,10 @@
       </c>
       <c r="C30" s="569"/>
       <c r="D30" s="255"/>
-      <c r="E30" s="746" t="s">
+      <c r="E30" s="741" t="s">
         <v>235</v>
       </c>
-      <c r="F30" s="747"/>
+      <c r="F30" s="742"/>
       <c r="G30" s="236"/>
       <c r="H30" s="236"/>
       <c r="I30" s="207"/>
@@ -38689,10 +38698,10 @@
       </c>
       <c r="K30" s="569"/>
       <c r="L30" s="255"/>
-      <c r="M30" s="746" t="s">
+      <c r="M30" s="741" t="s">
         <v>235</v>
       </c>
-      <c r="N30" s="747"/>
+      <c r="N30" s="742"/>
       <c r="O30" s="246"/>
       <c r="P30" s="246"/>
       <c r="Q30" s="226" t="s">
@@ -38700,10 +38709,10 @@
       </c>
       <c r="R30" s="569"/>
       <c r="S30" s="255"/>
-      <c r="T30" s="746" t="s">
+      <c r="T30" s="741" t="s">
         <v>235</v>
       </c>
-      <c r="U30" s="747"/>
+      <c r="U30" s="742"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="269"/>
@@ -39026,11 +39035,11 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="206"/>
-      <c r="B42" s="748"/>
-      <c r="C42" s="748"/>
-      <c r="D42" s="748"/>
-      <c r="E42" s="748"/>
-      <c r="F42" s="748"/>
+      <c r="B42" s="743"/>
+      <c r="C42" s="743"/>
+      <c r="D42" s="743"/>
+      <c r="E42" s="743"/>
+      <c r="F42" s="743"/>
       <c r="G42" s="246"/>
       <c r="H42" s="207"/>
       <c r="I42" s="246"/>
@@ -39174,6 +39183,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="R9:S9"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="M30:N30"/>
     <mergeCell ref="T30:U30"/>
@@ -39185,15 +39203,6 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="T20:U20"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="R9:S9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -39204,8 +39213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39226,8 +39235,8 @@
       <c r="B3" s="292" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="751"/>
-      <c r="D3" s="751"/>
+      <c r="C3" s="750"/>
+      <c r="D3" s="750"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C4" s="293"/>
@@ -39260,10 +39269,10 @@
       <c r="D10" s="301" t="s">
         <v>255</v>
       </c>
-      <c r="E10" s="752" t="s">
+      <c r="E10" s="751" t="s">
         <v>256</v>
       </c>
-      <c r="F10" s="753"/>
+      <c r="F10" s="752"/>
     </row>
     <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="302" t="s">
@@ -39299,8 +39308,8 @@
       </c>
       <c r="C13" s="571"/>
       <c r="D13" s="579"/>
-      <c r="E13" s="579"/>
-      <c r="F13" s="576"/>
+      <c r="E13" s="804"/>
+      <c r="F13" s="805"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="586" t="s">
@@ -39308,8 +39317,8 @@
       </c>
       <c r="C14" s="587"/>
       <c r="D14" s="588"/>
-      <c r="E14" s="589"/>
-      <c r="F14" s="577"/>
+      <c r="E14" s="806"/>
+      <c r="F14" s="807"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="309"/>
@@ -39340,7 +39349,7 @@
       <c r="B18" s="586" t="s">
         <v>262</v>
       </c>
-      <c r="C18" s="590"/>
+      <c r="C18" s="589"/>
       <c r="D18" s="588"/>
       <c r="E18" s="588"/>
       <c r="F18" s="577"/>
@@ -39380,10 +39389,10 @@
       <c r="F22" s="576"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="598"/>
-      <c r="C23" s="597"/>
-      <c r="D23" s="596"/>
-      <c r="E23" s="595"/>
+      <c r="B23" s="597"/>
+      <c r="C23" s="596"/>
+      <c r="D23" s="595"/>
+      <c r="E23" s="594"/>
       <c r="F23" s="577"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -39414,10 +39423,10 @@
       <c r="D30" s="313" t="s">
         <v>255</v>
       </c>
-      <c r="E30" s="752" t="s">
+      <c r="E30" s="751" t="s">
         <v>256</v>
       </c>
-      <c r="F30" s="753"/>
+      <c r="F30" s="752"/>
     </row>
     <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="302" t="s">
@@ -39453,8 +39462,8 @@
       </c>
       <c r="C33" s="571"/>
       <c r="D33" s="579"/>
-      <c r="E33" s="579"/>
-      <c r="F33" s="576"/>
+      <c r="E33" s="804"/>
+      <c r="F33" s="805"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="586" t="s">
@@ -39462,8 +39471,8 @@
       </c>
       <c r="C34" s="587"/>
       <c r="D34" s="588"/>
-      <c r="E34" s="589"/>
-      <c r="F34" s="577"/>
+      <c r="E34" s="806"/>
+      <c r="F34" s="807"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="309"/>
@@ -39491,10 +39500,10 @@
       <c r="F37" s="576"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="591" t="s">
+      <c r="B38" s="590" t="s">
         <v>262</v>
       </c>
-      <c r="C38" s="592"/>
+      <c r="C38" s="591"/>
       <c r="D38" s="588"/>
       <c r="E38" s="588"/>
       <c r="F38" s="577"/>
@@ -39535,9 +39544,9 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="315"/>
-      <c r="C43" s="594"/>
+      <c r="C43" s="593"/>
       <c r="D43" s="585"/>
-      <c r="E43" s="593"/>
+      <c r="E43" s="592"/>
       <c r="F43" s="577"/>
     </row>
     <row r="46" spans="2:6" ht="21" x14ac:dyDescent="0.35">
@@ -39565,10 +39574,10 @@
       <c r="D49" s="313" t="s">
         <v>255</v>
       </c>
-      <c r="E49" s="752" t="s">
+      <c r="E49" s="751" t="s">
         <v>256</v>
       </c>
-      <c r="F49" s="753"/>
+      <c r="F49" s="752"/>
     </row>
     <row r="50" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="302" t="s">
@@ -39604,8 +39613,8 @@
       </c>
       <c r="C52" s="571"/>
       <c r="D52" s="579"/>
-      <c r="E52" s="579"/>
-      <c r="F52" s="576"/>
+      <c r="E52" s="804"/>
+      <c r="F52" s="805"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="586" t="s">
@@ -39613,8 +39622,8 @@
       </c>
       <c r="C53" s="587"/>
       <c r="D53" s="588"/>
-      <c r="E53" s="589"/>
-      <c r="F53" s="577"/>
+      <c r="E53" s="806"/>
+      <c r="F53" s="807"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="309"/>
@@ -39645,7 +39654,7 @@
       <c r="B57" s="586" t="s">
         <v>262</v>
       </c>
-      <c r="C57" s="590"/>
+      <c r="C57" s="589"/>
       <c r="D57" s="588"/>
       <c r="E57" s="588"/>
       <c r="F57" s="577"/>
@@ -39686,9 +39695,9 @@
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="315"/>
-      <c r="C62" s="594"/>
-      <c r="D62" s="599"/>
-      <c r="E62" s="595"/>
+      <c r="C62" s="593"/>
+      <c r="D62" s="598"/>
+      <c r="E62" s="594"/>
       <c r="F62" s="577"/>
     </row>
   </sheetData>
@@ -39706,8 +39715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39736,8 +39745,8 @@
       </c>
       <c r="C2" s="209"/>
       <c r="D2" s="209"/>
-      <c r="E2" s="742"/>
-      <c r="F2" s="742"/>
+      <c r="E2" s="748"/>
+      <c r="F2" s="748"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="208"/>
@@ -39769,13 +39778,13 @@
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="206"/>
-      <c r="B6" s="743" t="s">
+      <c r="B6" s="749" t="s">
         <v>268</v>
       </c>
-      <c r="C6" s="743"/>
-      <c r="D6" s="743"/>
-      <c r="E6" s="743"/>
-      <c r="F6" s="743"/>
+      <c r="C6" s="749"/>
+      <c r="D6" s="749"/>
+      <c r="E6" s="749"/>
+      <c r="F6" s="749"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="206"/>
@@ -39787,27 +39796,27 @@
     </row>
     <row r="8" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="206"/>
-      <c r="B8" s="606" t="s">
+      <c r="B8" s="605" t="s">
         <v>221</v>
       </c>
-      <c r="C8" s="754" t="s">
+      <c r="C8" s="753" t="s">
         <v>222</v>
       </c>
-      <c r="D8" s="755"/>
-      <c r="E8" s="756" t="s">
+      <c r="D8" s="754"/>
+      <c r="E8" s="755" t="s">
         <v>223</v>
       </c>
-      <c r="F8" s="755"/>
+      <c r="F8" s="754"/>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="206"/>
-      <c r="B9" s="607" t="s">
+      <c r="B9" s="606" t="s">
         <v>214</v>
       </c>
-      <c r="C9" s="604" t="s">
+      <c r="C9" s="603" t="s">
         <v>224</v>
       </c>
-      <c r="D9" s="605" t="s">
+      <c r="D9" s="604" t="s">
         <v>226</v>
       </c>
       <c r="E9" s="317" t="s">
@@ -39819,55 +39828,55 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="319"/>
-      <c r="B10" s="612" t="s">
+      <c r="B10" s="611" t="s">
         <v>269</v>
       </c>
       <c r="C10" s="320"/>
-      <c r="D10" s="620"/>
+      <c r="D10" s="619"/>
       <c r="E10" s="320"/>
-      <c r="F10" s="626"/>
+      <c r="F10" s="625"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="319"/>
-      <c r="B11" s="613" t="s">
+      <c r="B11" s="612" t="s">
         <v>270</v>
       </c>
       <c r="C11" s="324"/>
-      <c r="D11" s="621"/>
-      <c r="E11" s="601"/>
-      <c r="F11" s="627"/>
+      <c r="D11" s="620"/>
+      <c r="E11" s="600"/>
+      <c r="F11" s="626"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="322"/>
-      <c r="B12" s="608" t="s">
+      <c r="B12" s="607" t="s">
         <v>258</v>
       </c>
-      <c r="C12" s="603"/>
-      <c r="D12" s="602"/>
-      <c r="E12" s="603"/>
-      <c r="F12" s="602"/>
+      <c r="C12" s="602"/>
+      <c r="D12" s="601"/>
+      <c r="E12" s="602"/>
+      <c r="F12" s="601"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="322"/>
       <c r="B13" s="238"/>
-      <c r="C13" s="614"/>
-      <c r="D13" s="622"/>
+      <c r="C13" s="613"/>
+      <c r="D13" s="621"/>
       <c r="E13" s="327"/>
-      <c r="F13" s="600"/>
+      <c r="F13" s="599"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="319"/>
       <c r="B14" s="326" t="s">
         <v>271</v>
       </c>
-      <c r="C14" s="615"/>
-      <c r="D14" s="623"/>
-      <c r="E14" s="618"/>
-      <c r="F14" s="628"/>
+      <c r="C14" s="614"/>
+      <c r="D14" s="622"/>
+      <c r="E14" s="617"/>
+      <c r="F14" s="627"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="322"/>
-      <c r="B15" s="609" t="s">
+      <c r="B15" s="608" t="s">
         <v>264</v>
       </c>
       <c r="C15" s="321"/>
@@ -39877,35 +39886,35 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="322"/>
-      <c r="B16" s="608" t="s">
+      <c r="B16" s="607" t="s">
         <v>262</v>
       </c>
-      <c r="C16" s="603"/>
-      <c r="D16" s="602"/>
-      <c r="E16" s="603"/>
-      <c r="F16" s="602"/>
+      <c r="C16" s="602"/>
+      <c r="D16" s="601"/>
+      <c r="E16" s="602"/>
+      <c r="F16" s="601"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="322"/>
       <c r="B17" s="329"/>
-      <c r="C17" s="616"/>
-      <c r="D17" s="624"/>
-      <c r="E17" s="616"/>
-      <c r="F17" s="629"/>
+      <c r="C17" s="615"/>
+      <c r="D17" s="623"/>
+      <c r="E17" s="615"/>
+      <c r="F17" s="628"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="319"/>
       <c r="B18" s="326" t="s">
         <v>272</v>
       </c>
-      <c r="C18" s="615"/>
-      <c r="D18" s="623"/>
-      <c r="E18" s="618"/>
-      <c r="F18" s="628"/>
+      <c r="C18" s="614"/>
+      <c r="D18" s="622"/>
+      <c r="E18" s="617"/>
+      <c r="F18" s="627"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="322"/>
-      <c r="B19" s="609" t="s">
+      <c r="B19" s="608" t="s">
         <v>264</v>
       </c>
       <c r="C19" s="321"/>
@@ -39915,7 +39924,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="322"/>
-      <c r="B20" s="610" t="s">
+      <c r="B20" s="609" t="s">
         <v>262</v>
       </c>
       <c r="C20" s="327"/>
@@ -39925,19 +39934,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="322"/>
-      <c r="B21" s="611"/>
-      <c r="C21" s="617"/>
-      <c r="D21" s="625"/>
-      <c r="E21" s="619"/>
-      <c r="F21" s="630"/>
+      <c r="B21" s="610"/>
+      <c r="C21" s="616"/>
+      <c r="D21" s="624"/>
+      <c r="E21" s="618"/>
+      <c r="F21" s="629"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="206"/>
-      <c r="B22" s="748"/>
-      <c r="C22" s="748"/>
-      <c r="D22" s="748"/>
-      <c r="E22" s="748"/>
-      <c r="F22" s="748"/>
+      <c r="B22" s="743"/>
+      <c r="C22" s="743"/>
+      <c r="D22" s="743"/>
+      <c r="E22" s="743"/>
+      <c r="F22" s="743"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="206"/>
@@ -40000,13 +40009,13 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.25">
-      <c r="B2" s="757" t="s">
+      <c r="B2" s="756" t="s">
         <v>275</v>
       </c>
-      <c r="C2" s="758" t="s">
+      <c r="C2" s="757" t="s">
         <v>276</v>
       </c>
-      <c r="D2" s="758" t="s">
+      <c r="D2" s="757" t="s">
         <v>154</v>
       </c>
       <c r="E2" s="330" t="s">
@@ -40041,9 +40050,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="757"/>
-      <c r="C3" s="759"/>
-      <c r="D3" s="759"/>
+      <c r="B3" s="756"/>
+      <c r="C3" s="758"/>
+      <c r="D3" s="758"/>
       <c r="E3" s="332" t="s">
         <v>285</v>
       </c>
@@ -40076,7 +40085,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="760" t="s">
+      <c r="B4" s="759" t="s">
         <v>288</v>
       </c>
       <c r="C4" s="334" t="s">
@@ -40095,7 +40104,7 @@
       <c r="N4" s="336"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="760"/>
+      <c r="B5" s="759"/>
       <c r="C5" s="334" t="s">
         <v>62</v>
       </c>
@@ -40112,7 +40121,7 @@
       <c r="N5" s="336"/>
     </row>
     <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="761"/>
+      <c r="B6" s="760"/>
       <c r="C6" s="337" t="s">
         <v>278</v>
       </c>
@@ -40173,16 +40182,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="762" t="s">
+      <c r="A1" s="761" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="763"/>
-      <c r="C1" s="764"/>
-      <c r="D1" s="765" t="s">
+      <c r="B1" s="762"/>
+      <c r="C1" s="763"/>
+      <c r="D1" s="764" t="s">
         <v>290</v>
       </c>
-      <c r="E1" s="765"/>
-      <c r="F1" s="766"/>
+      <c r="E1" s="764"/>
+      <c r="F1" s="765"/>
       <c r="G1" s="347" t="s">
         <v>291</v>
       </c>
@@ -40190,7 +40199,7 @@
       <c r="I1" s="417"/>
       <c r="J1" s="417"/>
       <c r="K1" s="348"/>
-      <c r="L1" s="767" t="s">
+      <c r="L1" s="766" t="s">
         <v>292</v>
       </c>
     </row>
@@ -40228,7 +40237,7 @@
       <c r="K2" s="357" t="s">
         <v>296</v>
       </c>
-      <c r="L2" s="768"/>
+      <c r="L2" s="767"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="358"/>
@@ -40236,46 +40245,46 @@
       <c r="C3" s="360" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="769" t="s">
+      <c r="D3" s="768" t="s">
         <v>297</v>
       </c>
-      <c r="E3" s="770"/>
-      <c r="F3" s="771"/>
-      <c r="G3" s="772" t="s">
+      <c r="E3" s="769"/>
+      <c r="F3" s="770"/>
+      <c r="G3" s="771" t="s">
         <v>297</v>
       </c>
-      <c r="H3" s="773"/>
-      <c r="I3" s="773"/>
-      <c r="J3" s="773"/>
-      <c r="K3" s="774"/>
-      <c r="L3" s="768"/>
+      <c r="H3" s="772"/>
+      <c r="I3" s="772"/>
+      <c r="J3" s="772"/>
+      <c r="K3" s="773"/>
+      <c r="L3" s="767"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="418"/>
       <c r="B4" s="419"/>
       <c r="C4" s="420"/>
-      <c r="D4" s="631"/>
-      <c r="E4" s="633"/>
-      <c r="F4" s="633"/>
-      <c r="G4" s="633"/>
-      <c r="H4" s="633"/>
-      <c r="I4" s="633"/>
-      <c r="J4" s="633"/>
-      <c r="K4" s="633"/>
+      <c r="D4" s="630"/>
+      <c r="E4" s="632"/>
+      <c r="F4" s="632"/>
+      <c r="G4" s="632"/>
+      <c r="H4" s="632"/>
+      <c r="I4" s="632"/>
+      <c r="J4" s="632"/>
+      <c r="K4" s="632"/>
       <c r="L4" s="421"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="422"/>
       <c r="B5" s="423"/>
       <c r="C5" s="424"/>
-      <c r="D5" s="632"/>
-      <c r="E5" s="634"/>
-      <c r="F5" s="632"/>
-      <c r="G5" s="634"/>
-      <c r="H5" s="634"/>
-      <c r="I5" s="634"/>
-      <c r="J5" s="634"/>
-      <c r="K5" s="634"/>
+      <c r="D5" s="631"/>
+      <c r="E5" s="633"/>
+      <c r="F5" s="631"/>
+      <c r="G5" s="633"/>
+      <c r="H5" s="633"/>
+      <c r="I5" s="633"/>
+      <c r="J5" s="633"/>
+      <c r="K5" s="633"/>
       <c r="L5" s="425"/>
     </row>
   </sheetData>
@@ -40301,23 +40310,23 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:29" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="667" t="s">
+      <c r="A1" s="695" t="s">
         <v>298</v>
       </c>
-      <c r="B1" s="668"/>
-      <c r="C1" s="668"/>
-      <c r="D1" s="668"/>
+      <c r="B1" s="696"/>
+      <c r="C1" s="696"/>
+      <c r="D1" s="696"/>
       <c r="E1" s="361"/>
-      <c r="F1" s="780" t="s">
+      <c r="F1" s="779" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="781"/>
-      <c r="H1" s="781"/>
+      <c r="G1" s="780"/>
+      <c r="H1" s="780"/>
       <c r="I1" s="362"/>
       <c r="J1" s="363"/>
       <c r="K1" s="362"/>
       <c r="L1" s="364"/>
-      <c r="M1" s="775" t="s">
+      <c r="M1" s="774" t="s">
         <v>299</v>
       </c>
       <c r="N1" s="365"/>
@@ -40329,19 +40338,19 @@
       <c r="R1" s="363"/>
       <c r="S1" s="362"/>
       <c r="T1" s="364"/>
-      <c r="U1" s="775" t="s">
+      <c r="U1" s="774" t="s">
         <v>301</v>
       </c>
       <c r="V1" s="365"/>
-      <c r="W1" s="782" t="s">
+      <c r="W1" s="781" t="s">
         <v>302</v>
       </c>
-      <c r="X1" s="782"/>
-      <c r="Y1" s="782"/>
-      <c r="Z1" s="782"/>
-      <c r="AA1" s="782"/>
-      <c r="AB1" s="783"/>
-      <c r="AC1" s="775" t="s">
+      <c r="X1" s="781"/>
+      <c r="Y1" s="781"/>
+      <c r="Z1" s="781"/>
+      <c r="AA1" s="781"/>
+      <c r="AB1" s="782"/>
+      <c r="AC1" s="774" t="s">
         <v>303</v>
       </c>
     </row>
@@ -40355,52 +40364,52 @@
       <c r="C2" s="367" t="s">
         <v>305</v>
       </c>
-      <c r="D2" s="777" t="s">
+      <c r="D2" s="776" t="s">
         <v>306</v>
       </c>
-      <c r="E2" s="777"/>
+      <c r="E2" s="776"/>
       <c r="F2" s="368"/>
-      <c r="G2" s="778" t="s">
+      <c r="G2" s="777" t="s">
         <v>164</v>
       </c>
-      <c r="H2" s="778"/>
-      <c r="I2" s="778" t="s">
+      <c r="H2" s="777"/>
+      <c r="I2" s="777" t="s">
         <v>165</v>
       </c>
-      <c r="J2" s="778"/>
-      <c r="K2" s="778" t="s">
+      <c r="J2" s="777"/>
+      <c r="K2" s="777" t="s">
         <v>166</v>
       </c>
-      <c r="L2" s="779"/>
-      <c r="M2" s="776"/>
+      <c r="L2" s="778"/>
+      <c r="M2" s="775"/>
       <c r="N2" s="369"/>
-      <c r="O2" s="778" t="s">
+      <c r="O2" s="777" t="s">
         <v>164</v>
       </c>
-      <c r="P2" s="778"/>
-      <c r="Q2" s="778" t="s">
+      <c r="P2" s="777"/>
+      <c r="Q2" s="777" t="s">
         <v>165</v>
       </c>
-      <c r="R2" s="778"/>
-      <c r="S2" s="778" t="s">
+      <c r="R2" s="777"/>
+      <c r="S2" s="777" t="s">
         <v>166</v>
       </c>
-      <c r="T2" s="779"/>
-      <c r="U2" s="776"/>
+      <c r="T2" s="778"/>
+      <c r="U2" s="775"/>
       <c r="V2" s="369"/>
-      <c r="W2" s="778" t="s">
+      <c r="W2" s="777" t="s">
         <v>164</v>
       </c>
-      <c r="X2" s="778"/>
-      <c r="Y2" s="778" t="s">
+      <c r="X2" s="777"/>
+      <c r="Y2" s="777" t="s">
         <v>165</v>
       </c>
-      <c r="Z2" s="778"/>
-      <c r="AA2" s="778" t="s">
+      <c r="Z2" s="777"/>
+      <c r="AA2" s="777" t="s">
         <v>166</v>
       </c>
-      <c r="AB2" s="779"/>
-      <c r="AC2" s="776"/>
+      <c r="AB2" s="778"/>
+      <c r="AC2" s="775"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
